--- a/Supplimentary Table S1 -DakoCatalog.xlsx
+++ b/Supplimentary Table S1 -DakoCatalog.xlsx
@@ -25,6 +25,18 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C478">
+      <text>
+        <t xml:space="preserve">Originally Cyrtodactylus "aspinosus"
+	-Isaac Krone</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C271">
+      <text>
+        <t xml:space="preserve">Originally "Elaphe erythrura"
+	-Isaac Krone</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A640">
       <text>
         <t xml:space="preserve">uncatologued
@@ -166,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6356" uniqueCount="850">
   <si>
     <t>JAM Number</t>
   </si>
@@ -1404,7 +1416,7 @@
     <t>laid 2 white eggs in bag. Regular shape</t>
   </si>
   <si>
-    <t>Elaphe erythrura</t>
+    <t>Coelognathus erythrurus</t>
   </si>
   <si>
     <t>cacao plantation, ground</t>
@@ -2260,9 +2272,6 @@
   </si>
   <si>
     <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>Cyrtodactylus "aspinosus"</t>
   </si>
   <si>
     <t>Y</t>
@@ -3740,7 +3749,7 @@
         <s v="Tytthoscincus &quot;low&quot;"/>
         <s v="Emoia caeruleocauda"/>
         <s v="Eutropis multifasciata"/>
-        <s v="Elaphe erythrura"/>
+        <s v="Coelognathus erythrurus"/>
         <s v="Hebius celebicum"/>
         <s v="Polypedates iskandari"/>
         <s v="Rhabdophis chrysargoides"/>
@@ -3752,7 +3761,6 @@
         <s v="Sphenomorphus celebensis &quot;highest&quot;"/>
         <s v="Rabdion forsteni"/>
         <s v="Occidozyga semipalmata &quot;high&quot;"/>
-        <s v="Cyrtodactylus &quot;aspinosus&quot;"/>
         <s v="Hemidactylus frenatus"/>
         <s v="Gekko smithii"/>
         <s v="Lamprolepis smaragdina &quot;brown&quot;"/>
@@ -6574,7 +6582,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 1" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:K56" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
+  <location ref="A1:K55" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="JAM Number" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -7231,32 +7239,31 @@
     </pivotField>
     <pivotField name="Genus species" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
-        <item x="53"/>
+        <item x="52"/>
         <item x="15"/>
         <item x="17"/>
         <item x="19"/>
         <item x="11"/>
         <item x="26"/>
-        <item x="47"/>
+        <item x="35"/>
         <item x="3"/>
         <item x="13"/>
         <item x="29"/>
-        <item x="35"/>
         <item x="33"/>
         <item x="20"/>
         <item x="34"/>
         <item x="31"/>
         <item x="14"/>
-        <item x="49"/>
+        <item x="48"/>
         <item x="36"/>
-        <item x="48"/>
+        <item x="47"/>
         <item x="2"/>
         <item x="28"/>
-        <item x="50"/>
-        <item x="52"/>
+        <item x="49"/>
+        <item x="51"/>
         <item x="30"/>
         <item x="1"/>
-        <item x="51"/>
+        <item x="50"/>
         <item x="0"/>
         <item x="25"/>
         <item x="23"/>
@@ -35459,7 +35466,7 @@
         <v>35</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>698</v>
+        <v>38</v>
       </c>
       <c r="D478" s="1"/>
       <c r="H478" s="4">
@@ -35805,7 +35812,7 @@
         <v>36</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H485" s="4">
         <v>43301.0</v>
@@ -35994,7 +36001,7 @@
       </c>
       <c r="D489" s="9"/>
       <c r="F489" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H489" s="4">
         <v>43301.0</v>
@@ -36138,7 +36145,7 @@
         <v>36</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H492" s="4">
         <v>43302.0</v>
@@ -36177,7 +36184,7 @@
         <v>49</v>
       </c>
       <c r="W492" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
@@ -36291,7 +36298,7 @@
       </c>
       <c r="D495" s="1"/>
       <c r="F495" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H495" s="4">
         <v>43302.0</v>
@@ -36537,7 +36544,7 @@
         <v>36</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H500" s="4">
         <v>43302.0</v>
@@ -36591,7 +36598,7 @@
         <v>36</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H501" s="4">
         <v>43302.0</v>
@@ -36678,7 +36685,7 @@
         <v>49</v>
       </c>
       <c r="W502" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
@@ -37416,7 +37423,7 @@
         <v>49</v>
       </c>
       <c r="W517" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
@@ -37455,16 +37462,16 @@
         <v>336.0</v>
       </c>
       <c r="R518" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T518" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="S518" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T518" s="1" t="s">
+      <c r="U518" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U518" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V518" s="8" t="s">
         <v>634</v>
@@ -37506,16 +37513,16 @@
         <v>336.0</v>
       </c>
       <c r="R519" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S519" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T519" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U519" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U519" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V519" s="8" t="s">
         <v>634</v>
@@ -37536,7 +37543,7 @@
         <v>36</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H520" s="4">
         <v>43304.0</v>
@@ -37563,16 +37570,16 @@
         <v>336.0</v>
       </c>
       <c r="R520" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S520" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T520" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U520" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U520" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V520" s="8" t="s">
         <v>634</v>
@@ -37617,16 +37624,16 @@
         <v>336.0</v>
       </c>
       <c r="R521" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S521" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T521" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U521" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U521" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V521" s="8" t="s">
         <v>634</v>
@@ -37671,16 +37678,16 @@
         <v>336.0</v>
       </c>
       <c r="R522" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S522" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T522" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U522" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U522" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V522" s="8" t="s">
         <v>634</v>
@@ -37722,16 +37729,16 @@
         <v>336.0</v>
       </c>
       <c r="R523" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S523" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T523" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U523" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U523" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V523" s="8" t="s">
         <v>634</v>
@@ -37779,16 +37786,16 @@
         <v>325.0</v>
       </c>
       <c r="R524" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S524" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T524" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U524" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U524" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V524" s="8" t="s">
         <v>634</v>
@@ -37830,16 +37837,16 @@
         <v>325.0</v>
       </c>
       <c r="R525" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S525" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T525" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U525" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U525" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V525" s="8" t="s">
         <v>634</v>
@@ -37881,16 +37888,16 @@
         <v>336.0</v>
       </c>
       <c r="R526" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S526" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T526" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U526" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U526" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V526" s="8" t="s">
         <v>634</v>
@@ -37932,16 +37939,16 @@
         <v>336.0</v>
       </c>
       <c r="R527" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S527" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T527" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U527" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U527" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V527" s="8" t="s">
         <v>634</v>
@@ -37986,16 +37993,16 @@
         <v>336.0</v>
       </c>
       <c r="R528" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S528" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T528" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U528" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U528" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V528" s="8" t="s">
         <v>634</v>
@@ -38037,22 +38044,22 @@
         <v>336.0</v>
       </c>
       <c r="R529" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S529" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T529" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U529" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U529" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V529" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W529" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="530" ht="15.75" customHeight="1">
@@ -38091,16 +38098,16 @@
         <v>326.0</v>
       </c>
       <c r="R530" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S530" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T530" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U530" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U530" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V530" s="8" t="s">
         <v>634</v>
@@ -38142,16 +38149,16 @@
         <v>326.0</v>
       </c>
       <c r="R531" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S531" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T531" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U531" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U531" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V531" s="8" t="s">
         <v>634</v>
@@ -38196,22 +38203,22 @@
         <v>334.0</v>
       </c>
       <c r="R532" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S532" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T532" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U532" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U532" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V532" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W532" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="533" ht="15.75" customHeight="1">
@@ -38250,16 +38257,16 @@
         <v>326.0</v>
       </c>
       <c r="R533" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S533" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T533" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U533" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U533" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V533" s="8" t="s">
         <v>634</v>
@@ -38304,16 +38311,16 @@
         <v>325.0</v>
       </c>
       <c r="R534" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S534" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T534" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U534" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U534" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V534" s="8" t="s">
         <v>634</v>
@@ -38358,16 +38365,16 @@
         <v>347.0</v>
       </c>
       <c r="R535" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S535" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T535" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U535" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U535" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V535" s="8" t="s">
         <v>634</v>
@@ -38412,16 +38419,16 @@
         <v>336.0</v>
       </c>
       <c r="R536" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S536" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T536" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U536" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U536" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V536" s="8" t="s">
         <v>634</v>
@@ -38469,16 +38476,16 @@
         <v>330.0</v>
       </c>
       <c r="R537" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S537" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T537" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U537" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U537" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V537" s="8" t="s">
         <v>634</v>
@@ -38526,16 +38533,16 @@
         <v>347.0</v>
       </c>
       <c r="R538" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="S538" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T538" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U538" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U538" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V538" s="8" t="s">
         <v>634</v>
@@ -38583,22 +38590,22 @@
         <v>336.0</v>
       </c>
       <c r="R539" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="S539" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T539" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U539" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U539" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V539" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W539" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="X539" s="1" t="s">
         <v>649</v>
@@ -38643,22 +38650,22 @@
         <v>334.0</v>
       </c>
       <c r="R540" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S540" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T540" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U540" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U540" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V540" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W540" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="X540" s="1" t="s">
         <v>649</v>
@@ -38672,7 +38679,7 @@
         <v>24</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D541" s="1"/>
       <c r="H541" s="4">
@@ -38703,16 +38710,16 @@
         <v>338.0</v>
       </c>
       <c r="R541" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S541" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T541" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U541" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U541" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V541" s="8" t="s">
         <v>634</v>
@@ -38763,16 +38770,16 @@
         <v>337.0</v>
       </c>
       <c r="R542" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S542" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T542" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U542" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U542" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V542" s="8" t="s">
         <v>634</v>
@@ -38811,22 +38818,22 @@
         <v>346.0</v>
       </c>
       <c r="R543" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S543" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T543" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U543" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U543" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V543" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W543" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="544" ht="15.75" customHeight="1">
@@ -38868,16 +38875,16 @@
         <v>338.0</v>
       </c>
       <c r="R544" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S544" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T544" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U544" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U544" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V544" s="8" t="s">
         <v>634</v>
@@ -38925,16 +38932,16 @@
         <v>337.0</v>
       </c>
       <c r="R545" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S545" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T545" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U545" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U545" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V545" s="8" t="s">
         <v>634</v>
@@ -38979,16 +38986,16 @@
         <v>347.0</v>
       </c>
       <c r="R546" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S546" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T546" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U546" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U546" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V546" s="8" t="s">
         <v>634</v>
@@ -39039,22 +39046,22 @@
         <v>299.0</v>
       </c>
       <c r="R547" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S547" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T547" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U547" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U547" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V547" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W547" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
@@ -39099,22 +39106,22 @@
         <v>285.0</v>
       </c>
       <c r="R548" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S548" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T548" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U548" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U548" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V548" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W548" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
@@ -39159,22 +39166,22 @@
         <v>285.0</v>
       </c>
       <c r="R549" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S549" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T549" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U549" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U549" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V549" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W549" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
@@ -39219,22 +39226,22 @@
         <v>285.0</v>
       </c>
       <c r="R550" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S550" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T550" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U550" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U550" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V550" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W550" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="551" ht="15.75" customHeight="1">
@@ -39279,22 +39286,22 @@
         <v>285.0</v>
       </c>
       <c r="R551" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S551" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T551" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U551" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U551" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V551" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W551" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="552" ht="15.75" customHeight="1">
@@ -39339,22 +39346,22 @@
         <v>288.0</v>
       </c>
       <c r="R552" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S552" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T552" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U552" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U552" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V552" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W552" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="553" ht="15.75" customHeight="1">
@@ -39399,22 +39406,22 @@
         <v>289.0</v>
       </c>
       <c r="R553" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S553" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T553" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U553" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U553" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V553" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W553" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="554" ht="15.75" customHeight="1">
@@ -39459,25 +39466,25 @@
         <v>289.0</v>
       </c>
       <c r="R554" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S554" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T554" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U554" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U554" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V554" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W554" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="X554" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
@@ -39519,22 +39526,22 @@
         <v>297.0</v>
       </c>
       <c r="R555" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S555" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T555" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U555" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U555" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V555" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W555" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
@@ -39579,22 +39586,22 @@
         <v>297.0</v>
       </c>
       <c r="R556" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S556" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T556" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U556" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U556" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V556" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W556" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
@@ -39639,16 +39646,16 @@
         <v>285.0</v>
       </c>
       <c r="R557" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S557" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T557" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U557" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U557" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V557" s="8" t="s">
         <v>634</v>
@@ -39657,7 +39664,7 @@
         <v>420</v>
       </c>
       <c r="X557" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
@@ -39699,25 +39706,25 @@
         <v>314.0</v>
       </c>
       <c r="R558" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S558" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T558" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U558" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U558" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V558" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W558" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="X558" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="X558" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
@@ -39762,25 +39769,25 @@
         <v>353.0</v>
       </c>
       <c r="R559" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S559" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T559" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U559" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U559" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V559" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W559" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="X559" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="X559" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
@@ -39819,16 +39826,16 @@
         <v>326.0</v>
       </c>
       <c r="R560" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S560" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T560" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U560" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U560" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V560" s="8" t="s">
         <v>634</v>
@@ -39873,16 +39880,16 @@
         <v>326.0</v>
       </c>
       <c r="R561" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S561" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T561" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U561" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U561" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V561" s="8" t="s">
         <v>634</v>
@@ -39930,16 +39937,16 @@
         <v>309.0</v>
       </c>
       <c r="R562" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S562" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T562" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U562" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U562" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V562" s="8" t="s">
         <v>634</v>
@@ -39966,7 +39973,7 @@
         <v>30.0</v>
       </c>
       <c r="L563" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M563" s="1">
         <v>0.48</v>
@@ -39984,16 +39991,16 @@
         <v>304.0</v>
       </c>
       <c r="R563" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S563" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T563" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U563" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U563" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V563" s="8" t="s">
         <v>634</v>
@@ -40038,16 +40045,16 @@
         <v>304.0</v>
       </c>
       <c r="R564" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S564" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T564" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U564" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U564" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V564" s="8" t="s">
         <v>634</v>
@@ -40092,16 +40099,16 @@
         <v>298.0</v>
       </c>
       <c r="R565" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S565" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T565" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U565" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U565" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V565" s="8" t="s">
         <v>634</v>
@@ -40149,25 +40156,25 @@
         <v>297.0</v>
       </c>
       <c r="R566" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S566" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T566" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U566" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U566" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V566" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W566" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="X566" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="X566" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
@@ -40191,7 +40198,7 @@
         <v>50.0</v>
       </c>
       <c r="L567" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M567" s="1">
         <v>3.1</v>
@@ -40209,16 +40216,16 @@
         <v>297.0</v>
       </c>
       <c r="R567" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S567" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T567" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U567" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U567" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V567" s="8" t="s">
         <v>634</v>
@@ -40239,7 +40246,7 @@
         <v>36</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H568" s="4">
         <v>43305.0</v>
@@ -40269,16 +40276,16 @@
         <v>330.0</v>
       </c>
       <c r="R568" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S568" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T568" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U568" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U568" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V568" s="8" t="s">
         <v>634</v>
@@ -40299,7 +40306,7 @@
         <v>36</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H569" s="4">
         <v>43305.0</v>
@@ -40326,16 +40333,16 @@
         <v>305.0</v>
       </c>
       <c r="R569" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S569" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T569" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U569" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U569" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V569" s="8" t="s">
         <v>634</v>
@@ -40380,16 +40387,16 @@
         <v>304.0</v>
       </c>
       <c r="R570" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S570" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T570" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U570" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U570" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V570" s="8" t="s">
         <v>634</v>
@@ -40434,16 +40441,16 @@
         <v>304.0</v>
       </c>
       <c r="R571" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S571" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T571" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U571" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U571" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V571" s="8" t="s">
         <v>634</v>
@@ -40488,16 +40495,16 @@
         <v>300.0</v>
       </c>
       <c r="R572" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S572" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T572" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U572" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U572" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V572" s="8" t="s">
         <v>634</v>
@@ -40542,16 +40549,16 @@
         <v>300.0</v>
       </c>
       <c r="R573" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S573" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T573" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U573" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U573" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V573" s="8" t="s">
         <v>634</v>
@@ -40596,16 +40603,16 @@
         <v>298.0</v>
       </c>
       <c r="R574" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S574" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T574" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U574" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U574" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V574" s="8" t="s">
         <v>634</v>
@@ -40647,16 +40654,16 @@
         <v>298.0</v>
       </c>
       <c r="R575" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S575" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T575" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U575" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U575" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V575" s="8" t="s">
         <v>634</v>
@@ -40677,7 +40684,7 @@
         <v>36</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H576" s="4">
         <v>43305.0</v>
@@ -40704,16 +40711,16 @@
         <v>304.0</v>
       </c>
       <c r="R576" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S576" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T576" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U576" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U576" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V576" s="8" t="s">
         <v>634</v>
@@ -40755,22 +40762,22 @@
         <v>304.0</v>
       </c>
       <c r="R577" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S577" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T577" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U577" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U577" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V577" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W577" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
@@ -40809,16 +40816,16 @@
         <v>298.0</v>
       </c>
       <c r="R578" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S578" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T578" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U578" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U578" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V578" s="8" t="s">
         <v>634</v>
@@ -40832,7 +40839,7 @@
         <v>35</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D579" s="1"/>
       <c r="E579" s="1" t="s">
@@ -40866,16 +40873,16 @@
         <v>293.0</v>
       </c>
       <c r="R579" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S579" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T579" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U579" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U579" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V579" s="8" t="s">
         <v>634</v>
@@ -40889,7 +40896,7 @@
         <v>24</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D580" s="1"/>
       <c r="H580" s="4">
@@ -40902,7 +40909,7 @@
         <v>168.0</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M580" s="1">
         <v>78.39</v>
@@ -40920,16 +40927,16 @@
         <v>298.0</v>
       </c>
       <c r="R580" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S580" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T580" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U580" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U580" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V580" s="8" t="s">
         <v>634</v>
@@ -40977,10 +40984,10 @@
         <v>27</v>
       </c>
       <c r="T581" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U581" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U581" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V581" s="8" t="s">
         <v>634</v>
@@ -41031,16 +41038,16 @@
         <v>27</v>
       </c>
       <c r="T582" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U582" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U582" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V582" s="8" t="s">
         <v>634</v>
       </c>
       <c r="X582" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="583" ht="15.75" customHeight="1">
@@ -41067,7 +41074,7 @@
         <v>69.0</v>
       </c>
       <c r="L583" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M583" s="1">
         <v>9.54</v>
@@ -41088,10 +41095,10 @@
         <v>27</v>
       </c>
       <c r="T583" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U583" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U583" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V583" s="8" t="s">
         <v>634</v>
@@ -41139,10 +41146,10 @@
         <v>27</v>
       </c>
       <c r="T584" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U584" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U584" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V584" s="8" t="s">
         <v>634</v>
@@ -41172,7 +41179,7 @@
         <v>51.0</v>
       </c>
       <c r="L585" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M585" s="1">
         <v>3.54</v>
@@ -41193,10 +41200,10 @@
         <v>27</v>
       </c>
       <c r="T585" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U585" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U585" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V585" s="8" t="s">
         <v>634</v>
@@ -41247,10 +41254,10 @@
         <v>27</v>
       </c>
       <c r="T586" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U586" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U586" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V586" s="8" t="s">
         <v>634</v>
@@ -41259,7 +41266,7 @@
         <v>420</v>
       </c>
       <c r="X586" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
@@ -41307,10 +41314,10 @@
         <v>27</v>
       </c>
       <c r="T587" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U587" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U587" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V587" s="8" t="s">
         <v>634</v>
@@ -41361,10 +41368,10 @@
         <v>27</v>
       </c>
       <c r="T588" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U588" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U588" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V588" s="8" t="s">
         <v>634</v>
@@ -41373,7 +41380,7 @@
         <v>420</v>
       </c>
       <c r="X588" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="589" ht="15.75" customHeight="1">
@@ -41418,10 +41425,10 @@
         <v>27</v>
       </c>
       <c r="T589" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U589" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U589" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V589" s="8" t="s">
         <v>634</v>
@@ -41469,10 +41476,10 @@
         <v>27</v>
       </c>
       <c r="T590" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U590" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U590" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V590" s="8" t="s">
         <v>634</v>
@@ -41526,10 +41533,10 @@
         <v>27</v>
       </c>
       <c r="T591" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U591" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U591" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V591" s="8" t="s">
         <v>634</v>
@@ -41580,10 +41587,10 @@
         <v>27</v>
       </c>
       <c r="T592" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U592" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U592" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V592" s="8" t="s">
         <v>634</v>
@@ -41634,10 +41641,10 @@
         <v>27</v>
       </c>
       <c r="T593" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U593" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U593" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V593" s="8" t="s">
         <v>634</v>
@@ -41685,10 +41692,10 @@
         <v>27</v>
       </c>
       <c r="T594" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U594" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U594" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V594" s="8" t="s">
         <v>634</v>
@@ -41739,16 +41746,16 @@
         <v>27</v>
       </c>
       <c r="T595" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U595" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U595" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V595" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W595" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X595" s="1" t="s">
         <v>649</v>
@@ -41799,10 +41806,10 @@
         <v>27</v>
       </c>
       <c r="T596" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U596" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U596" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V596" s="8" t="s">
         <v>634</v>
@@ -41853,16 +41860,16 @@
         <v>27</v>
       </c>
       <c r="T597" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U597" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U597" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V597" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W597" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="X597" s="1" t="s">
         <v>649</v>
@@ -41913,19 +41920,19 @@
         <v>27</v>
       </c>
       <c r="T598" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U598" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U598" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V598" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W598" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="X598" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="X598" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="599" ht="15.75" customHeight="1">
@@ -41973,16 +41980,16 @@
         <v>27</v>
       </c>
       <c r="T599" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U599" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U599" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V599" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W599" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="600" ht="15.75" customHeight="1">
@@ -42030,19 +42037,19 @@
         <v>27</v>
       </c>
       <c r="T600" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U600" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U600" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V600" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W600" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="X600" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="X600" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="601" ht="15.75" customHeight="1">
@@ -42053,7 +42060,7 @@
         <v>24</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D601" s="1"/>
       <c r="E601" s="1" t="s">
@@ -42090,10 +42097,10 @@
         <v>27</v>
       </c>
       <c r="T601" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U601" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U601" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V601" s="8" t="s">
         <v>634</v>
@@ -42138,10 +42145,10 @@
         <v>27</v>
       </c>
       <c r="T602" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U602" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U602" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V602" s="8" t="s">
         <v>480</v>
@@ -42183,10 +42190,10 @@
         <v>27</v>
       </c>
       <c r="T603" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U603" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U603" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V603" s="8" t="s">
         <v>480</v>
@@ -42200,7 +42207,7 @@
         <v>35</v>
       </c>
       <c r="C604" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D604" s="9"/>
       <c r="H604" s="4">
@@ -42228,10 +42235,10 @@
         <v>27</v>
       </c>
       <c r="T604" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U604" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U604" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V604" s="8" t="s">
         <v>480</v>
@@ -42273,7 +42280,7 @@
         <v>27</v>
       </c>
       <c r="T605" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U605" s="8" t="s">
         <v>48</v>
@@ -42321,13 +42328,13 @@
         <v>1003.0</v>
       </c>
       <c r="R606" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S606" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T606" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U606" s="8" t="s">
         <v>48</v>
@@ -42375,10 +42382,10 @@
         <v>27</v>
       </c>
       <c r="T607" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U607" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U607" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V607" s="8" t="s">
         <v>634</v>
@@ -42426,10 +42433,10 @@
         <v>27</v>
       </c>
       <c r="T608" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U608" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U608" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V608" s="8" t="s">
         <v>634</v>
@@ -42480,10 +42487,10 @@
         <v>27</v>
       </c>
       <c r="T609" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U609" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U609" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V609" s="8" t="s">
         <v>634</v>
@@ -42534,10 +42541,10 @@
         <v>27</v>
       </c>
       <c r="T610" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U610" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U610" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V610" s="8" t="s">
         <v>634</v>
@@ -42579,16 +42586,16 @@
         <v>27</v>
       </c>
       <c r="T611" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U611" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U611" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V611" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W611" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="612" ht="15.75" customHeight="1">
@@ -42633,10 +42640,10 @@
         <v>27</v>
       </c>
       <c r="T612" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U612" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U612" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V612" s="8" t="s">
         <v>634</v>
@@ -42687,10 +42694,10 @@
         <v>27</v>
       </c>
       <c r="T613" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U613" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U613" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V613" s="8" t="s">
         <v>634</v>
@@ -42738,10 +42745,10 @@
         <v>27</v>
       </c>
       <c r="T614" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U614" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U614" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V614" s="8" t="s">
         <v>634</v>
@@ -42792,10 +42799,10 @@
         <v>27</v>
       </c>
       <c r="T615" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U615" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U615" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V615" s="8" t="s">
         <v>634</v>
@@ -42813,7 +42820,7 @@
       </c>
       <c r="D616" s="1"/>
       <c r="F616" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H616" s="4">
         <v>43307.0</v>
@@ -42846,10 +42853,10 @@
         <v>27</v>
       </c>
       <c r="T616" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U616" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U616" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V616" s="8" t="s">
         <v>634</v>
@@ -42900,19 +42907,19 @@
         <v>27</v>
       </c>
       <c r="T617" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U617" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U617" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V617" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W617" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="X617" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="X617" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="618" ht="15.75" customHeight="1">
@@ -42923,7 +42930,7 @@
         <v>35</v>
       </c>
       <c r="C618" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D618" s="9"/>
       <c r="H618" s="4">
@@ -42954,16 +42961,16 @@
         <v>27</v>
       </c>
       <c r="T618" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U618" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U618" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V618" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W618" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="X618" s="1" t="s">
         <v>649</v>
@@ -42999,10 +43006,10 @@
         <v>27</v>
       </c>
       <c r="T619" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U619" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U619" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V619" s="8" t="s">
         <v>634</v>
@@ -43050,16 +43057,16 @@
         <v>27</v>
       </c>
       <c r="T620" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U620" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U620" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V620" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W620" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="621" ht="15.75" customHeight="1">
@@ -43101,19 +43108,19 @@
         <v>27</v>
       </c>
       <c r="T621" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U621" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="U621" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="V621" s="8" t="s">
         <v>634</v>
       </c>
       <c r="W621" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="X621" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="X621" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="622" ht="15.75" customHeight="1">
@@ -43124,7 +43131,7 @@
         <v>35</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D622" s="1"/>
       <c r="H622" s="4">
@@ -43137,19 +43144,19 @@
         <v>27</v>
       </c>
       <c r="T622" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="U622" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="U622" s="8" t="s">
+      <c r="V622" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="V622" s="8" t="s">
+      <c r="W622" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="W622" s="1" t="s">
+      <c r="X622" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="X622" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="623" ht="15.75" customHeight="1">
@@ -43160,7 +43167,7 @@
         <v>24</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D623" s="1"/>
       <c r="H623" s="4">
@@ -43191,25 +43198,25 @@
         <v>220.0</v>
       </c>
       <c r="R623" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S623" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T623" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="U623" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="U623" s="8" t="s">
+      <c r="V623" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="V623" s="8" t="s">
+      <c r="W623" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="W623" s="1" t="s">
+      <c r="X623" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="X623" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="624" ht="15.75" customHeight="1">
@@ -43224,7 +43231,7 @@
       </c>
       <c r="D624" s="1"/>
       <c r="E624" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H624" s="4">
         <v>43296.0</v>
@@ -43248,19 +43255,19 @@
         <v>1075.0</v>
       </c>
       <c r="R624" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="S624" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T624" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="U624" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="S624" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T624" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="U624" s="8" t="s">
+      <c r="V624" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V624" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="625" ht="15.75" customHeight="1">
@@ -43290,7 +43297,7 @@
         <v>92.0</v>
       </c>
       <c r="L625" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M625" s="1">
         <v>8.7</v>
@@ -43305,19 +43312,19 @@
         <v>1063.0</v>
       </c>
       <c r="R625" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S625" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T625" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U625" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V625" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V625" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="626" ht="15.75" customHeight="1">
@@ -43359,13 +43366,13 @@
         <v>27</v>
       </c>
       <c r="T626" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U626" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V626" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V626" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="627" ht="15.75" customHeight="1">
@@ -43407,13 +43414,13 @@
         <v>27</v>
       </c>
       <c r="T627" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U627" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V627" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V627" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="628" ht="15.75" customHeight="1">
@@ -43455,13 +43462,13 @@
         <v>27</v>
       </c>
       <c r="T628" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U628" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V628" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V628" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="629" ht="15.75" customHeight="1">
@@ -43506,13 +43513,13 @@
         <v>27</v>
       </c>
       <c r="T629" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U629" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V629" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V629" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="630" ht="15.75" customHeight="1">
@@ -43551,13 +43558,13 @@
         <v>27</v>
       </c>
       <c r="T630" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U630" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V630" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="V630" s="8" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="631" ht="15.75" customHeight="1">
@@ -43568,7 +43575,7 @@
         <v>35</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D631" s="1"/>
       <c r="H631" s="4">
@@ -43581,7 +43588,7 @@
         <v>58.0</v>
       </c>
       <c r="L631" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N631" s="1">
         <v>1.08649</v>
@@ -43596,13 +43603,13 @@
         <v>27</v>
       </c>
       <c r="T631" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U631" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U631" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V631" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="632" ht="15.75" customHeight="1">
@@ -43613,7 +43620,7 @@
         <v>35</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D632" s="1"/>
       <c r="G632" s="1" t="s">
@@ -43644,13 +43651,13 @@
         <v>27</v>
       </c>
       <c r="T632" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U632" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U632" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V632" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="633" ht="15.75" customHeight="1">
@@ -43661,7 +43668,7 @@
         <v>24</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D633" s="1"/>
       <c r="H633" s="4">
@@ -43689,13 +43696,13 @@
         <v>27</v>
       </c>
       <c r="T633" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U633" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U633" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V633" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="634" ht="15.75" customHeight="1">
@@ -43734,13 +43741,13 @@
         <v>27</v>
       </c>
       <c r="T634" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U634" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U634" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V634" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="635" ht="15.75" customHeight="1">
@@ -43770,13 +43777,13 @@
         <v>27</v>
       </c>
       <c r="T635" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U635" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U635" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V635" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="636" ht="15.75" customHeight="1">
@@ -43806,19 +43813,19 @@
         <v>351.0</v>
       </c>
       <c r="R636" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="S636" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T636" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U636" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U636" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V636" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="637" ht="15.75" customHeight="1">
@@ -43848,19 +43855,19 @@
         <v>883.0</v>
       </c>
       <c r="R637" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="S637" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T637" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U637" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U637" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V637" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="638" ht="15.75" customHeight="1">
@@ -43890,19 +43897,19 @@
         <v>883.0</v>
       </c>
       <c r="R638" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S638" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T638" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U638" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U638" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="V638" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="639" ht="15.75" customHeight="1">
@@ -43938,17 +43945,17 @@
         <v>5.0</v>
       </c>
       <c r="R639" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="S639" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T639" s="2"/>
       <c r="U639" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V639" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="640" ht="15.75" customHeight="1">
@@ -43959,7 +43966,7 @@
         <v>24</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H640" s="4">
         <v>43299.0</v>
@@ -43981,10 +43988,10 @@
       </c>
       <c r="T640" s="2"/>
       <c r="U640" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V640" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="641" ht="15.75" customHeight="1"/>
@@ -45817,7 +45824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -45891,7 +45898,7 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B2" s="18">
         <v>16522.0</v>
@@ -45900,7 +45907,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>35</v>
@@ -45916,7 +45923,7 @@
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K2" s="18">
         <v>58.0</v>
@@ -45942,10 +45949,10 @@
         <v>27</v>
       </c>
       <c r="T2" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>634</v>
@@ -45953,7 +45960,7 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
       <c r="Z2" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA2" s="1">
         <v>16522.0</v>
@@ -45965,7 +45972,7 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B3" s="18">
         <v>16521.0</v>
@@ -45974,7 +45981,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="18">
@@ -45988,7 +45995,7 @@
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K3" s="18">
         <v>37.0</v>
@@ -46014,10 +46021,10 @@
         <v>27</v>
       </c>
       <c r="T3" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>634</v>
@@ -46025,7 +46032,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
       <c r="Z3" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA3" s="1">
         <v>16479.0</v>
@@ -46043,7 +46050,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="18">
@@ -46057,7 +46064,7 @@
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K4" s="18">
         <v>28.0</v>
@@ -46083,10 +46090,10 @@
         <v>27</v>
       </c>
       <c r="T4" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="U4" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>634</v>
@@ -46094,7 +46101,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA4" s="1">
         <v>16526.0</v>
@@ -46106,7 +46113,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B5" s="18">
         <v>16526.0</v>
@@ -46115,7 +46122,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>36</v>
@@ -46131,7 +46138,7 @@
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K5" s="18">
         <v>54.0</v>
@@ -46157,10 +46164,10 @@
         <v>27</v>
       </c>
       <c r="T5" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="U5" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>634</v>
@@ -46168,7 +46175,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Z5" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA5" s="1">
         <v>16183.0</v>
@@ -46180,7 +46187,7 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B6" s="18">
         <v>16458.0</v>
@@ -46189,7 +46196,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>35</v>
@@ -46205,7 +46212,7 @@
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K6" s="18">
         <v>48.0</v>
@@ -46227,16 +46234,16 @@
         <v>6.0</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S6" s="18" t="s">
         <v>27</v>
       </c>
       <c r="T6" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="U6" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V6" s="22" t="s">
         <v>634</v>
@@ -46244,7 +46251,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
       <c r="Z6" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA6" s="1">
         <v>16209.0</v>
@@ -46255,7 +46262,7 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B7" s="18">
         <v>16457.0</v>
@@ -46264,7 +46271,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="18">
@@ -46278,7 +46285,7 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K7" s="18">
         <v>49.0</v>
@@ -46300,16 +46307,16 @@
         <v>3.0</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="U7" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U7" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V7" s="22" t="s">
         <v>634</v>
@@ -46317,7 +46324,7 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
       <c r="Z7" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA7" s="1">
         <v>16101.0</v>
@@ -46329,7 +46336,7 @@
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B8" s="23">
         <v>16183.0</v>
@@ -46338,7 +46345,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>36</v>
@@ -46356,7 +46363,7 @@
         <v>410</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K8" s="18">
         <v>55.0</v>
@@ -46393,7 +46400,7 @@
       </c>
       <c r="X8" s="19"/>
       <c r="Z8" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA8" s="1">
         <v>16103.0</v>
@@ -46405,7 +46412,7 @@
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B9" s="24">
         <v>16243.0</v>
@@ -46414,7 +46421,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="18">
@@ -46428,7 +46435,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K9" s="18">
         <v>53.0</v>
@@ -46463,7 +46470,7 @@
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Z9" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA9" s="1">
         <v>16100.0</v>
@@ -46482,7 +46489,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="18">
@@ -46496,7 +46503,7 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K10" s="18">
         <v>27.0</v>
@@ -46535,7 +46542,7 @@
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Z10" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA10" s="1">
         <v>16097.0</v>
@@ -46554,7 +46561,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>36</v>
@@ -46570,7 +46577,7 @@
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K11" s="18">
         <v>60.0</v>
@@ -46609,7 +46616,7 @@
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Z11" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA11" s="1">
         <v>16099.0</v>
@@ -46628,7 +46635,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="18">
@@ -46642,7 +46649,7 @@
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K12" s="18">
         <v>39.0</v>
@@ -46679,7 +46686,7 @@
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Z12" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA12" s="1">
         <v>16015.0</v>
@@ -46698,7 +46705,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="18">
@@ -46712,7 +46719,7 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K13" s="18">
         <v>48.0</v>
@@ -46751,7 +46758,7 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Z13" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA13" s="1">
         <v>16043.0</v>
@@ -46770,7 +46777,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>35</v>
@@ -46786,7 +46793,7 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K14" s="18">
         <v>59.0</v>
@@ -46825,7 +46832,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Z14" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA14" s="1">
         <v>15997.0</v>
@@ -46844,7 +46851,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>35</v>
@@ -46860,7 +46867,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K15" s="18">
         <v>57.0</v>
@@ -46895,7 +46902,7 @@
       </c>
       <c r="X15" s="19"/>
       <c r="Z15" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA15" s="1">
         <v>15957.0</v>
@@ -46914,7 +46921,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="18">
@@ -46928,7 +46935,7 @@
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K16" s="18">
         <v>36.0</v>
@@ -46961,7 +46968,7 @@
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Z16" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA16" s="1">
         <v>16049.0</v>
@@ -46980,7 +46987,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="18">
@@ -46994,7 +47001,7 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K17" s="18">
         <v>40.0</v>
@@ -47027,7 +47034,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Z17" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA17" s="1">
         <v>16813.0</v>
@@ -47046,7 +47053,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>35</v>
@@ -47055,12 +47062,12 @@
         <v>799.0</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K18" s="18">
         <v>58.0</v>
@@ -47095,7 +47102,7 @@
       </c>
       <c r="X18" s="19"/>
       <c r="Z18" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA18" s="1">
         <v>16690.0</v>
@@ -47114,7 +47121,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>35</v>
@@ -47123,12 +47130,12 @@
         <v>799.0</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K19" s="18">
         <v>58.0</v>
@@ -47161,7 +47168,7 @@
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Z19" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA19" s="1">
         <v>16753.0</v>
@@ -47180,7 +47187,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>35</v>
@@ -47189,12 +47196,12 @@
         <v>799.0</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K20" s="18">
         <v>62.0</v>
@@ -47227,7 +47234,7 @@
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Z20" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA20" s="1">
         <v>16899.0</v>
@@ -47246,7 +47253,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>35</v>
@@ -47262,7 +47269,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K21" s="18">
         <v>52.0</v>
@@ -47297,7 +47304,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Z21" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA21" s="1">
         <v>16898.0</v>
@@ -47316,7 +47323,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>35</v>
@@ -47332,7 +47339,7 @@
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K22" s="18">
         <v>53.0</v>
@@ -47367,7 +47374,7 @@
       </c>
       <c r="X22" s="19"/>
       <c r="Z22" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA22" s="1">
         <v>16685.0</v>
@@ -47386,7 +47393,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>36</v>
@@ -47402,7 +47409,7 @@
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K23" s="18">
         <v>52.0</v>
@@ -47443,7 +47450,7 @@
       </c>
       <c r="X23" s="19"/>
       <c r="Z23" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA23" s="1">
         <v>16687.0</v>
@@ -47462,7 +47469,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="18">
@@ -47476,7 +47483,7 @@
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K24" s="18">
         <v>28.0</v>
@@ -47515,7 +47522,7 @@
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
       <c r="Z24" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA24" s="1">
         <v>16896.0</v>
@@ -47534,7 +47541,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>36</v>
@@ -47550,7 +47557,7 @@
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K25" s="18">
         <v>58.0</v>
@@ -47585,7 +47592,7 @@
       </c>
       <c r="X25" s="19"/>
       <c r="Z25" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA25" s="1">
         <v>16683.0</v>
@@ -47604,7 +47611,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="18">
@@ -47618,7 +47625,7 @@
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K26" s="18">
         <v>55.0</v>
@@ -47653,7 +47660,7 @@
       </c>
       <c r="X26" s="19"/>
       <c r="Z26" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA26" s="1">
         <v>16806.0</v>
@@ -47672,7 +47679,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>35</v>
@@ -47688,7 +47695,7 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K27" s="18">
         <v>58.0</v>
@@ -47723,7 +47730,7 @@
       </c>
       <c r="X27" s="19"/>
       <c r="Z27" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA27" s="1">
         <v>16688.0</v>
@@ -47742,7 +47749,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>35</v>
@@ -47758,7 +47765,7 @@
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K28" s="18">
         <v>59.0</v>
@@ -47795,7 +47802,7 @@
       </c>
       <c r="X28" s="19"/>
       <c r="Z28" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA28" s="1">
         <v>16656.0</v>
@@ -47814,7 +47821,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>36</v>
@@ -47830,7 +47837,7 @@
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K29" s="18">
         <v>60.0</v>
@@ -47863,7 +47870,7 @@
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
       <c r="Z29" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA29" s="1">
         <v>16754.0</v>
@@ -47882,7 +47889,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="18">
@@ -47896,7 +47903,7 @@
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K30" s="18">
         <v>41.5</v>
@@ -47929,7 +47936,7 @@
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
       <c r="Z30" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA30" s="1">
         <v>16657.0</v>
@@ -47948,7 +47955,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>36</v>
@@ -47964,7 +47971,7 @@
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K31" s="18">
         <v>60.0</v>
@@ -47997,7 +48004,7 @@
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
       <c r="Z31" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA31" s="1">
         <v>16654.0</v>
@@ -48016,7 +48023,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>35</v>
@@ -48032,7 +48039,7 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K32" s="18">
         <v>59.0</v>
@@ -48065,7 +48072,7 @@
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
       <c r="Z32" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA32" s="1">
         <v>16895.0</v>
@@ -48084,7 +48091,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>36</v>
@@ -48102,7 +48109,7 @@
         <v>357</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K33" s="18">
         <v>63.0</v>
@@ -48135,7 +48142,7 @@
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
       <c r="Z33" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA33" s="1">
         <v>16848.0</v>
@@ -48154,7 +48161,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="18">
@@ -48168,7 +48175,7 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K34" s="18">
         <v>32.0</v>
@@ -48201,7 +48208,7 @@
       <c r="W34" s="19"/>
       <c r="X34" s="19"/>
       <c r="Z34" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA34" s="1">
         <v>16849.0</v>
@@ -48220,7 +48227,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>35</v>
@@ -48236,7 +48243,7 @@
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K35" s="18">
         <v>55.0</v>
@@ -48269,7 +48276,7 @@
       <c r="W35" s="19"/>
       <c r="X35" s="19"/>
       <c r="Z35" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA35" s="1">
         <v>16812.0</v>
@@ -48288,7 +48295,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="18">
@@ -48302,7 +48309,7 @@
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K36" s="18">
         <v>23.0</v>
@@ -48335,7 +48342,7 @@
       <c r="W36" s="19"/>
       <c r="X36" s="19"/>
       <c r="Z36" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA36" s="1">
         <v>16804.0</v>
@@ -48354,7 +48361,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="18">
@@ -48368,7 +48375,7 @@
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K37" s="18">
         <v>26.0</v>
@@ -48401,7 +48408,7 @@
       <c r="W37" s="19"/>
       <c r="X37" s="19"/>
       <c r="Z37" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA37" s="1">
         <v>16643.0</v>
@@ -48420,7 +48427,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>35</v>
@@ -48436,7 +48443,7 @@
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K38" s="18">
         <v>56.0</v>
@@ -48477,7 +48484,7 @@
       </c>
       <c r="X38" s="19"/>
       <c r="Z38" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA38" s="1">
         <v>16653.0</v>
@@ -48496,7 +48503,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="18">
@@ -48510,7 +48517,7 @@
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K39" s="18">
         <v>35.0</v>
@@ -48549,7 +48556,7 @@
       <c r="W39" s="19"/>
       <c r="X39" s="19"/>
       <c r="Z39" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA39" s="1">
         <v>16655.0</v>
@@ -48568,7 +48575,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>36</v>
@@ -48586,7 +48593,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K40" s="18">
         <v>57.0</v>
@@ -48627,7 +48634,7 @@
         <v>41</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA40" s="1">
         <v>16900.0</v>
@@ -48646,7 +48653,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="18">
@@ -48660,7 +48667,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K41" s="18">
         <v>44.0</v>
@@ -48697,7 +48704,7 @@
       <c r="W41" s="19"/>
       <c r="X41" s="19"/>
       <c r="Z41" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA41" s="1">
         <v>16686.0</v>
@@ -48716,7 +48723,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>35</v>
@@ -48732,7 +48739,7 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K42" s="18">
         <v>61.0</v>
@@ -48784,7 +48791,7 @@
         <v>35</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>36</v>
@@ -48800,7 +48807,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K43" s="18">
         <v>72.0</v>
@@ -48843,7 +48850,7 @@
         <v>41</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AA43" s="1">
         <v>16805.0</v>
@@ -48862,7 +48869,7 @@
         <v>35</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>35</v>
@@ -48878,7 +48885,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K44" s="18">
         <v>71.0</v>
@@ -48919,7 +48926,7 @@
       </c>
       <c r="X44" s="19"/>
       <c r="Z44" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA44" s="1">
         <v>16212.0</v>
@@ -48938,7 +48945,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>35</v>
@@ -48954,7 +48961,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K45" s="18">
         <v>62.0</v>
@@ -48997,7 +49004,7 @@
         <v>41</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA45" s="1">
         <v>15974.0</v>
@@ -49016,7 +49023,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>35</v>
@@ -49032,7 +49039,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K46" s="18">
         <v>50.0</v>
@@ -49073,7 +49080,7 @@
       </c>
       <c r="X46" s="19"/>
       <c r="Z46" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA46" s="1">
         <v>16232.0</v>
@@ -49092,7 +49099,7 @@
         <v>24</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>36</v>
@@ -49110,7 +49117,7 @@
         <v>37</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K47" s="18">
         <v>74.0</v>
@@ -49147,7 +49154,7 @@
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
       <c r="Z47" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA47" s="1">
         <v>16034.0</v>
@@ -49166,7 +49173,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>35</v>
@@ -49182,7 +49189,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K48" s="18">
         <v>57.0</v>
@@ -49225,7 +49232,7 @@
         <v>41</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA48" s="1">
         <v>15982.0</v>
@@ -49244,7 +49251,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="18">
@@ -49258,7 +49265,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K49" s="18">
         <v>53.0</v>
@@ -49297,7 +49304,7 @@
       </c>
       <c r="X49" s="19"/>
       <c r="Z49" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA49" s="1">
         <v>16093.0</v>
@@ -49316,7 +49323,7 @@
         <v>35</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>35</v>
@@ -49332,7 +49339,7 @@
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K50" s="18">
         <v>59.0</v>
@@ -49373,7 +49380,7 @@
       </c>
       <c r="X50" s="19"/>
       <c r="Z50" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA50" s="1">
         <v>16048.0</v>
@@ -49392,7 +49399,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>36</v>
@@ -49408,7 +49415,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K51" s="18">
         <v>58.0</v>
@@ -49449,7 +49456,7 @@
       </c>
       <c r="X51" s="19"/>
       <c r="Z51" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA51" s="1">
         <v>16057.0</v>
@@ -49468,7 +49475,7 @@
         <v>35</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>35</v>
@@ -49484,7 +49491,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K52" s="18">
         <v>62.0</v>
@@ -49523,7 +49530,7 @@
       </c>
       <c r="X52" s="19"/>
       <c r="Z52" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA52" s="1">
         <v>16105.0</v>
@@ -49542,7 +49549,7 @@
         <v>24</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="18">
@@ -49556,7 +49563,7 @@
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K53" s="18">
         <v>48.0</v>
@@ -49595,7 +49602,7 @@
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
       <c r="Z53" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA53" s="1">
         <v>15965.0</v>
@@ -49614,7 +49621,7 @@
         <v>35</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>36</v>
@@ -49630,7 +49637,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K54" s="18">
         <v>55.0</v>
@@ -49669,7 +49676,7 @@
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
       <c r="Z54" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA54" s="1">
         <v>16231.0</v>
@@ -49688,7 +49695,7 @@
         <v>35</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>35</v>
@@ -49704,7 +49711,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K55" s="18">
         <v>55.0</v>
@@ -49743,7 +49750,7 @@
       </c>
       <c r="X55" s="19"/>
       <c r="Z55" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA55" s="1">
         <v>16056.0</v>
@@ -49762,7 +49769,7 @@
         <v>35</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="28">
@@ -49776,7 +49783,7 @@
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K56" s="28">
         <v>59.0</v>
@@ -49814,10 +49821,10 @@
         <v>113</v>
       </c>
       <c r="X56" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA56" s="1">
         <v>16007.0</v>
@@ -49836,7 +49843,7 @@
         <v>35</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="18">
@@ -49850,7 +49857,7 @@
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K57" s="18">
         <v>54.0</v>
@@ -49891,13 +49898,13 @@
       </c>
       <c r="X57" s="19"/>
       <c r="Z57" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA57" s="1">
         <v>16052.0</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58">
@@ -49909,7 +49916,7 @@
         <v>24</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="18">
@@ -49923,7 +49930,7 @@
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K58" s="18">
         <v>26.0</v>
@@ -49962,13 +49969,13 @@
       <c r="W58" s="19"/>
       <c r="X58" s="19"/>
       <c r="Z58" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA58" s="1">
         <v>16053.0</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59">
@@ -49980,7 +49987,7 @@
         <v>35</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>35</v>
@@ -49996,7 +50003,7 @@
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K59" s="18">
         <v>73.0</v>
@@ -50037,7 +50044,7 @@
       </c>
       <c r="X59" s="19"/>
       <c r="Z59" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA59" s="1">
         <v>15928.0</v>
@@ -50056,7 +50063,7 @@
         <v>24</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>35</v>
@@ -50072,7 +50079,7 @@
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K60" s="18">
         <v>78.0</v>
@@ -50113,7 +50120,7 @@
       </c>
       <c r="X60" s="19"/>
       <c r="Z60" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA60" s="1">
         <v>16008.0</v>
@@ -50132,7 +50139,7 @@
         <v>35</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="18">
@@ -50146,7 +50153,7 @@
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K61" s="18">
         <v>35.5</v>
@@ -50183,7 +50190,7 @@
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
       <c r="Z61" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA61" s="1">
         <v>16009.0</v>
@@ -50202,7 +50209,7 @@
         <v>35</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>35</v>
@@ -50218,7 +50225,7 @@
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K62" s="18">
         <v>66.5</v>
@@ -50257,7 +50264,7 @@
       </c>
       <c r="X62" s="19"/>
       <c r="Z62" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA62" s="1">
         <v>16255.0</v>
@@ -50276,7 +50283,7 @@
         <v>35</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="18">
@@ -50290,7 +50297,7 @@
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K63" s="18">
         <v>59.0</v>
@@ -50331,7 +50338,7 @@
         <v>41</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA63" s="1">
         <v>16013.0</v>
@@ -50350,7 +50357,7 @@
         <v>35</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="18">
@@ -50364,7 +50371,7 @@
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K64" s="18">
         <v>33.0</v>
@@ -50403,7 +50410,7 @@
       <c r="W64" s="19"/>
       <c r="X64" s="19"/>
       <c r="Z64" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA64" s="1">
         <v>16010.0</v>
@@ -50422,7 +50429,7 @@
         <v>24</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="18">
@@ -50436,7 +50443,7 @@
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K65" s="18">
         <v>37.0</v>
@@ -50475,7 +50482,7 @@
       <c r="W65" s="19"/>
       <c r="X65" s="19"/>
       <c r="Z65" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA65" s="1">
         <v>16038.0</v>
@@ -50494,7 +50501,7 @@
         <v>35</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>35</v>
@@ -50510,7 +50517,7 @@
       </c>
       <c r="I66" s="19"/>
       <c r="J66" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K66" s="18">
         <v>58.0</v>
@@ -50553,7 +50560,7 @@
         <v>222</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA66" s="1">
         <v>15961.0</v>
@@ -50572,7 +50579,7 @@
         <v>35</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>35</v>
@@ -50588,7 +50595,7 @@
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K67" s="18">
         <v>77.0</v>
@@ -50629,7 +50636,7 @@
         <v>41</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA67" s="1">
         <v>16054.0</v>
@@ -50648,7 +50655,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>35</v>
@@ -50664,7 +50671,7 @@
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K68" s="18">
         <v>28.0</v>
@@ -50703,7 +50710,7 @@
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
       <c r="Z68" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA68" s="1">
         <v>15959.0</v>
@@ -50722,7 +50729,7 @@
         <v>24</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>36</v>
@@ -50740,7 +50747,7 @@
         <v>37</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K69" s="18">
         <v>68.0</v>
@@ -50781,7 +50788,7 @@
       </c>
       <c r="X69" s="19"/>
       <c r="Z69" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA69" s="1">
         <v>15996.0</v>
@@ -50800,7 +50807,7 @@
         <v>35</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>35</v>
@@ -50816,7 +50823,7 @@
       </c>
       <c r="I70" s="19"/>
       <c r="J70" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K70" s="18">
         <v>76.0</v>
@@ -50855,7 +50862,7 @@
       </c>
       <c r="X70" s="19"/>
       <c r="Z70" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA70" s="1">
         <v>15960.0</v>
@@ -50874,7 +50881,7 @@
         <v>35</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="18">
@@ -50888,7 +50895,7 @@
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K71" s="18">
         <v>48.0</v>
@@ -50930,7 +50937,7 @@
       </c>
       <c r="Y71" s="33"/>
       <c r="Z71" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA71" s="1">
         <v>16230.0</v>
@@ -50950,7 +50957,7 @@
         <v>35</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>35</v>
@@ -50966,7 +50973,7 @@
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K72" s="18">
         <v>67.0</v>
@@ -51003,7 +51010,7 @@
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
       <c r="Z72" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA72" s="1">
         <v>16129.0</v>
@@ -51022,7 +51029,7 @@
         <v>35</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="18">
@@ -51036,7 +51043,7 @@
       </c>
       <c r="I73" s="19"/>
       <c r="J73" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K73" s="18">
         <v>42.0</v>
@@ -51075,7 +51082,7 @@
       </c>
       <c r="X73" s="19"/>
       <c r="Z73" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA73" s="1">
         <v>16119.0</v>
@@ -51094,7 +51101,7 @@
         <v>24</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>36</v>
@@ -51110,7 +51117,7 @@
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K74" s="18">
         <v>62.0</v>
@@ -51151,7 +51158,7 @@
       </c>
       <c r="X74" s="19"/>
       <c r="Z74" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA74" s="1">
         <v>16120.0</v>
@@ -51170,7 +51177,7 @@
         <v>35</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="18">
@@ -51184,7 +51191,7 @@
       </c>
       <c r="I75" s="19"/>
       <c r="J75" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K75" s="18">
         <v>36.0</v>
@@ -51221,7 +51228,7 @@
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
       <c r="Z75" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA75" s="1">
         <v>16204.0</v>
@@ -51240,7 +51247,7 @@
         <v>24</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>35</v>
@@ -51256,7 +51263,7 @@
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K76" s="18">
         <v>70.0</v>
@@ -51297,7 +51304,7 @@
         <v>256</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA76" s="1">
         <v>16128.0</v>
@@ -51316,7 +51323,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>35</v>
@@ -51332,7 +51339,7 @@
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K77" s="18">
         <v>65.0</v>
@@ -51375,7 +51382,7 @@
         <v>41</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA77" s="1">
         <v>16126.0</v>
@@ -51394,7 +51401,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="12">
@@ -51408,7 +51415,7 @@
       </c>
       <c r="I78" s="19"/>
       <c r="J78" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K78" s="18">
         <v>32.0</v>
@@ -51445,7 +51452,7 @@
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
       <c r="Z78" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA78" s="1">
         <v>16126.0</v>
@@ -51464,7 +51471,7 @@
         <v>24</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="18">
@@ -51478,7 +51485,7 @@
       </c>
       <c r="I79" s="19"/>
       <c r="J79" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K79" s="18">
         <v>48.0</v>
@@ -51517,7 +51524,7 @@
       </c>
       <c r="X79" s="19"/>
       <c r="Z79" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA79" s="1">
         <v>16123.0</v>
@@ -51536,7 +51543,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="18">
@@ -51550,7 +51557,7 @@
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K80" s="18">
         <v>58.0</v>
@@ -51589,7 +51596,7 @@
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
       <c r="Z80" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA80" s="1">
         <v>16365.0</v>
@@ -51608,7 +51615,7 @@
         <v>35</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="18">
@@ -51622,7 +51629,7 @@
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K81" s="18">
         <v>33.0</v>
@@ -51661,7 +51668,7 @@
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
       <c r="Z81" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA81" s="1">
         <v>16331.0</v>
@@ -51680,7 +51687,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>35</v>
@@ -51696,7 +51703,7 @@
       </c>
       <c r="I82" s="19"/>
       <c r="J82" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K82" s="18">
         <v>73.0</v>
@@ -51744,7 +51751,7 @@
         <v>35</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="18">
@@ -51758,7 +51765,7 @@
       </c>
       <c r="I83" s="19"/>
       <c r="J83" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K83" s="18">
         <v>70.0</v>
@@ -51808,7 +51815,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="18">
@@ -51822,7 +51829,7 @@
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K84" s="18">
         <v>39.0</v>
@@ -51870,7 +51877,7 @@
         <v>24</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="18">
@@ -51884,7 +51891,7 @@
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K85" s="18">
         <v>70.0</v>
@@ -51934,7 +51941,7 @@
         <v>24</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="18">
@@ -51948,7 +51955,7 @@
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K86" s="18">
         <v>57.0</v>
@@ -51996,7 +52003,7 @@
         <v>35</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>35</v>
@@ -52012,7 +52019,7 @@
       </c>
       <c r="I87" s="19"/>
       <c r="J87" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K87" s="18">
         <v>75.0</v>
@@ -52060,7 +52067,7 @@
         <v>24</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>35</v>
@@ -52076,7 +52083,7 @@
       </c>
       <c r="I88" s="19"/>
       <c r="J88" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K88" s="18">
         <v>64.0</v>
@@ -52124,7 +52131,7 @@
         <v>35</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>35</v>
@@ -52140,7 +52147,7 @@
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K89" s="18">
         <v>59.0</v>
@@ -52190,7 +52197,7 @@
         <v>35</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>36</v>
@@ -52206,7 +52213,7 @@
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K90" s="18">
         <v>65.0</v>
@@ -52254,7 +52261,7 @@
         <v>35</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>35</v>
@@ -52270,7 +52277,7 @@
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K91" s="18">
         <v>70.0</v>
@@ -52320,7 +52327,7 @@
         <v>24</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="18">
@@ -52374,7 +52381,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="18">
@@ -52388,7 +52395,7 @@
       </c>
       <c r="I93" s="19"/>
       <c r="J93" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K93" s="18">
         <v>36.0</v>
@@ -52436,7 +52443,7 @@
         <v>24</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>35</v>
@@ -52452,7 +52459,7 @@
       </c>
       <c r="I94" s="19"/>
       <c r="J94" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K94" s="18">
         <v>73.0</v>
@@ -52500,7 +52507,7 @@
         <v>24</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="18">
@@ -52514,7 +52521,7 @@
       </c>
       <c r="I95" s="19"/>
       <c r="J95" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K95" s="18">
         <v>25.0</v>
@@ -52562,7 +52569,7 @@
         <v>24</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>35</v>
@@ -52578,7 +52585,7 @@
       </c>
       <c r="I96" s="19"/>
       <c r="J96" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K96" s="18">
         <v>75.0</v>
@@ -52628,7 +52635,7 @@
         <v>35</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="18">
@@ -52642,7 +52649,7 @@
       </c>
       <c r="I97" s="19"/>
       <c r="J97" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K97" s="18">
         <v>43.0</v>
@@ -52690,7 +52697,7 @@
         <v>24</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>35</v>
@@ -52706,7 +52713,7 @@
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K98" s="18">
         <v>54.0</v>
@@ -52756,7 +52763,7 @@
         <v>24</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>35</v>
@@ -52772,7 +52779,7 @@
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K99" s="18">
         <v>70.0</v>
@@ -52818,7 +52825,7 @@
         <v>24</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="18">
@@ -52880,7 +52887,7 @@
         <v>24</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="18">
@@ -52894,7 +52901,7 @@
       </c>
       <c r="I101" s="19"/>
       <c r="J101" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K101" s="18">
         <v>43.0</v>
@@ -52944,7 +52951,7 @@
         <v>24</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>35</v>
@@ -52960,7 +52967,7 @@
       </c>
       <c r="I102" s="19"/>
       <c r="J102" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K102" s="18">
         <v>63.0</v>
@@ -53006,7 +53013,7 @@
         <v>35</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="18">
@@ -53020,7 +53027,7 @@
       </c>
       <c r="I103" s="19"/>
       <c r="J103" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K103" s="18">
         <v>50.5</v>
@@ -53072,7 +53079,7 @@
         <v>35</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>36</v>
@@ -53090,7 +53097,7 @@
         <v>37</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K104" s="18">
         <v>73.0</v>
@@ -53138,7 +53145,7 @@
         <v>35</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>35</v>
@@ -53154,7 +53161,7 @@
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K105" s="18">
         <v>65.0</v>
@@ -53200,7 +53207,7 @@
         <v>35</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>36</v>
@@ -53216,7 +53223,7 @@
       </c>
       <c r="I106" s="19"/>
       <c r="J106" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K106" s="18">
         <v>61.0</v>
@@ -53264,7 +53271,7 @@
         <v>24</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="18">
@@ -53278,7 +53285,7 @@
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K107" s="18">
         <v>32.0</v>
@@ -53324,7 +53331,7 @@
         <v>24</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="18">
@@ -53338,7 +53345,7 @@
       </c>
       <c r="I108" s="19"/>
       <c r="J108" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K108" s="18">
         <v>77.0</v>
@@ -53388,7 +53395,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E109" s="18" t="s">
         <v>35</v>
@@ -53404,7 +53411,7 @@
       </c>
       <c r="I109" s="19"/>
       <c r="J109" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K109" s="18">
         <v>81.0</v>
@@ -53452,7 +53459,7 @@
         <v>24</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>35</v>
@@ -53468,7 +53475,7 @@
       </c>
       <c r="I110" s="19"/>
       <c r="J110" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K110" s="18">
         <v>67.0</v>
@@ -53518,7 +53525,7 @@
         <v>24</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="18">
@@ -53532,7 +53539,7 @@
       </c>
       <c r="I111" s="19"/>
       <c r="J111" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K111" s="18">
         <v>55.0</v>
@@ -53580,7 +53587,7 @@
         <v>24</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>35</v>
@@ -53596,7 +53603,7 @@
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K112" s="18">
         <v>75.0</v>
@@ -53644,7 +53651,7 @@
         <v>24</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="18">
@@ -53658,7 +53665,7 @@
       </c>
       <c r="I113" s="19"/>
       <c r="J113" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K113" s="18">
         <v>75.0</v>
@@ -53706,7 +53713,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="18">
@@ -53720,7 +53727,7 @@
       </c>
       <c r="I114" s="19"/>
       <c r="J114" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K114" s="18">
         <v>39.0</v>
@@ -53768,7 +53775,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>35</v>
@@ -53784,7 +53791,7 @@
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K115" s="18">
         <v>75.0</v>
@@ -53834,7 +53841,7 @@
         <v>24</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>35</v>
@@ -53850,7 +53857,7 @@
       </c>
       <c r="I116" s="19"/>
       <c r="J116" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K116" s="18">
         <v>77.0</v>
@@ -53898,7 +53905,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E117" s="18" t="s">
         <v>36</v>
@@ -53914,7 +53921,7 @@
       </c>
       <c r="I117" s="19"/>
       <c r="J117" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K117" s="18">
         <v>66.0</v>
@@ -53962,7 +53969,7 @@
         <v>35</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E118" s="18" t="s">
         <v>36</v>
@@ -53978,7 +53985,7 @@
       </c>
       <c r="I118" s="19"/>
       <c r="J118" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K118" s="18">
         <v>75.0</v>
@@ -54026,7 +54033,7 @@
         <v>24</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E119" s="18" t="s">
         <v>35</v>
@@ -54042,7 +54049,7 @@
       </c>
       <c r="I119" s="19"/>
       <c r="J119" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K119" s="18">
         <v>77.0</v>
@@ -54092,7 +54099,7 @@
         <v>24</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="18">
@@ -54106,7 +54113,7 @@
       </c>
       <c r="I120" s="19"/>
       <c r="J120" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K120" s="18">
         <v>29.0</v>
@@ -54154,7 +54161,7 @@
         <v>35</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="18">
@@ -54168,7 +54175,7 @@
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K121" s="18">
         <v>75.0</v>
@@ -54216,7 +54223,7 @@
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>36</v>
@@ -54234,7 +54241,7 @@
         <v>37</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K122" s="18">
         <v>78.0</v>
@@ -54284,7 +54291,7 @@
         <v>24</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="18">
@@ -54298,7 +54305,7 @@
       </c>
       <c r="I123" s="19"/>
       <c r="J123" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K123" s="18">
         <v>62.0</v>
@@ -54348,7 +54355,7 @@
         <v>24</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="18">
@@ -54362,7 +54369,7 @@
       </c>
       <c r="I124" s="19"/>
       <c r="J124" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K124" s="18">
         <v>30.0</v>
@@ -54403,14 +54410,14 @@
     </row>
     <row r="125">
       <c r="A125" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B125" s="25">
         <v>16117.0</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E125" s="18" t="s">
         <v>35</v>
@@ -54426,7 +54433,7 @@
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K125" s="18">
         <v>77.0</v>
@@ -54469,7 +54476,7 @@
     </row>
     <row r="126">
       <c r="A126" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B126" s="24">
         <v>16230.0</v>
@@ -54478,7 +54485,7 @@
         <v>35</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E126" s="18" t="s">
         <v>35</v>
@@ -54494,7 +54501,7 @@
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K126" s="18">
         <v>71.0</v>
@@ -54533,7 +54540,7 @@
     </row>
     <row r="127">
       <c r="A127" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B127" s="25">
         <v>16118.0</v>
@@ -54542,7 +54549,7 @@
         <v>24</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>35</v>
@@ -54558,7 +54565,7 @@
       </c>
       <c r="I127" s="19"/>
       <c r="J127" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K127" s="18">
         <v>74.0</v>
@@ -54601,7 +54608,7 @@
     </row>
     <row r="128">
       <c r="A128" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B128" s="18">
         <v>16129.0</v>
@@ -54610,7 +54617,7 @@
         <v>35</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E128" s="18" t="s">
         <v>36</v>
@@ -54626,7 +54633,7 @@
       </c>
       <c r="I128" s="19"/>
       <c r="J128" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K128" s="18">
         <v>78.0</v>
@@ -54669,7 +54676,7 @@
     </row>
     <row r="129">
       <c r="A129" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B129" s="25">
         <v>16119.0</v>
@@ -54678,7 +54685,7 @@
         <v>24</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="18">
@@ -54692,7 +54699,7 @@
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K129" s="18">
         <v>45.0</v>
@@ -54733,7 +54740,7 @@
     </row>
     <row r="130">
       <c r="A130" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B130" s="25">
         <v>16120.0</v>
@@ -54742,7 +54749,7 @@
         <v>24</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>35</v>
@@ -54758,7 +54765,7 @@
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K130" s="18">
         <v>73.0</v>
@@ -54801,7 +54808,7 @@
     </row>
     <row r="131">
       <c r="A131" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B131" s="24">
         <v>16204.0</v>
@@ -54810,7 +54817,7 @@
         <v>35</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>36</v>
@@ -54826,7 +54833,7 @@
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K131" s="18">
         <v>76.0</v>
@@ -54865,7 +54872,7 @@
     </row>
     <row r="132">
       <c r="A132" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B132" s="25">
         <v>16121.0</v>
@@ -54874,7 +54881,7 @@
         <v>24</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="18">
@@ -54888,7 +54895,7 @@
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K132" s="18">
         <v>75.0</v>
@@ -54931,7 +54938,7 @@
     </row>
     <row r="133">
       <c r="A133" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B133" s="18">
         <v>16128.0</v>
@@ -54940,7 +54947,7 @@
         <v>24</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="18">
@@ -54954,7 +54961,7 @@
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K133" s="18">
         <v>46.0</v>
@@ -55002,7 +55009,7 @@
         <v>24</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="18">
@@ -55016,7 +55023,7 @@
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K134" s="18">
         <v>32.0</v>
@@ -55064,7 +55071,7 @@
         <v>24</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="18">
@@ -55078,7 +55085,7 @@
       </c>
       <c r="I135" s="19"/>
       <c r="J135" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K135" s="18">
         <v>32.0</v>
@@ -55126,7 +55133,7 @@
         <v>35</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="18">
@@ -55140,7 +55147,7 @@
       </c>
       <c r="I136" s="19"/>
       <c r="J136" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K136" s="18">
         <v>32.0</v>
@@ -55188,7 +55195,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="18">
@@ -55202,7 +55209,7 @@
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K137" s="18">
         <v>34.0</v>
@@ -55243,7 +55250,7 @@
     </row>
     <row r="138">
       <c r="A138" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B138" s="18">
         <v>16365.0</v>
@@ -55252,7 +55259,7 @@
         <v>24</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="18">
@@ -55266,7 +55273,7 @@
       </c>
       <c r="I138" s="19"/>
       <c r="J138" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K138" s="18">
         <v>74.0</v>
@@ -55303,7 +55310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B139" s="24">
         <v>16332.0</v>
@@ -55312,7 +55319,7 @@
         <v>24</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="18">
@@ -55326,7 +55333,7 @@
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K139" s="18">
         <v>40.0</v>
@@ -55365,7 +55372,7 @@
     </row>
     <row r="140">
       <c r="A140" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B140" s="24">
         <v>16331.0</v>
@@ -55374,7 +55381,7 @@
         <v>24</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="18">
@@ -55388,7 +55395,7 @@
       </c>
       <c r="I140" s="19"/>
       <c r="J140" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K140" s="18">
         <v>53.0</v>
@@ -55429,7 +55436,7 @@
     </row>
     <row r="141">
       <c r="A141" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B141" s="24">
         <v>16330.0</v>
@@ -55438,7 +55445,7 @@
         <v>35</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E141" s="18" t="s">
         <v>35</v>
@@ -55454,7 +55461,7 @@
       </c>
       <c r="I141" s="19"/>
       <c r="J141" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K141" s="18">
         <v>41.0</v>
@@ -55569,7 +55576,6 @@
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
-    <row r="56"/>
   </sheetData>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Supplimentary Table S1 -DakoCatalog.xlsx
+++ b/Supplimentary Table S1 -DakoCatalog.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6356" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6356" uniqueCount="851">
   <si>
     <t>JAM Number</t>
   </si>
@@ -321,7 +321,7 @@
     <t>primary forest, on ground, on ground on bank foraging by upturned tree, bank mud</t>
   </si>
   <si>
-    <t>Oreophryne sp. "mid"</t>
+    <t>Oreophryne "middle elevation"</t>
   </si>
   <si>
     <t>1000m Camp, Gunung Dako</t>
@@ -342,7 +342,7 @@
     <t>Selectively Logged Forest,away from stream,18" up on log,18" log,log sticky 1000-91</t>
   </si>
   <si>
-    <t>Sphenomorphus nigrilabris "high"</t>
+    <t>Sphenomorphus nigrilabris "high elevation"</t>
   </si>
   <si>
     <t>Selectively Logged Forest,away from stream,on log 0.3 m up,1 foot diameter,log sticky trap 1100-39</t>
@@ -351,7 +351,7 @@
     <t>yellow lip strip, yellow ventrally</t>
   </si>
   <si>
-    <t>Tytthoscincus "mid"</t>
+    <t>Tytthoscincus "middle elevation"</t>
   </si>
   <si>
     <t>Selectively Logged Forest,away from stream,in pitfall line 1050 bucket 1,,</t>
@@ -363,7 +363,7 @@
     <t>rich yellow ventrally</t>
   </si>
   <si>
-    <t>Occidozyga semipalmata "low"</t>
+    <t>Occidozyga semipalmata "low elevation"</t>
   </si>
   <si>
     <t>Selectively Logged Forest,next to spring,1m up on fern,1m wide wpring pool,leaf</t>
@@ -387,7 +387,7 @@
     <t>Selectively Logged Forest,5m up bank from stream,2 feet up,1m wide wpring pool,fern leaf</t>
   </si>
   <si>
-    <t>Oreophryne sp. "low 1"</t>
+    <t>Oreophryne "low elevation sp. 1"</t>
   </si>
   <si>
     <t>Secondary Forest,4m from stream,1m up on leaf,1.5m wide stream,leaf</t>
@@ -456,7 +456,7 @@
     <t>Selectively Logged Forest,Above underground stream,1.8m up,,small fig leaf</t>
   </si>
   <si>
-    <t>Oreophryne sp. "low 2"</t>
+    <t>Oreophryne "low elevation sp. 2"</t>
   </si>
   <si>
     <t>Selectively Logged Forest,Above underground stream 3m up bank,0.5m up,,leaf</t>
@@ -516,2179 +516,2182 @@
     <t>Yellow lip stripe, yellow posteroventral</t>
   </si>
   <si>
+    <t>Sphenomorphus nigrilabris "low elevation"</t>
+  </si>
+  <si>
     <t>selectively-logged forest, g, 0.3 m up, 30" tree, d, sticky 1000-1</t>
   </si>
   <si>
+    <t>blue throat, no obvious lip stripe, reddish where stripe would be. testes and blood samples taken. Genome sequenced for Ben's Probeset</t>
+  </si>
+  <si>
+    <t>Cyrtodactylus sp. "pit"</t>
+  </si>
+  <si>
+    <t>cacao,away from stream,0.5-1m up,,boulder</t>
+  </si>
+  <si>
+    <t>Desa Kinapasan, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Desa Kinapasan, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah, Sulawesi Island, Indonesia</t>
+  </si>
+  <si>
+    <t>Awal Riyanto, Tri Laksono</t>
+  </si>
+  <si>
+    <t>48 reg</t>
+  </si>
+  <si>
+    <t>55 reg</t>
+  </si>
+  <si>
+    <t>5 inc</t>
+  </si>
+  <si>
+    <t>Gekko monarchus</t>
+  </si>
+  <si>
+    <t>75 reg</t>
+  </si>
+  <si>
+    <t>cacao,away from stream,1.5m up,,boulder</t>
+  </si>
+  <si>
+    <t>Boiga irregularis</t>
+  </si>
+  <si>
+    <t>cacao,away from stream,2.5m up,,cacao tree</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,12" up on log,12" log,log sticky 1000-6</t>
+  </si>
+  <si>
+    <t>pale yellow posteroventrally, barely any lip stripe</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,10" up on log,10" log,log sticky 1000-17</t>
+  </si>
+  <si>
+    <t>blue throat, white lip stripe, yellow posteroventral</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on trail,,</t>
+  </si>
+  <si>
+    <t>orange brown ventrally</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,in bucket line 1050,</t>
+  </si>
+  <si>
+    <t>gray ventrally, no fine speckling on gular region. Slender head and body</t>
+  </si>
+  <si>
+    <t>Tytthoscincus "middle orange eye"</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,in bucket line 1070,</t>
+  </si>
+  <si>
+    <t>orange iris, rich orange/brown ventrally</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,10" up on log,10" log,log sticky 1000-24</t>
+  </si>
+  <si>
+    <t>White lip stripe, yellow posteroventrally</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground,,log sticky 1000-52</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>12 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground,,sticky 1000-61</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,36" up on log,36" log,log sticky 1000-76</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,30" up on log,30" log,log sticky 1000-88</t>
+  </si>
+  <si>
+    <t>73 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,in pitfall array 1.5</t>
+  </si>
+  <si>
+    <t>Calamaria muelleri</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground between tree buttresses,,sticky 1000-21</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.7 m up,sapling next to trail,on broad leaf</t>
+  </si>
+  <si>
+    <t>23 reg</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.5 m up,sapling next to trail,on leaf</t>
+  </si>
+  <si>
+    <t>Papurana celebensis</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,leaf litter</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on rock on ground,,rock steep bank</t>
+  </si>
+  <si>
+    <t>yellow abdomen, deeper yellow ventral legs</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,at the spring,,1m pool,</t>
+  </si>
+  <si>
+    <t>laid eggs in bag</t>
+  </si>
+  <si>
+    <t>Calamorhabdium acuticeps</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground between small tree buttresses,72" trunk,sticky 1000-91</t>
+  </si>
+  <si>
+    <t>orange lip stripe, also on chin/gular area</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground between tree buttresses,,sticky 1000-5</t>
+  </si>
+  <si>
+    <t>No Locality Info, confused two I. celebensis. This one came in without data. Probably from camp. the date and body size infor are correct. Definitely Selectively Logged Forest</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,8" up on log,18" log,log sticy 1000-56</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Photo. Yellow mottling on throat, deep yellow abdomen, even deeper yellow ventral legs</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on rottan 50 cm up,,</t>
+  </si>
+  <si>
+    <t>Eutropis macrophthalma</t>
+  </si>
+  <si>
+    <t>154 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground under log,,sticky 1000-92</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground base of stump,,sticky 1000-42</t>
+  </si>
+  <si>
+    <t>2 tubes liver, Blood Sample</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,up on log,log,log sticky 1000-90</t>
+  </si>
+  <si>
+    <t>selectively logged forest, in pitfall 1050-2</t>
+  </si>
+  <si>
+    <t>37 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,1m up,,D sticky 1000-35</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,40 cm up on log,40 cm log,log sticky 1000-45</t>
+  </si>
+  <si>
+    <t>diffue pale yellow lip stripe</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground beneath log,,sticky 1000-47</t>
+  </si>
+  <si>
+    <t>yellow lip and neck stripe, yellow posteroventrally</t>
+  </si>
+  <si>
+    <t>Juv</t>
+  </si>
+  <si>
+    <t>J. A. McGuire, J. Frederick, B. Karin, Awal Riyanto, Tri Laksono</t>
+  </si>
+  <si>
+    <t>Juvenile with yellow lip stripe, yellow ventrally</t>
+  </si>
+  <si>
+    <t>yellow lip stripe; gray throat with faint yellow suffusion; yellow posteroventrally</t>
+  </si>
+  <si>
+    <t>33 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground along tree buttress,,sticky 1000-54</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,24" up on log,24" log,log sticky 1000-30</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground in camp,,pitfall</t>
+  </si>
+  <si>
+    <t>pale orange suffusion on sides of head.</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground,,</t>
+  </si>
+  <si>
+    <t>no lip stripe, yellow ventrally</t>
+  </si>
+  <si>
+    <t>Rhacophorus edentulus</t>
+  </si>
+  <si>
+    <t>recently cut forest,near spring,1m up,1m,on leaf</t>
+  </si>
+  <si>
+    <t>Gravid Female. eggs green</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,3m up on vine along tree trunk,2" vine,woody vine</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,over underground stream,on large rock,,rock</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,over underground stream,on large rock,,</t>
+  </si>
+  <si>
+    <t>Occidozyga semipalmata</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,above underground stream,on large rock,,rock</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,above underground stream,on tree,180 cm,</t>
+  </si>
+  <si>
+    <t>Large Food item in stomach - Sphenomorphus nigrilabris</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,above underground stream,on branch 150 cm up,,branch</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,above underground stream,10cm up on leaf,,</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream on trail,on trail,,</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on trail,,leaf litter</t>
+  </si>
+  <si>
+    <t>M/B</t>
+  </si>
+  <si>
+    <t>Ophiophagus hannah</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,,,</t>
+  </si>
+  <si>
+    <t>two tubes</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,1m up on 18" log,18" log,log sticky 1000-90</t>
+  </si>
+  <si>
+    <t>Blood Sample, extra EtOH liver sample</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,bucket line 3 (1075)</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,bucket line 1.5</t>
+  </si>
+  <si>
+    <t>orange brown venter</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground on trail,,</t>
+  </si>
+  <si>
+    <t>pale yellow ventral wash, darker on legs. Males not as yellow as females</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on paired logs 6" up,6" log,log sticky trap 1100-26</t>
+  </si>
+  <si>
+    <t>pale orange head, one large calcified egg</t>
+  </si>
+  <si>
+    <t>Blue lip stripe, blue throat and anterior chest, yellow posteroventrally</t>
+  </si>
+  <si>
+    <t>Blood Sample, apparently no tissue</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,12" up on 12" log,12" log,log sticky 1000-63</t>
+  </si>
+  <si>
+    <t>pale yellow lip stripe, posteroventrally yellow but rapidly switching to deep orange on last 2/3rds of tail</t>
+  </si>
+  <si>
+    <t>extra EtOH liver sample</t>
+  </si>
+  <si>
+    <t>22 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.3m up,50" stump,stump sticky 1000-66</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.5m up on tree,24" trunk,D sticky 1000-66</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,30" up on log,30" log,log sticky 1000-17</t>
+  </si>
+  <si>
+    <t>pink head wash on lip stripe and gular region, otherwase pale yellow ventrally</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on fallen tree,,sticky 1000-39</t>
+  </si>
+  <si>
+    <t>50 reg</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,0.3m up,small tree buttress 30" trunk,</t>
+  </si>
+  <si>
+    <t>Pale Yellow throat suffusion, pale yellow posteroventrally, yellow lip stripe</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,in pitfall array 1075</t>
+  </si>
+  <si>
+    <t>ventrum orange/brown, iris dark</t>
+  </si>
+  <si>
+    <t>NO SPECIMEN</t>
+  </si>
+  <si>
+    <t>SPECIMEN LOST</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,10" up on dead leaf,,dead leaf</t>
+  </si>
+  <si>
+    <t>107 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground under overhanging rock,,ground sticky 1000-19</t>
+  </si>
+  <si>
+    <t>Pale Orange throat, yellow lip stripe</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on 15" log on ground,,log sticky 1000-41</t>
+  </si>
+  <si>
+    <t>pale blue throat, indistinct pale orange lip stripe</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,under 48" overhanging log on ground,,ground sticky 1000-4</t>
+  </si>
+  <si>
+    <t>26 reg</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.3m up,,tree butress sticky 1000-53</t>
+  </si>
+  <si>
+    <t>125 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,1m up,48" tree,root buttress sticky 1000-58</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground between root buttresses,,leaf litter sticky 1000-59</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.5m up,40" tree,tree buttress sticky 1000-81</t>
+  </si>
+  <si>
+    <t>95 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,30" up,18" log 12" above ground,log sticky 1000-94</t>
+  </si>
+  <si>
+    <t>94 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,24" up,on 24" log,log sticky 1000-30</t>
+  </si>
+  <si>
+    <t>Blood Sample, no tissue found?</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,in pitfall bucket line 1.5</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,0.2m up,,stump buttress sticky 1000-23</t>
+  </si>
+  <si>
+    <t>? orange ventrally</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground,,leaf litter sticky 1000-86</t>
+  </si>
+  <si>
+    <t>yellow orange ventrally</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground,,pitfall 1070</t>
+  </si>
+  <si>
+    <t>deep orange ventrally, more so than the males</t>
+  </si>
+  <si>
+    <t>pale orange-yellow ventrum</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,1.2m up on sapling,1.5m stream,leaf</t>
+  </si>
+  <si>
+    <t>food item in stomach - calamaria but head digested - now JAM 16134</t>
+  </si>
+  <si>
+    <t>Secondary Forest,1m above rocky stream,1m,1m rocky stream,bare twig</t>
+  </si>
+  <si>
+    <t>Secondary Forest,stream edge,1m up on mossy boulder,1.5m wide stream,rock</t>
+  </si>
+  <si>
+    <t>Recorded 1035-1037.mp3</t>
+  </si>
+  <si>
+    <t>Secondary Forest,stream edge,1m up,1.5m rocky stream,on leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,1.6m above stream,1.6m up on green leaf,1.5m rocky stream,green leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,1.2m from stream,1.2m up,1.5m rocky stream,green leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,stream edge,1m up,2m wide gravelly stream,leaf</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>Secondary Forest,4m from stream,1.5m up,3m boulder 1.5m wide stream,leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,3m from stream on bank,ground,3m wide stream,bank mud/leaves</t>
+  </si>
+  <si>
+    <t>Pearly white ventrally</t>
+  </si>
+  <si>
+    <t>Secondary Forest,edge of stream,at water's edge,3m wide sandy stream,bank mud</t>
+  </si>
+  <si>
+    <t>Recorded 1054.mp3 and a few before</t>
+  </si>
+  <si>
+    <t>Secondary Forest,above stream,2m up,,on leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,above stream,1.5m up,,on leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,above stream,1m up,,on leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,above stream,10 cm up,,on leaf</t>
+  </si>
+  <si>
+    <t>Secondary Forest,in stream,,,on pebbles</t>
+  </si>
+  <si>
+    <t>Secondary Forest,next to stream,on ground,,bank sand</t>
+  </si>
+  <si>
+    <t>Pale yellow abdominal wash</t>
+  </si>
+  <si>
+    <t>Secondary Forest,4m up slope from stream,on ground,,sandy-clay substrate</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Secondary Forest,8m from stream,on ground/bank,1.5m wide,sandy/rocky soil</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>Secondary Forest,5m from stream,1 ft. up,1.5m wide,dead palm leaf</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>Secondary Forest,above stream,1 ft. up,small braided stream,</t>
+  </si>
+  <si>
+    <t>Chalcorana mocquardi</t>
+  </si>
+  <si>
+    <t>Secondary Forest,4m from gravel/sand stream,on stream bank,1.5m wide,bank mud/sand</t>
+  </si>
+  <si>
+    <t>Photo. Bright lemon yellow ventrally and on lip stripe</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on ground,,</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,bucket line 1050-1</t>
+  </si>
+  <si>
+    <t>orange ventrum, no speckling on gular region</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,pitfall array 2</t>
+  </si>
+  <si>
+    <t>26 inc</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on ground beside log,,sticky 750-16</t>
+  </si>
+  <si>
+    <t>6 inc</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on log,,log sticky 75-2</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,under tree buttress,,ground</t>
+  </si>
+  <si>
+    <t>blue throat and lip stripe</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on ground beside buttress,,ground</t>
+  </si>
+  <si>
+    <t>no unusual color on throat, pale yellow, no obvious lip stripe</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on log,,log sticky 750-2</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on tree buttress,,sticky 750-1</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, g, on ground below fallen tree, ground, sticky 1000-31</t>
+  </si>
+  <si>
+    <t>orange suffusion on gular region</t>
+  </si>
+  <si>
+    <t>45 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,below fallen tree on ground,,ground sticky 1000-31</t>
+  </si>
+  <si>
+    <t>yellow lip stripe</t>
+  </si>
+  <si>
+    <t>9 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,,,sticky 1000-28</t>
+  </si>
+  <si>
+    <t>15 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,,,sticky 1000-27</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground beneath large boulder,,ground sticky 1000-22</t>
+  </si>
+  <si>
+    <t>drab lip stripe</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,,,sticky 1000-21</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,,,sticky 1000-19</t>
+  </si>
+  <si>
+    <t>Blue throat (moderate suffusion), white lip stripe</t>
+  </si>
+  <si>
+    <t>Secondary Forest,away from stream,on trail on ground,,ground</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,on ground,,ground dirt floor of camp</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.5m up on 8" root,,root sticky 1000-71</t>
+  </si>
+  <si>
+    <t>white lip stripe</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.8m up,45" trunk,D sticky 1000-75</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,0.7m up,,tree buttress sticky 1000-78</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on ground beneath overhanging log,,ground sticky 1000-89</t>
+  </si>
+  <si>
+    <t>pale orange suffusion on lower jaws, gravid with 2 eggs</t>
+  </si>
+  <si>
+    <t>115 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,18" up on log,,log sticky 1530-4</t>
+  </si>
+  <si>
+    <t>gray throat, white lip stripe</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 4" diam log on ground,,log sticky 1530-5</t>
+  </si>
+  <si>
+    <t>throat pale orange, lip stripe yellow</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 5" log 1ft off ground,,log sticky 1530-12</t>
+  </si>
+  <si>
+    <t>orange throat and lip stripe</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 15" log,,log sticky 1530-18</t>
+  </si>
+  <si>
+    <t>yellow throat, diffuse lip stripe</t>
+  </si>
+  <si>
+    <t>Sphenomorphus celebensis</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 3" log on ground,,log sticky 1530-4</t>
+  </si>
+  <si>
+    <t>44 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,1 ft. up,,root buttress sticky 1530-45</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 12" log on ground,,log sticky 1530-36</t>
+  </si>
+  <si>
+    <t>17 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 8" log on ground,,lo sticky 1530-35</t>
+  </si>
+  <si>
+    <t>19 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,on 30" log on ground,,lo sticky 1530-29</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,1 ft up,15" trunk,D sticky 1530-28</t>
+  </si>
+  <si>
+    <t>head gray, body deep orange grading to yellow midventrally; base of tail orange with dramatic transition to gray</t>
+  </si>
+  <si>
+    <t>35 inc</t>
+  </si>
+  <si>
+    <t>primary forest, ground, 22" up on 10" log</t>
+  </si>
+  <si>
+    <t>pale yellow lip stripe, white throat</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>primary forest, ground, on ground, leaf litter</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, ground, on ground, on trail</t>
+  </si>
+  <si>
+    <t>70 inc</t>
+  </si>
+  <si>
+    <t>secondary forest, ground, in stomach of Psammodynastes</t>
+  </si>
+  <si>
+    <t>pulled from stomach of Psammodynastes pulverulentus (JAM 16062)</t>
+  </si>
+  <si>
+    <t>Kaloula baleata</t>
+  </si>
+  <si>
+    <t>kampung/village, ground</t>
+  </si>
+  <si>
+    <t>Desa Kinapasan, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah, Sulawesi Id., Indonesia</t>
+  </si>
+  <si>
+    <t>cacao plantation, on rock, rock</t>
+  </si>
+  <si>
+    <t>blood sample taken</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, boulder, rock</t>
+  </si>
+  <si>
+    <t>Draco spilonotus SNP</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, 200cm up sleeping on boulder, rock</t>
+  </si>
+  <si>
+    <t>Limnonectes heinrichi</t>
+  </si>
+  <si>
+    <t>cacao plantation, in stream, on rock, rock</t>
+  </si>
+  <si>
+    <t>bright white ventrally</t>
+  </si>
+  <si>
+    <t>all with pale yellow ventral wash</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on ground/trail</t>
+  </si>
+  <si>
+    <t>cacao plantation, in stream by waterfall, on waterfall, rock</t>
+  </si>
+  <si>
+    <t>cacao plantation, 2m up</t>
+  </si>
+  <si>
+    <t>white ventrally</t>
+  </si>
+  <si>
+    <t>cacao plantation, near stream, on ground, leaf litter</t>
+  </si>
+  <si>
+    <t>white ventrally with yellow lateral wash--calling when captured</t>
+  </si>
+  <si>
+    <t>24 inc</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on ground near boulder, leaf litter</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on rock, rock</t>
+  </si>
+  <si>
+    <t>67 regen</t>
+  </si>
+  <si>
+    <t>cacao plantation, on ground near boulder, rock</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on boulder, rock</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on boulder, leaf litter</t>
+  </si>
+  <si>
+    <t>pale yellow with ventral wash</t>
+  </si>
+  <si>
+    <t>cacao plantation, in or near stream, on rock, rock</t>
+  </si>
+  <si>
+    <t>64 regen</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on ground, leaf litter</t>
+  </si>
+  <si>
+    <t>cacao plantation, in stream</t>
+  </si>
+  <si>
+    <t>cacao plantation</t>
+  </si>
+  <si>
+    <t>Eutropis rudis</t>
+  </si>
+  <si>
+    <t>87 regen</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, on ground sleeping, leaf litter</t>
+  </si>
+  <si>
+    <t>lemon-yellow throat coloration</t>
+  </si>
+  <si>
+    <t>Tytthoscincus "low elevation"</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, ground, leaf litter</t>
+  </si>
+  <si>
+    <t>grey orange ventrally with fine speckling on threat</t>
+  </si>
+  <si>
+    <t>testes taken as supplemental</t>
+  </si>
+  <si>
+    <t>28 regen</t>
+  </si>
+  <si>
+    <t>gray ventrally with fine speckling on gular region</t>
+  </si>
+  <si>
+    <t>Emoia caeruleocauda</t>
+  </si>
+  <si>
+    <t>no vibrant coloration</t>
+  </si>
+  <si>
+    <t>Eutropis multifasciata</t>
+  </si>
+  <si>
+    <t>gray venter with fine speckling on gular region</t>
+  </si>
+  <si>
+    <t>venter translucent gray</t>
+  </si>
+  <si>
+    <t>lost?</t>
+  </si>
+  <si>
+    <t>laid eggs</t>
+  </si>
+  <si>
+    <t>laid 2 white eggs in bag. Regular shape</t>
+  </si>
+  <si>
+    <t>Coelognathus erythrurus</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground</t>
+  </si>
+  <si>
+    <t>two liver tubes. blood sample taken</t>
+  </si>
+  <si>
+    <t>Hebius celebicum</t>
+  </si>
+  <si>
+    <t>cacao plantation, ground, ground/trail, trail</t>
+  </si>
+  <si>
+    <t>65 regen</t>
+  </si>
+  <si>
+    <t>35 regen</t>
+  </si>
+  <si>
+    <t>gray venter with fine dark gular speckling</t>
+  </si>
+  <si>
+    <t>pale blue throat</t>
+  </si>
+  <si>
+    <t>specimen escaped during CTmax trials</t>
+  </si>
+  <si>
+    <t>yellow abdomen, darker yellow on legs</t>
+  </si>
+  <si>
+    <t>lemon yellow venter &amp; lip stripe</t>
+  </si>
+  <si>
+    <t>pearly white ventrally</t>
+  </si>
+  <si>
+    <t>Polypedates iskandari</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>primary forest, ground, on 3" log on ground, log, sticky 1530-46</t>
+  </si>
+  <si>
+    <t>primary forest, ground, on ground beside log, ground, sticky 1530-13</t>
+  </si>
+  <si>
+    <t>36 inc</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, ground, on ground between root buttresses, ground, sticky 1000-33</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, ground, 0.2 m up, 24" trunk, D, sticky 1000-28</t>
+  </si>
+  <si>
+    <t>very pale blue throat coloration</t>
+  </si>
+  <si>
+    <t>primary forest, ground, dry bed, on ground, dead leaf</t>
+  </si>
+  <si>
+    <t>recorded ~1055-1062.mp3</t>
+  </si>
+  <si>
+    <t>Rhabdophis chrysargoides</t>
+  </si>
+  <si>
+    <t>primary forest, ground, 0.3 m up tree buttress, 40" tree, buttress, sticky 1000-53</t>
+  </si>
+  <si>
+    <t>secondary forest, ground, sticky 750-8</t>
+  </si>
+  <si>
+    <t>secondary forest, ground, sticky 750-9</t>
+  </si>
+  <si>
+    <t>pale orange on side of neck. Yellow suffusion above and below the mouth</t>
+  </si>
+  <si>
+    <t>31 inc</t>
+  </si>
+  <si>
+    <t>secondary forest, ground, sticky 750-11</t>
+  </si>
+  <si>
+    <t>pale blue throat patch</t>
+  </si>
+  <si>
+    <t>secondary forest, ground, sticky 750-15</t>
+  </si>
+  <si>
+    <t>obscure white dewlap</t>
+  </si>
+  <si>
+    <t>secondary forest, ground, sticky 750-16</t>
+  </si>
+  <si>
+    <t>42 inc</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-24</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-31</t>
+  </si>
+  <si>
+    <t>71 regen</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-20</t>
+  </si>
+  <si>
+    <t>secondary forst, g, sticky 750-23</t>
+  </si>
+  <si>
+    <t>kebun, on ground</t>
+  </si>
+  <si>
+    <t>40 inc</t>
+  </si>
+  <si>
+    <t>61 inc</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-8</t>
+  </si>
+  <si>
+    <t>57 inc</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-23</t>
+  </si>
+  <si>
+    <t>49 regen</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-25</t>
+  </si>
+  <si>
+    <t>secondary forest, g, on tree buttress, sticky 750-4</t>
+  </si>
+  <si>
+    <t>primary forest, g, 0.4 m up, root buttress, sticky 1000-72</t>
+  </si>
+  <si>
+    <t>primary forest, g, 1 m up, 30" tree, tree buttress, sticky 1000-38</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>100 REGEN</t>
+  </si>
+  <si>
+    <t>primary forest, g, on 3" log on ground, log, sticky 1530-46</t>
+  </si>
+  <si>
+    <t>primary forest, g, 10" up on tree buttress, 14" tree, d, sticky 1530-45</t>
+  </si>
+  <si>
+    <t>primary forest, g, 24" log on ground in clearing, log, sticky 1530-4</t>
+  </si>
+  <si>
+    <t>23 INC</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, g, on ground under overhanging boulder, ground, sticky 1000-32</t>
+  </si>
+  <si>
+    <t>40 INC</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, g, on 10" log on ground, log, sticky 1000-6</t>
+  </si>
+  <si>
+    <t>primary forest, g, on ground between tree buttresses, ground, sticky 1000-55</t>
+  </si>
+  <si>
+    <t>yellow-orange ventrally. blood sample taken.</t>
+  </si>
+  <si>
+    <t>primary forest, g, on ground, leaf litter</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, g, on ground beside stump buttress, buttress, sticky 1000-16</t>
+  </si>
+  <si>
+    <t>bright tangarine orange head and throat, lemon yellow ventrally everywhere else, lipe stripe vivid orange</t>
+  </si>
+  <si>
+    <t>Oreophryne "puncak"</t>
+  </si>
+  <si>
+    <t>montane primary forest, g</t>
+  </si>
+  <si>
+    <t>1700m camp, Ganung Dako</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>photo; red dorsal coloration</t>
+  </si>
+  <si>
+    <t>primary forest, g, sticky 1000-70</t>
+  </si>
+  <si>
+    <t>white lip stripe and throat</t>
+  </si>
+  <si>
+    <t>primary forest, g, grass blade</t>
+  </si>
+  <si>
+    <t>tan with darker tan mottling</t>
+  </si>
+  <si>
+    <t>38 inc</t>
+  </si>
+  <si>
+    <t>cacao plantation, g, ground, leaf litter</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>secondary forest, g, on ground</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, g, 5m up, 12" dead tree, 16" bh shade, d</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-14</t>
+  </si>
+  <si>
+    <t>white throat</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-2</t>
+  </si>
+  <si>
+    <t>blue throat, white lip stripe</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-13</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky 750-15</t>
+  </si>
+  <si>
+    <t>day-glo green throat, lip stripe obscure</t>
+  </si>
+  <si>
+    <t>100 regen</t>
+  </si>
+  <si>
+    <t>secondary forest, g, sticky  750-34</t>
+  </si>
+  <si>
+    <t>tan ventrally throughout</t>
+  </si>
+  <si>
+    <t>primary forest, g, 0.6 m up, root buttress, sticky 1000-78</t>
+  </si>
+  <si>
+    <t>gray htroat, diffuse lip stripe</t>
+  </si>
+  <si>
+    <t>primary forest, g, 0.3 m up, 12" tree, root buttress, sticky 1000-81</t>
+  </si>
+  <si>
+    <t>orange suffused throat, white lip stripe. blood sample taken</t>
+  </si>
+  <si>
+    <t>Sphenomorphus sp. "green"</t>
+  </si>
+  <si>
+    <t>primary forest, g, 0.8m up, 50" tree, d, sticky 1000-75</t>
+  </si>
+  <si>
+    <t>pale green ventrally. blood sample taken, and testes.</t>
+  </si>
+  <si>
+    <t>primary forest, g, on ground between root buttresses, small root buttresses, sticky 1000-50</t>
+  </si>
+  <si>
+    <t>32 inc</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,,,on sticky trap 1000-6</t>
+  </si>
+  <si>
+    <t>Throat and sides of head pale yellow</t>
+  </si>
+  <si>
+    <t>reddish orange dorsal coloration</t>
+  </si>
+  <si>
+    <t>Rhacophorus sp. "Big Brown"</t>
+  </si>
+  <si>
+    <t>montane primary forest, g, near intermittent stream, on leaf</t>
+  </si>
+  <si>
+    <t>secondary forest, g, 4m up, 10" dbh, d</t>
+  </si>
+  <si>
+    <t>secondary forest, g, 6m up, 10" dbh, d</t>
+  </si>
+  <si>
+    <t>19 regen</t>
+  </si>
+  <si>
+    <t>secondary forest, g</t>
+  </si>
+  <si>
+    <t>blue throat and lip stripe. testes taken as supplemental</t>
+  </si>
+  <si>
+    <t>76 reg</t>
+  </si>
+  <si>
+    <t>Selectively Logged Forest,away from stream,came out of hole at base of tree buttress,,</t>
+  </si>
+  <si>
+    <t>Bright orange head, blue throat, very pale yellow posteroventrally</t>
+  </si>
+  <si>
+    <t>58 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest,away from stream,1m up,,D sticky 1000-35</t>
+  </si>
+  <si>
+    <t>yellow lip stripe and ventral color</t>
+  </si>
+  <si>
+    <t>selectively-logged forest, g, on 6" log, on ground, log, sticky 1000-12</t>
+  </si>
+  <si>
+    <t>blue throat and lip stripe; yellow-orange postero-ventrally</t>
+  </si>
+  <si>
+    <t>blue throat, no lip stripe</t>
+  </si>
+  <si>
+    <t>primary forest, g, 0.5 m up, tree buttress, sticky 1000-64</t>
+  </si>
+  <si>
+    <t>day-glo green ventrally</t>
+  </si>
+  <si>
+    <t>primary montane forest, g, 2.5m up, small tree, leaf</t>
+  </si>
+  <si>
+    <t>1700m camp, Gunung Dako, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah, Sulawesi Island, Indonesia</t>
+  </si>
+  <si>
+    <t>primary montane forest, g, on ground under bark</t>
+  </si>
+  <si>
+    <t>primary montane forest, g, 2m up on plant, leaf</t>
+  </si>
+  <si>
+    <t>Tytthoscincus "high elevation"</t>
+  </si>
+  <si>
+    <t>7 inc</t>
+  </si>
+  <si>
+    <t>primary montane forest, g, on ground, pitfall bucket line 02</t>
+  </si>
+  <si>
+    <t>testes sample taken</t>
+  </si>
+  <si>
+    <t>primary montane forest, g, on ground</t>
+  </si>
+  <si>
+    <t>primary montane forest, 0.5 m from intermittent stream, 2m up , 0.5m wide stream/pool, broad leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, 2.5m from intermittent stream, 3m up, 0.5m wide stream/pool, 10" trunk, moss</t>
+  </si>
+  <si>
+    <t>recorded 1069, 1070</t>
+  </si>
+  <si>
+    <t>primary montane forest,  4m from intermittent stream, 0.8m up, small rotan, rotan</t>
+  </si>
+  <si>
+    <t>primary montane forest, 15 m from intermittent stream, 1 foot up, 0.5m wide stream/root, fern frond</t>
+  </si>
+  <si>
+    <t>primary montane forest, 5m from intermittent stream, 2m up, 0.5m wide stream/pool, fern frond</t>
+  </si>
+  <si>
+    <t>primary montane forest, 5m from intermittent stream, 1m up, 0.5m wide stream/pool, pandanus leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, above intermittent stream, 1.5m up, fern frond</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>primary montane forest, near intermittent stream, 2.5 m up, 0.5m wide stream, 3" wide leaf</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>primary montane forest, 1m from intermittent stream, base of tree, 0.5m wide stream, wet moss</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>primary montane forest, 2m from intermittent stream, 0.5m up, 0.5m wide stream, leaves</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>primary montane forest, near intermittent stream, 1.5m up, &lt;1 cm wide tree branch, branch</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>primary montane forest, 3m from intermittent stream, 1m up, 0.5m wide stream, small leaf</t>
+  </si>
+  <si>
+    <t>pale orange speckling on nape; white eggs</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>primary montane forest, 2.5m from intermittent stream, 0.2m up, 0.5m wide stream, on green twig</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>primary montane forest, 4m from intermittent stream, 1m up 0.5m wide stream, on pandanus</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 1m up, on leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 1m up, on twig</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.5m up, leafy vegetation</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 1m up, 45" diam trunk, D</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>primary montane forest, 4m from stream, 1m wide stream, on leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.5m up, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.8m up, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.8m up, fern leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 1 ft. up, pandanus leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 1m up, leaf</t>
+  </si>
+  <si>
+    <t>green dorsally</t>
+  </si>
+  <si>
+    <t>orange-red dorsal coloration</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 1.2m up, sapling leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.3m up, leaf</t>
+  </si>
+  <si>
+    <t>Occidozyga semipalmata indet.</t>
+  </si>
+  <si>
+    <t>primary montane forest, in intermittent stream, 0.5 - 1m wide stream, water</t>
+  </si>
+  <si>
+    <t>large black eggs</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, on ground, pitfall bucket 1750-3</t>
+  </si>
+  <si>
+    <t>red dorsal coloration</t>
+  </si>
+  <si>
+    <t>primary montane forest, 7m from intermittent stream, 0.3m up, 1m wide stream, leaf</t>
+  </si>
+  <si>
+    <t>yellow-green dorsal coloration</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.5m up, 1m wide stream, leaf</t>
+  </si>
+  <si>
+    <t>tan dorsally with orange-red legs</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, 0.6m up, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, dry drainage area, 6" above ground, moss</t>
+  </si>
+  <si>
+    <t>primary montane forest, over small pool in stream, 3m up, 1m, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, over 2m x 0.6m pool at intermittent pool, 1.5m up, 0.6m, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, above 30x40 cm pool, 40cm up, 40cm, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, immediately adjacent to small pool, up on ground, on ground</t>
+  </si>
+  <si>
+    <t>pale orange ventral posterior abdomen and legs (iPhone photo taken); black eggs (large and few)</t>
+  </si>
+  <si>
+    <t>primary montane forest, above 4ft x 2ft pool, 1m up, 2 ft, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, above intermittent stream, 1m up, leaf</t>
+  </si>
+  <si>
+    <t>froglet, tail not yet resorbed. orange toepads.</t>
+  </si>
+  <si>
+    <t>primary montane forest, 5m from stream, 1m up, leaf</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>primary montane forest, 2m from intermittent stream, 1m up, rottan stem</t>
+  </si>
+  <si>
+    <t>2245</t>
+  </si>
+  <si>
+    <t>primary montane forest, above empty stream channel, 4" up, base of fern</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>primary montane forest, in pool of intermittent stream, 5' x 2' pool, in water</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>primary montane forest, 0.5m from intermittent stream, 1m up, 1m, rotan stem</t>
+  </si>
+  <si>
+    <t>primary montane forest, 0.5m from intermittent stream, 1.1m up, 1m, rotan leaves</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>primary montane forest, 0.5m from intermittent stream, 2m up, 1m, rotan leaves</t>
+  </si>
+  <si>
+    <t>primary montane forest, 0.5m from intermittent stream, 2m up, 1m, on horizontal branch/stick</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>primary montane forest, ~5m from intermittent stream, 1m up, broad leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, intermittent stream, in water, 2m x 0.5m pool</t>
+  </si>
+  <si>
+    <t>tadpole lot with 3 tubes</t>
+  </si>
+  <si>
+    <t>48 inc</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, on ground, leaf litter, sticky 1500-50</t>
+  </si>
+  <si>
+    <t>59 inc</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, on exposed tree root, tree root, sticky 1500-29</t>
+  </si>
+  <si>
+    <t>84 regen</t>
+  </si>
+  <si>
+    <t>primary montane forest, G, on ground, leaf litter between 2 trees, sticky</t>
+  </si>
+  <si>
+    <t>yellow abdomen, reddish around vent, blood sample taken</t>
+  </si>
+  <si>
+    <t>63 regen</t>
+  </si>
+  <si>
+    <t>primary montane forest, 4m from stream, 2m up, 1m wide, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, 4m above stream, 1m up, 1m wide, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, 4m above stream, 2m up, 1m wide, leaf</t>
+  </si>
+  <si>
+    <t>primary montane forest, 4m above stream, 1.5m up, 1m wide, on twig</t>
+  </si>
+  <si>
+    <t>primary montane forest, next to stream, 2m up, 1m wide, on leaf</t>
+  </si>
+  <si>
+    <t>blood and testes taken</t>
+  </si>
+  <si>
+    <t>Primary Forest, 1.5m from stream, 1m wide, rotan twig</t>
+  </si>
+  <si>
+    <t>1700m camp, Gunung Dako, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>1700m camp, Gunung Dako</t>
+  </si>
+  <si>
+    <t>McGuire et al.</t>
+  </si>
+  <si>
+    <t>Primary Forest, over stream, 1m up, 1m wide,</t>
+  </si>
+  <si>
+    <t>Primary Forest, 4m from stream, 2m up, 1m wide, on leaf</t>
+  </si>
+  <si>
+    <t>Primary Forest, 5m from stream, 1m up, 1m wide, on leaf</t>
+  </si>
+  <si>
+    <t>Ben video recorded call</t>
+  </si>
+  <si>
+    <t>Jeff video recorded call</t>
+  </si>
+  <si>
+    <t>Primary Forest, 3m from stream, on ground, 1m wide, in leaf litter</t>
+  </si>
+  <si>
+    <t>Primary Forest, 4m from stream, 1m up, 1m wide, on leaf</t>
+  </si>
+  <si>
+    <t>Sphenomorphus celebensis "highest"</t>
+  </si>
+  <si>
+    <t>53 inc</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on ground,-, bucket line 1780</t>
+  </si>
+  <si>
+    <t>blood+testes</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Rabdion forsteni</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on ground,-, leaf litter or mud</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on ground,-, leaf litter</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on 4" log on ground,-, on log</t>
+  </si>
+  <si>
+    <t>yellow ventrally, reddish laterally</t>
+  </si>
+  <si>
+    <t>Primary Forest, edge of pool f in intermittent stream, on small root, 2m*0.5m pool, root</t>
+  </si>
+  <si>
+    <t>Primary Forest, edge of stagnant pool, on ground, 2m*0.5m bank earth</t>
+  </si>
+  <si>
+    <t>Primary Forest, 1.5m from edge of pool/intermittent stream, on ground,2m*0.5m pool,leaf litter</t>
+  </si>
+  <si>
+    <t>Primary Forest, edge of intermittent stream, on ground, 2m*0.5m pool, leaf litter</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on ground, -,small pitfall</t>
+  </si>
+  <si>
+    <t>Primary Forest,in pools of intermittent stream,in water,2m*1m pool,water</t>
+  </si>
+  <si>
+    <t>Occidozyga semipalmata "high elevation"</t>
+  </si>
+  <si>
+    <t>Primary Forest,bank of pool,in water,50cm*50cm,water</t>
+  </si>
+  <si>
+    <t>Primary Forest,G,10 cm above leaf litter,-,leaf</t>
+  </si>
+  <si>
+    <t>pale red dorsally - I believe this has 18360 tag on it. must be switched with tadpole lot</t>
+  </si>
+  <si>
+    <t>Primary Forest,G,on ground,-, pitfall bucket 4,</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, leaf litter beside tree, -, leaf litter sticky 1500-11</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, leaf litter beside tree, -, leaf litter sticky 1500-12</t>
+  </si>
+  <si>
+    <t>deep yellow ventrally, orange under tail, orange suffuses some of yellow especially toward flanks</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, leaf litter beside tree, -, leaf litter sticky 1500-13</t>
+  </si>
+  <si>
+    <t>Primary Forest,in stagnant mud-bottom pool, -, 0.5m*0.5m, sitting still on bottom of pool</t>
+  </si>
+  <si>
+    <t>tads sat quietly in the bottom of the pool or at the edges. Attempted to bury in mud bottom when disturbed</t>
+  </si>
+  <si>
+    <t>Primary Forest, above intermittent stream, 0.3m up, 1m wide barely flowing, on blade-like leaf</t>
+  </si>
+  <si>
+    <t>Primary Forest, stream, 1.2 m up, 1m wide barely flowing, on leaf</t>
+  </si>
+  <si>
+    <t>Primary forest, 5m from intermittent stream, 0.2m up, 1m wide barely flowing, stem of small plant</t>
+  </si>
+  <si>
+    <t>combo of very dark melanic throat and pectoral region with pale yelow over gray more posteriorly on legs</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, 0.5m up, -, thin leaf</t>
+  </si>
+  <si>
+    <t>tan dorsally</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on 'ground' above huge 2m downed log, 2m log, wet moss</t>
+  </si>
+  <si>
+    <t>red dorsally - recorded poorly 1093.mp3 good recording 1097.mp3</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, log 1m up, -, leaf of sapling</t>
+  </si>
+  <si>
+    <t>tan dorsally bordered by dark brown, gray flanks</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, ground, -, thick moss layer on ground</t>
+  </si>
+  <si>
+    <t>brown and tan dorsally, pale yellow ventrally except throat</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, 1 ft up under moss &amp; leaves on 6" log, 6" log, under moss &amp; leaves</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on ground, -, 1780m bucket line</t>
+  </si>
+  <si>
+    <t>deep yellow ventral color - fine speckling on gular region</t>
+  </si>
+  <si>
+    <t>testes+blood</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, on ground, -, pitfall line 4</t>
+  </si>
+  <si>
+    <t>pitfall line 4</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, 1.5m up, -, on twig</t>
+  </si>
+  <si>
+    <t>whole frog in rnalater. Two tubes</t>
+  </si>
+  <si>
+    <t>whole specimen</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, 1m up, -, leaf</t>
+  </si>
+  <si>
+    <t>whole frog flash frozen (minced first)</t>
+  </si>
+  <si>
+    <t>Primary Forest, G, 1.5m up, -, twig</t>
+  </si>
+  <si>
+    <t>13 tubes (transcriptome sampling animal)</t>
+  </si>
+  <si>
+    <t>transcriptome</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>laid eggs in bag 5mm diameter clear jelly mostly white nucleus</t>
+  </si>
+  <si>
+    <t>2 tubes</t>
+  </si>
+  <si>
+    <t>26 eggs in clutch from JAM 16405</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun,bank of stream,on ground,3m wide mod flow gravel bottom, bank mud</t>
+  </si>
+  <si>
+    <t>Desa Kinapasan, Kecamatan Basidondo, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Desa Kinapasan</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, bank of stream, on 1ft diam rock, 3m stream, rock</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 6m up bank of stream, on ground, 3m rocky stream, leaf litter</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 1.5 m from stream, on rock, 3m rocky stream, on rock</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 1m from stream, on 1m rock, 4m rocky stream, rock</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, in stream, on 1m rock @ water level, 4m rocky stream, rock</t>
+  </si>
+  <si>
+    <t>Secondary Forest/kebun, mid-stream, on 10cm rock, 4m rocky stream, rock</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, stream margin, on 1m rock, 4m rocky stream, wet leaves on rock</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, water's edge, ground, 4m stream, on bank pebbles</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 0.5m from stream edge, ground, 4m stream, bank sand</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 5m from stream, in puddle on boulder, 3m rocky stream, puddle</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 10cm from stream, on ground, 3m rocky stream, leaf litter</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, margin of 3m stream, 1.5m boulder, 3m stream, boulder</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, rock shore of stream, on ground, 3m wide rocky stream, stone substrate</t>
+  </si>
+  <si>
+    <t>recorded 1111.mp3 - 1116.mp3 (later calls/recordings are better quality)</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 3m from stream, 1m up, 3m wide rocky stream, leaf</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, next to waterfall, 10 cm up, 3m rocky stream, on stick</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 20m from stream, on ground, 3m rocky stream, on dead leaf</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, above stream, 1m up, 3m stream, vertical face of 2m boulder,</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, 2m up bank from stream, 0.5m up on rock, 0.5m rock 3m stream, rock</t>
+  </si>
+  <si>
+    <t>Cacao, G, 0.5m up, -, on boulder</t>
+  </si>
+  <si>
+    <t>Cacao, 2.5m from stream, ground, -, branch of fallen tree</t>
+  </si>
+  <si>
+    <t>reddish (deep) flanks</t>
+  </si>
+  <si>
+    <t>Cacao, over stream, 1m up, 3m wide stream, large leaf</t>
+  </si>
+  <si>
+    <t>dull orange/tan dorsal stripe</t>
+  </si>
+  <si>
+    <t>Hemidactylus frenatus</t>
+  </si>
+  <si>
+    <t>Cacao, G, ground, -, in rock pile</t>
+  </si>
+  <si>
+    <t>Secondary forest/kebun, G, on ground, -, leaf litter</t>
+  </si>
+  <si>
+    <t>Cacao, G, on ground, -, leaf litter</t>
+  </si>
+  <si>
+    <t>flash frozen</t>
+  </si>
+  <si>
+    <t>Secondary forest, "near stream", on ground, -, -</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 4m, 12" coco 12" bh shade</t>
+  </si>
+  <si>
+    <t>dorange dorsal &amp; ventral patagium yellow dewlap green head</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 2.5m, 12" coco 15" bh shade</t>
+  </si>
+  <si>
+    <t>yellow wash on ventral patagium dorsal patagium yellow orange blotches on back head with only slightest hint of green on snout</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 6m, 12" coco 14" bh shade</t>
+  </si>
+  <si>
+    <t>yellow patagium (dorsal &amp; ventral) yellow dewlap green head</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 6m, 12" coco 12" bh shade</t>
+  </si>
+  <si>
+    <t>same as 16461</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 5m, 12" coco 12" bh shade</t>
+  </si>
+  <si>
+    <t>orange dorsal &amp; ventral patagium yellow dewlap green head</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 3m, 15" coco 17" bh shade</t>
+  </si>
+  <si>
+    <t>orange dorsal &amp; ventral patagium yellow dewlap green head hemipenes unpigmented</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 7m, 10" coco 12" bh shade</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 5m, 12" coco 17" bh shade</t>
+  </si>
+  <si>
+    <t>liver heart lungs muscle spleen* kidney* stomach intestines tongue gut brain testes dewlap skin patagial skin and both eyes</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 6m, 12" coco 15" bh shade</t>
+  </si>
+  <si>
+    <t>orange dorsal &amp; ventral patagium yellow dewlap green head. spleen &amp; kidney might not be the right tissues</t>
+  </si>
+  <si>
+    <t>Coconut palms, G, m 2.5m, 16" coco 16" bh shade</t>
+  </si>
+  <si>
+    <t>mixed coconut + cacao, G, on ground, -, leaf litter</t>
+  </si>
+  <si>
+    <t>gut cont</t>
+  </si>
+  <si>
+    <t>Kebun, near river, on ground, -, in pitfall</t>
+  </si>
+  <si>
+    <t>tissued for transcriptomics/genomics</t>
+  </si>
+  <si>
+    <t>tissue for transcriptomes/genomics</t>
+  </si>
+  <si>
+    <t>Cacao, G, - ,-, on rock</t>
+  </si>
+  <si>
+    <t>yellow ventrally except white throat</t>
+  </si>
+  <si>
+    <t>blood testes 2 liver samples</t>
+  </si>
+  <si>
+    <t>Kebun, G, on ground, -, leaf litter</t>
+  </si>
+  <si>
+    <t>Kebun, G, on ground on slope, -, leaf litter</t>
+  </si>
+  <si>
+    <t>Cacao kebun, G ,1 ft up on log, -, on log in dry stream channel</t>
+  </si>
+  <si>
+    <t>14 inc</t>
+  </si>
+  <si>
+    <t>Secondary forest, 6m from side stream, 1.5m up on root buttress, 3m stream, root buttress sticky 300-7</t>
+  </si>
+  <si>
+    <t>Secondary forest, G, on 15cm fallen log, -, on log sticky 300-13</t>
+  </si>
+  <si>
+    <t>Secondary forest, 3m from stream above seep, 1 ft up on root buttress, 3m stream, root buttress sticky 300-7</t>
+  </si>
+  <si>
+    <t>Secondary forest,above rocky stream,1m up on root on boulder,2.5m wide rocky stream,root</t>
+  </si>
+  <si>
+    <t>Tissued for transcriptomics/genomics</t>
+  </si>
+  <si>
+    <t>liver heart lung spleen kidney testes blood eyes tongue brain muscles back skin gut gut contents</t>
+  </si>
+  <si>
+    <t>33 reg</t>
+  </si>
+  <si>
+    <t>Kebun,G,on flat ground level boulder,-,rock</t>
+  </si>
+  <si>
+    <t>Kebun,river bank 1m from pool,ground,2m wide rocky/sandy stream,bank sand</t>
+  </si>
+  <si>
+    <t>Secondary forest,1m from 1*3m side pool,im up,1*3m side pool,palm frond</t>
+  </si>
+  <si>
+    <t>Secondary forest,3m from stream,2.5m up, 3"branch 3m stream,branch</t>
+  </si>
+  <si>
+    <t>Kebun, 1ft from stream,on ground,1m side stream,bank gravel</t>
+  </si>
+  <si>
+    <t>Secondary forest,in 1" deep puddle,2m from 3m stream,3m stream,-</t>
+  </si>
+  <si>
+    <t>Kebun,1ft from stream,-,4m wide fast,rocky stream,on rock</t>
+  </si>
+  <si>
+    <t>Secondary forest,1ft up,3m stream,on rock</t>
+  </si>
+  <si>
+    <t>Tissued for transcriptomics/genomics: 2 tubes recorded 1120-21.mp3 1125.mp3</t>
+  </si>
+  <si>
+    <t>Secondary forest,6" from stream,on small rock,3m,rock</t>
+  </si>
+  <si>
+    <t>Gekko smithii</t>
+  </si>
+  <si>
+    <t>Secondary forest,over 2.5m stream,4m up M,50"dbh,D</t>
+  </si>
+  <si>
+    <t>136 inc</t>
+  </si>
+  <si>
+    <t>Secondary forest,2m from 3m stream, M1.5m up,30"trunk,D</t>
+  </si>
+  <si>
+    <t>blood + testes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 inc </t>
+  </si>
+  <si>
+    <t>68 inc</t>
+  </si>
+  <si>
+    <t>deep orange ventrally except gray throat</t>
+  </si>
+  <si>
+    <t>yellow dorsal and ventral patagium green head yellow dewlap tissued for genomics/transcriptomics. not much blood for this one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart liver lungs possible kidney testes muscle gut brain eyes tongue dewlap skin patagial skin blood black skin gut contents </t>
+  </si>
+  <si>
+    <t>orange dorsal and ventral patagium yellow dewlap green head</t>
+  </si>
+  <si>
+    <t>ventral patagium yellow. Tissued for genomics/transcriptomics</t>
+  </si>
+  <si>
+    <t>heart liver lungs butative kidney putative spleen ovaries muscle eyes brain throat skin patagial skin back skin blood (a lot) tongue gut gut contents</t>
+  </si>
+  <si>
+    <t>Lamprolepis smaragdina "brown"</t>
+  </si>
+  <si>
+    <t>Limnonectes modestus</t>
+  </si>
+  <si>
+    <t>1000m camp Gunung Dako, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Secondary forest,G,on ground,-,-</t>
+  </si>
+  <si>
+    <t>limnonectes larvaepartus</t>
+  </si>
+  <si>
+    <t>tissued for genomics/transcriptomics gut contents in separate EtOH tube additinal tail tissue in separate tube</t>
+  </si>
+  <si>
+    <t>liver heart lung testes kidney+ spleen (combined) blood eyes brain tongue muscle sking gut gut contents tail</t>
+  </si>
+  <si>
+    <t>recorded 1149.mp3</t>
+  </si>
+  <si>
+    <t>recorded 1132.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recorded 1140.mp3 1142.mp3 1145.mp3 1145.mp3 is best </t>
+  </si>
+  <si>
+    <t>bloos</t>
+  </si>
+  <si>
+    <t>Leucocephalon yuwonoi</t>
+  </si>
+  <si>
+    <t>Dusun Bolouto, Desa Salumbia, Kecamatan Dondo, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Dusun Bolouto</t>
+  </si>
+  <si>
+    <t>Sopian</t>
+  </si>
+  <si>
+    <t>Blood sample taken</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Ahaetulla prasina</t>
+  </si>
+  <si>
+    <t>Kebun cloves/banana,G,on ground,-,grass</t>
+  </si>
+  <si>
+    <t>TA70</t>
+  </si>
+  <si>
+    <t>ground, leaf litter</t>
+  </si>
+  <si>
+    <t>1000m camp, Gunung Dako</t>
+  </si>
+  <si>
+    <t>Awal Riyanto and Tri Wahya Laksono</t>
+  </si>
+  <si>
+    <t>90 reg</t>
+  </si>
+  <si>
+    <t>0.5m</t>
+  </si>
+  <si>
+    <t>45 reg</t>
+  </si>
+  <si>
+    <t>cacao</t>
+  </si>
+  <si>
+    <t>waterfall, sitting on the rock</t>
+  </si>
+  <si>
+    <t>waterfall, sitting in the water</t>
+  </si>
+  <si>
+    <t>Pasar, traditional market. "Sutu Berido" Market in Toli Toli</t>
+  </si>
+  <si>
+    <t>Tolitoli</t>
+  </si>
+  <si>
+    <t>Cylindrophis melanotus</t>
+  </si>
+  <si>
+    <t>Good For RNA</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Sphenomorphus nigrilabris</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dako 1</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>ilomata1</t>
+  </si>
+  <si>
+    <t>SEE PAPER NOTES</t>
+  </si>
+  <si>
+    <t>ilomata 2</t>
+  </si>
+  <si>
+    <t>dako 2</t>
+  </si>
+  <si>
     <t>blue throat, no obvious lip stripe, reddish where stripe would be. testes and blood samples taken.</t>
-  </si>
-  <si>
-    <t>Cyrtodactylus sp. "pit"</t>
-  </si>
-  <si>
-    <t>cacao,away from stream,0.5-1m up,,boulder</t>
-  </si>
-  <si>
-    <t>Desa Kinapasan, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
-  </si>
-  <si>
-    <t>Desa Kinapasan, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah, Sulawesi Island, Indonesia</t>
-  </si>
-  <si>
-    <t>Awal Riyanto, Tri Laksono</t>
-  </si>
-  <si>
-    <t>48 reg</t>
-  </si>
-  <si>
-    <t>55 reg</t>
-  </si>
-  <si>
-    <t>5 inc</t>
-  </si>
-  <si>
-    <t>Gekko monarchus</t>
-  </si>
-  <si>
-    <t>75 reg</t>
-  </si>
-  <si>
-    <t>cacao,away from stream,1.5m up,,boulder</t>
-  </si>
-  <si>
-    <t>Boiga irregularis</t>
-  </si>
-  <si>
-    <t>cacao,away from stream,2.5m up,,cacao tree</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,12" up on log,12" log,log sticky 1000-6</t>
-  </si>
-  <si>
-    <t>pale yellow posteroventrally, barely any lip stripe</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,10" up on log,10" log,log sticky 1000-17</t>
-  </si>
-  <si>
-    <t>blue throat, white lip stripe, yellow posteroventral</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on trail,,</t>
-  </si>
-  <si>
-    <t>orange brown ventrally</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,in bucket line 1050,</t>
-  </si>
-  <si>
-    <t>gray ventrally, no fine speckling on gular region. Slender head and body</t>
-  </si>
-  <si>
-    <t>Tytthoscincus "mid orange eye"</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,in bucket line 1070,</t>
-  </si>
-  <si>
-    <t>orange iris, rich orange/brown ventrally</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,10" up on log,10" log,log sticky 1000-24</t>
-  </si>
-  <si>
-    <t>White lip stripe, yellow posteroventrally</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground,,log sticky 1000-52</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>12 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground,,sticky 1000-61</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,36" up on log,36" log,log sticky 1000-76</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,30" up on log,30" log,log sticky 1000-88</t>
-  </si>
-  <si>
-    <t>73 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,in pitfall array 1.5</t>
-  </si>
-  <si>
-    <t>Calamaria muelleri</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground between tree buttresses,,sticky 1000-21</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.7 m up,sapling next to trail,on broad leaf</t>
-  </si>
-  <si>
-    <t>23 reg</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.5 m up,sapling next to trail,on leaf</t>
-  </si>
-  <si>
-    <t>Papurana celebensis</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,leaf litter</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on rock on ground,,rock steep bank</t>
-  </si>
-  <si>
-    <t>yellow abdomen, deeper yellow ventral legs</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,at the spring,,1m pool,</t>
-  </si>
-  <si>
-    <t>laid eggs in bag</t>
-  </si>
-  <si>
-    <t>Calamorhabdium acuticeps</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground between small tree buttresses,72" trunk,sticky 1000-91</t>
-  </si>
-  <si>
-    <t>orange lip stripe, also on chin/gular area</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground between tree buttresses,,sticky 1000-5</t>
-  </si>
-  <si>
-    <t>No Locality Info, confused two I. celebensis. This one came in without data. Probably from camp. the date and body size infor are correct. Definitely Selectively Logged Forest</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,8" up on log,18" log,log sticy 1000-56</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Photo. Yellow mottling on throat, deep yellow abdomen, even deeper yellow ventral legs</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on rottan 50 cm up,,</t>
-  </si>
-  <si>
-    <t>Eutropis macrophthalma</t>
-  </si>
-  <si>
-    <t>154 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground under log,,sticky 1000-92</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground base of stump,,sticky 1000-42</t>
-  </si>
-  <si>
-    <t>2 tubes liver, Blood Sample</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,up on log,log,log sticky 1000-90</t>
-  </si>
-  <si>
-    <t>selectively logged forest, in pitfall 1050-2</t>
-  </si>
-  <si>
-    <t>37 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,1m up,,D sticky 1000-35</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,40 cm up on log,40 cm log,log sticky 1000-45</t>
-  </si>
-  <si>
-    <t>diffue pale yellow lip stripe</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground beneath log,,sticky 1000-47</t>
-  </si>
-  <si>
-    <t>yellow lip and neck stripe, yellow posteroventrally</t>
-  </si>
-  <si>
-    <t>Juv</t>
-  </si>
-  <si>
-    <t>J. A. McGuire, J. Frederick, B. Karin, Awal Riyanto, Tri Laksono</t>
-  </si>
-  <si>
-    <t>Juvenile with yellow lip stripe, yellow ventrally</t>
-  </si>
-  <si>
-    <t>yellow lip stripe; gray throat with faint yellow suffusion; yellow posteroventrally</t>
-  </si>
-  <si>
-    <t>33 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground along tree buttress,,sticky 1000-54</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,24" up on log,24" log,log sticky 1000-30</t>
-  </si>
-  <si>
-    <t>Sphenomorphus nigrilabris "low"</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground in camp,,pitfall</t>
-  </si>
-  <si>
-    <t>pale orange suffusion on sides of head.</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground,,</t>
-  </si>
-  <si>
-    <t>no lip stripe, yellow ventrally</t>
-  </si>
-  <si>
-    <t>Rhacophorus edentulus</t>
-  </si>
-  <si>
-    <t>recently cut forest,near spring,1m up,1m,on leaf</t>
-  </si>
-  <si>
-    <t>Gravid Female. eggs green</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,3m up on vine along tree trunk,2" vine,woody vine</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,over underground stream,on large rock,,rock</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,over underground stream,on large rock,,</t>
-  </si>
-  <si>
-    <t>Occidozyga semipalmata</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,above underground stream,on large rock,,rock</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,above underground stream,on tree,180 cm,</t>
-  </si>
-  <si>
-    <t>Large Food item in stomach - Sphenomorphus nigrilabris</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,above underground stream,on branch 150 cm up,,branch</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,above underground stream,10cm up on leaf,,</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream on trail,on trail,,</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on trail,,leaf litter</t>
-  </si>
-  <si>
-    <t>M/B</t>
-  </si>
-  <si>
-    <t>Ophiophagus hannah</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,,,</t>
-  </si>
-  <si>
-    <t>two tubes</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,1m up on 18" log,18" log,log sticky 1000-90</t>
-  </si>
-  <si>
-    <t>Blood Sample, extra EtOH liver sample</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,bucket line 3 (1075)</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,bucket line 1.5</t>
-  </si>
-  <si>
-    <t>orange brown venter</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground on trail,,</t>
-  </si>
-  <si>
-    <t>pale yellow ventral wash, darker on legs. Males not as yellow as females</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on paired logs 6" up,6" log,log sticky trap 1100-26</t>
-  </si>
-  <si>
-    <t>pale orange head, one large calcified egg</t>
-  </si>
-  <si>
-    <t>Blue lip stripe, blue throat and anterior chest, yellow posteroventrally</t>
-  </si>
-  <si>
-    <t>Blood Sample, apparently no tissue</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,12" up on 12" log,12" log,log sticky 1000-63</t>
-  </si>
-  <si>
-    <t>pale yellow lip stripe, posteroventrally yellow but rapidly switching to deep orange on last 2/3rds of tail</t>
-  </si>
-  <si>
-    <t>extra EtOH liver sample</t>
-  </si>
-  <si>
-    <t>22 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.3m up,50" stump,stump sticky 1000-66</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.5m up on tree,24" trunk,D sticky 1000-66</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,30" up on log,30" log,log sticky 1000-17</t>
-  </si>
-  <si>
-    <t>pink head wash on lip stripe and gular region, otherwase pale yellow ventrally</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on fallen tree,,sticky 1000-39</t>
-  </si>
-  <si>
-    <t>50 reg</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,0.3m up,small tree buttress 30" trunk,</t>
-  </si>
-  <si>
-    <t>Pale Yellow throat suffusion, pale yellow posteroventrally, yellow lip stripe</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,in pitfall array 1075</t>
-  </si>
-  <si>
-    <t>ventrum orange/brown, iris dark</t>
-  </si>
-  <si>
-    <t>NO SPECIMEN</t>
-  </si>
-  <si>
-    <t>SPECIMEN LOST</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,10" up on dead leaf,,dead leaf</t>
-  </si>
-  <si>
-    <t>107 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground under overhanging rock,,ground sticky 1000-19</t>
-  </si>
-  <si>
-    <t>Pale Orange throat, yellow lip stripe</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on 15" log on ground,,log sticky 1000-41</t>
-  </si>
-  <si>
-    <t>pale blue throat, indistinct pale orange lip stripe</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,under 48" overhanging log on ground,,ground sticky 1000-4</t>
-  </si>
-  <si>
-    <t>26 reg</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.3m up,,tree butress sticky 1000-53</t>
-  </si>
-  <si>
-    <t>125 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,1m up,48" tree,root buttress sticky 1000-58</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground between root buttresses,,leaf litter sticky 1000-59</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.5m up,40" tree,tree buttress sticky 1000-81</t>
-  </si>
-  <si>
-    <t>95 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,30" up,18" log 12" above ground,log sticky 1000-94</t>
-  </si>
-  <si>
-    <t>94 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,24" up,on 24" log,log sticky 1000-30</t>
-  </si>
-  <si>
-    <t>Blood Sample, no tissue found?</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,in pitfall bucket line 1.5</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,0.2m up,,stump buttress sticky 1000-23</t>
-  </si>
-  <si>
-    <t>? orange ventrally</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground,,leaf litter sticky 1000-86</t>
-  </si>
-  <si>
-    <t>yellow orange ventrally</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground,,pitfall 1070</t>
-  </si>
-  <si>
-    <t>deep orange ventrally, more so than the males</t>
-  </si>
-  <si>
-    <t>pale orange-yellow ventrum</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,1.2m up on sapling,1.5m stream,leaf</t>
-  </si>
-  <si>
-    <t>food item in stomach - calamaria but head digested - now JAM 16134</t>
-  </si>
-  <si>
-    <t>Secondary Forest,1m above rocky stream,1m,1m rocky stream,bare twig</t>
-  </si>
-  <si>
-    <t>Secondary Forest,stream edge,1m up on mossy boulder,1.5m wide stream,rock</t>
-  </si>
-  <si>
-    <t>Recorded 1035-1037.mp3</t>
-  </si>
-  <si>
-    <t>Secondary Forest,stream edge,1m up,1.5m rocky stream,on leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,1.6m above stream,1.6m up on green leaf,1.5m rocky stream,green leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,1.2m from stream,1.2m up,1.5m rocky stream,green leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,stream edge,1m up,2m wide gravelly stream,leaf</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>Secondary Forest,4m from stream,1.5m up,3m boulder 1.5m wide stream,leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,3m from stream on bank,ground,3m wide stream,bank mud/leaves</t>
-  </si>
-  <si>
-    <t>Pearly white ventrally</t>
-  </si>
-  <si>
-    <t>Secondary Forest,edge of stream,at water's edge,3m wide sandy stream,bank mud</t>
-  </si>
-  <si>
-    <t>Recorded 1054.mp3 and a few before</t>
-  </si>
-  <si>
-    <t>Secondary Forest,above stream,2m up,,on leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,above stream,1.5m up,,on leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,above stream,1m up,,on leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,above stream,10 cm up,,on leaf</t>
-  </si>
-  <si>
-    <t>Secondary Forest,in stream,,,on pebbles</t>
-  </si>
-  <si>
-    <t>Secondary Forest,next to stream,on ground,,bank sand</t>
-  </si>
-  <si>
-    <t>Pale yellow abdominal wash</t>
-  </si>
-  <si>
-    <t>Secondary Forest,4m up slope from stream,on ground,,sandy-clay substrate</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>Secondary Forest,8m from stream,on ground/bank,1.5m wide,sandy/rocky soil</t>
-  </si>
-  <si>
-    <t>0037</t>
-  </si>
-  <si>
-    <t>Secondary Forest,5m from stream,1 ft. up,1.5m wide,dead palm leaf</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>Secondary Forest,above stream,1 ft. up,small braided stream,</t>
-  </si>
-  <si>
-    <t>Chalcorana mocquardi</t>
-  </si>
-  <si>
-    <t>Secondary Forest,4m from gravel/sand stream,on stream bank,1.5m wide,bank mud/sand</t>
-  </si>
-  <si>
-    <t>Photo. Bright lemon yellow ventrally and on lip stripe</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on ground,,</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,bucket line 1050-1</t>
-  </si>
-  <si>
-    <t>orange ventrum, no speckling on gular region</t>
-  </si>
-  <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,pitfall array 2</t>
-  </si>
-  <si>
-    <t>26 inc</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on ground beside log,,sticky 750-16</t>
-  </si>
-  <si>
-    <t>6 inc</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on log,,log sticky 75-2</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,under tree buttress,,ground</t>
-  </si>
-  <si>
-    <t>blue throat and lip stripe</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on ground beside buttress,,ground</t>
-  </si>
-  <si>
-    <t>no unusual color on throat, pale yellow, no obvious lip stripe</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on log,,log sticky 750-2</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on tree buttress,,sticky 750-1</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, g, on ground below fallen tree, ground, sticky 1000-31</t>
-  </si>
-  <si>
-    <t>orange suffusion on gular region</t>
-  </si>
-  <si>
-    <t>45 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,below fallen tree on ground,,ground sticky 1000-31</t>
-  </si>
-  <si>
-    <t>yellow lip stripe</t>
-  </si>
-  <si>
-    <t>9 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,,,sticky 1000-28</t>
-  </si>
-  <si>
-    <t>15 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,,,sticky 1000-27</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground beneath large boulder,,ground sticky 1000-22</t>
-  </si>
-  <si>
-    <t>drab lip stripe</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,,,sticky 1000-21</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,,,sticky 1000-19</t>
-  </si>
-  <si>
-    <t>Blue throat (moderate suffusion), white lip stripe</t>
-  </si>
-  <si>
-    <t>Secondary Forest,away from stream,on trail on ground,,ground</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,on ground,,ground dirt floor of camp</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.5m up on 8" root,,root sticky 1000-71</t>
-  </si>
-  <si>
-    <t>white lip stripe</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.8m up,45" trunk,D sticky 1000-75</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,0.7m up,,tree buttress sticky 1000-78</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on ground beneath overhanging log,,ground sticky 1000-89</t>
-  </si>
-  <si>
-    <t>pale orange suffusion on lower jaws, gravid with 2 eggs</t>
-  </si>
-  <si>
-    <t>115 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,18" up on log,,log sticky 1530-4</t>
-  </si>
-  <si>
-    <t>gray throat, white lip stripe</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 4" diam log on ground,,log sticky 1530-5</t>
-  </si>
-  <si>
-    <t>throat pale orange, lip stripe yellow</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 5" log 1ft off ground,,log sticky 1530-12</t>
-  </si>
-  <si>
-    <t>orange throat and lip stripe</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 15" log,,log sticky 1530-18</t>
-  </si>
-  <si>
-    <t>yellow throat, diffuse lip stripe</t>
-  </si>
-  <si>
-    <t>Sphenomorphus celebensis</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 3" log on ground,,log sticky 1530-4</t>
-  </si>
-  <si>
-    <t>44 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,1 ft. up,,root buttress sticky 1530-45</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 12" log on ground,,log sticky 1530-36</t>
-  </si>
-  <si>
-    <t>17 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 8" log on ground,,lo sticky 1530-35</t>
-  </si>
-  <si>
-    <t>19 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,on 30" log on ground,,lo sticky 1530-29</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,1 ft up,15" trunk,D sticky 1530-28</t>
-  </si>
-  <si>
-    <t>head gray, body deep orange grading to yellow midventrally; base of tail orange with dramatic trnasition to gray</t>
-  </si>
-  <si>
-    <t>35 inc</t>
-  </si>
-  <si>
-    <t>primary forest, ground, 22" up on 10" log</t>
-  </si>
-  <si>
-    <t>pale yellow lip stripe, white throat</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>primary forest, ground, on ground, leaf litter</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, ground, on ground, on trail</t>
-  </si>
-  <si>
-    <t>70 inc</t>
-  </si>
-  <si>
-    <t>secondary forest, ground, in stomach of Psammodynastes</t>
-  </si>
-  <si>
-    <t>pulled from stomach of Psammodynastes pulverulentus (JAM 16062)</t>
-  </si>
-  <si>
-    <t>Kaloula baleata</t>
-  </si>
-  <si>
-    <t>kampung/village, ground</t>
-  </si>
-  <si>
-    <t>Desa Kinapasan, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah, Sulawesi Id., Indonesia</t>
-  </si>
-  <si>
-    <t>cacao plantation, on rock, rock</t>
-  </si>
-  <si>
-    <t>blood sample taken</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, boulder, rock</t>
-  </si>
-  <si>
-    <t>Draco spilonotus SNP</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, 200cm up sleeping on boulder, rock</t>
-  </si>
-  <si>
-    <t>Limnonectes heinrichi</t>
-  </si>
-  <si>
-    <t>cacao plantation, in stream, on rock, rock</t>
-  </si>
-  <si>
-    <t>bright white ventrally</t>
-  </si>
-  <si>
-    <t>all with pale yellow ventral wash</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on ground/trail</t>
-  </si>
-  <si>
-    <t>cacao plantation, in stream by waterfall, on waterfall, rock</t>
-  </si>
-  <si>
-    <t>cacao plantation, 2m up</t>
-  </si>
-  <si>
-    <t>white ventrally</t>
-  </si>
-  <si>
-    <t>cacao plantation, near stream, on ground, leaf litter</t>
-  </si>
-  <si>
-    <t>white ventrally with yellow lateral wash--calling when captured</t>
-  </si>
-  <si>
-    <t>24 inc</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on ground near boulder, leaf litter</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on rock, rock</t>
-  </si>
-  <si>
-    <t>67 regen</t>
-  </si>
-  <si>
-    <t>cacao plantation, on ground near boulder, rock</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on boulder, rock</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on boulder, leaf litter</t>
-  </si>
-  <si>
-    <t>pale yellow with ventral wash</t>
-  </si>
-  <si>
-    <t>cacao plantation, in or near stream, on rock, rock</t>
-  </si>
-  <si>
-    <t>64 regen</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on ground, leaf litter</t>
-  </si>
-  <si>
-    <t>cacao plantation, in stream</t>
-  </si>
-  <si>
-    <t>cacao plantation</t>
-  </si>
-  <si>
-    <t>Eutropis rudis</t>
-  </si>
-  <si>
-    <t>87 regen</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, on ground sleeping, leaf litter</t>
-  </si>
-  <si>
-    <t>lemon-yellow throat coloration</t>
-  </si>
-  <si>
-    <t>Tytthoscincus "low"</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, ground, leaf litter</t>
-  </si>
-  <si>
-    <t>grey orange ventrally with fine speckling on threat</t>
-  </si>
-  <si>
-    <t>testes taken as supplemental</t>
-  </si>
-  <si>
-    <t>28 regen</t>
-  </si>
-  <si>
-    <t>gray ventrally with fine speckling on gular region</t>
-  </si>
-  <si>
-    <t>Emoia caeruleocauda</t>
-  </si>
-  <si>
-    <t>no vibrant coloration</t>
-  </si>
-  <si>
-    <t>Eutropis multifasciata</t>
-  </si>
-  <si>
-    <t>gray venter with fine speckling on gular region</t>
-  </si>
-  <si>
-    <t>venter translucent gray</t>
-  </si>
-  <si>
-    <t>lost?</t>
-  </si>
-  <si>
-    <t>laid eggs</t>
-  </si>
-  <si>
-    <t>laid 2 white eggs in bag. Regular shape</t>
-  </si>
-  <si>
-    <t>Coelognathus erythrurus</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground</t>
-  </si>
-  <si>
-    <t>two liver tubes. blood sample taken</t>
-  </si>
-  <si>
-    <t>Hebius celebicum</t>
-  </si>
-  <si>
-    <t>cacao plantation, ground, ground/trail, trail</t>
-  </si>
-  <si>
-    <t>65 regen</t>
-  </si>
-  <si>
-    <t>35 regen</t>
-  </si>
-  <si>
-    <t>gray venter with fine dark gular speckling</t>
-  </si>
-  <si>
-    <t>pale blue throat</t>
-  </si>
-  <si>
-    <t>specimen escaped during CTmax trials</t>
-  </si>
-  <si>
-    <t>yellow abdomen, darker yellow on legs</t>
-  </si>
-  <si>
-    <t>lemon yellow venter &amp; lip stripe</t>
-  </si>
-  <si>
-    <t>pearly white ventrally</t>
-  </si>
-  <si>
-    <t>Polypedates iskandari</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>primary forest, ground, on 3" log on ground, log, sticky 1530-46</t>
-  </si>
-  <si>
-    <t>primary forest, ground, on ground beside log, ground, sticky 1530-13</t>
-  </si>
-  <si>
-    <t>36 inc</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, ground, on ground between root buttresses, ground, sticky 1000-33</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, ground, 0.2 m up, 24" trunk, D, sticky 1000-28</t>
-  </si>
-  <si>
-    <t>very pale blue throat coloration</t>
-  </si>
-  <si>
-    <t>primary forest, ground, dry bed, on ground, dead leaf</t>
-  </si>
-  <si>
-    <t>recorded ~1055-1062.mp3</t>
-  </si>
-  <si>
-    <t>Rhabdophis chrysargoides</t>
-  </si>
-  <si>
-    <t>primary forest, ground, 0.3 m up tree buttress, 40" tree, buttress, sticky 1000-53</t>
-  </si>
-  <si>
-    <t>secondary forest, ground, sticky 750-8</t>
-  </si>
-  <si>
-    <t>secondary forest, ground, sticky 750-9</t>
-  </si>
-  <si>
-    <t>pale orange on side of neck. Yellow suffusion above and below the mouth</t>
-  </si>
-  <si>
-    <t>31 inc</t>
-  </si>
-  <si>
-    <t>secondary forest, ground, sticky 750-11</t>
-  </si>
-  <si>
-    <t>pale blue throat patch</t>
-  </si>
-  <si>
-    <t>secondary forest, ground, sticky 750-15</t>
-  </si>
-  <si>
-    <t>obscure white dewlap</t>
-  </si>
-  <si>
-    <t>secondary forest, ground, sticky 750-16</t>
-  </si>
-  <si>
-    <t>42 inc</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-24</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-31</t>
-  </si>
-  <si>
-    <t>71 regen</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-20</t>
-  </si>
-  <si>
-    <t>secondary forst, g, sticky 750-23</t>
-  </si>
-  <si>
-    <t>kebun, on ground</t>
-  </si>
-  <si>
-    <t>40 inc</t>
-  </si>
-  <si>
-    <t>61 inc</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-8</t>
-  </si>
-  <si>
-    <t>57 inc</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-23</t>
-  </si>
-  <si>
-    <t>49 regen</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-25</t>
-  </si>
-  <si>
-    <t>secondary forest, g, on tree buttress, sticky 750-4</t>
-  </si>
-  <si>
-    <t>primary forest, g, 0.4 m up, root buttress, sticky 1000-72</t>
-  </si>
-  <si>
-    <t>primary forest, g, 1 m up, 30" tree, tree buttress, sticky 1000-38</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>100 REGEN</t>
-  </si>
-  <si>
-    <t>primary forest, g, on 3" log on ground, log, sticky 1530-46</t>
-  </si>
-  <si>
-    <t>primary forest, g, 10" up on tree buttress, 14" tree, d, sticky 1530-45</t>
-  </si>
-  <si>
-    <t>primary forest, g, 24" log on ground in clearing, log, sticky 1530-4</t>
-  </si>
-  <si>
-    <t>23 INC</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, g, on ground under overhanging boulder, ground, sticky 1000-32</t>
-  </si>
-  <si>
-    <t>40 INC</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, g, on 10" log on ground, log, sticky 1000-6</t>
-  </si>
-  <si>
-    <t>primary forest, g, on ground between tree buttresses, ground, sticky 1000-55</t>
-  </si>
-  <si>
-    <t>yellow-orange ventrally. blood sample taken.</t>
-  </si>
-  <si>
-    <t>primary forest, g, on ground, leaf litter</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, g, on ground beside stump buttress, buttress, sticky 1000-16</t>
-  </si>
-  <si>
-    <t>bright tangarine orange head and throat, lemon yellow ventrally everywhere else, lipe stripe vivid orange</t>
-  </si>
-  <si>
-    <t>Oreophryne "puncak"</t>
-  </si>
-  <si>
-    <t>montane primary forest, g</t>
-  </si>
-  <si>
-    <t>1700m camp, Ganung Dako</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>photo; red dorsal coloration</t>
-  </si>
-  <si>
-    <t>primary forest, g, sticky 1000-70</t>
-  </si>
-  <si>
-    <t>white lip stripe and throat</t>
-  </si>
-  <si>
-    <t>primary forest, g, grass blade</t>
-  </si>
-  <si>
-    <t>tan with darker tan mottling</t>
-  </si>
-  <si>
-    <t>38 inc</t>
-  </si>
-  <si>
-    <t>cacao plantation, g, ground, leaf litter</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>secondary forest, g, on ground</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, g, 5m up, 12" dead tree, 16" bh shade, d</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-14</t>
-  </si>
-  <si>
-    <t>white throat</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-2</t>
-  </si>
-  <si>
-    <t>blue throat, white lip stripe</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-13</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky 750-15</t>
-  </si>
-  <si>
-    <t>day-glo green throat, lip stripe obscure</t>
-  </si>
-  <si>
-    <t>100 regen</t>
-  </si>
-  <si>
-    <t>secondary forest, g, sticky  750-34</t>
-  </si>
-  <si>
-    <t>tan ventrally throughout</t>
-  </si>
-  <si>
-    <t>primary forest, g, 0.6 m up, root buttress, sticky 1000-78</t>
-  </si>
-  <si>
-    <t>gray htroat, diffuse lip stripe</t>
-  </si>
-  <si>
-    <t>primary forest, g, 0.3 m up, 12" tree, root buttress, sticky 1000-81</t>
-  </si>
-  <si>
-    <t>orange suffused throat, white lip stripe. blood sample taken</t>
-  </si>
-  <si>
-    <t>Sphenomorphus sp. green</t>
-  </si>
-  <si>
-    <t>primary forest, g, 0.8m up, 50" tree, d, sticky 1000-75</t>
-  </si>
-  <si>
-    <t>pale green ventrally. blood sample taken, and testes.</t>
-  </si>
-  <si>
-    <t>primary forest, g, on ground between root buttresses, small root buttresses, sticky 1000-50</t>
-  </si>
-  <si>
-    <t>32 inc</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,,,on sticky trap 1000-6</t>
-  </si>
-  <si>
-    <t>Throat and sides of head pale yellow</t>
-  </si>
-  <si>
-    <t>reddish orange dorsal coloration</t>
-  </si>
-  <si>
-    <t>Rhacophorus sp. "Big Brown"</t>
-  </si>
-  <si>
-    <t>montane primary forest, g, near intermittent stream, on leaf</t>
-  </si>
-  <si>
-    <t>secondary forest, g, 4m up, 10" dbh, d</t>
-  </si>
-  <si>
-    <t>secondary forest, g, 6m up, 10" dbh, d</t>
-  </si>
-  <si>
-    <t>19 regen</t>
-  </si>
-  <si>
-    <t>secondary forest, g</t>
-  </si>
-  <si>
-    <t>blue throat and lip stripe. testes taken as supplemental</t>
-  </si>
-  <si>
-    <t>76 reg</t>
-  </si>
-  <si>
-    <t>Selectively Logged Forest,away from stream,came out of hole at base of tree buttress,,</t>
-  </si>
-  <si>
-    <t>Bright orange head, blue throat, very pale yellow posteroventrally</t>
-  </si>
-  <si>
-    <t>58 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest,away from stream,1m up,,D sticky 1000-35</t>
-  </si>
-  <si>
-    <t>yellow lip stripe and ventral color</t>
-  </si>
-  <si>
-    <t>selectively-logged forest, g, on 6" log, on ground, log, sticky 1000-12</t>
-  </si>
-  <si>
-    <t>blue throat and lip stripe; yellow-orange postero-ventrally</t>
-  </si>
-  <si>
-    <t>blue throat, no lip stripe</t>
-  </si>
-  <si>
-    <t>primary forest, g, 0.5 m up, tree buttress, sticky 1000-64</t>
-  </si>
-  <si>
-    <t>day-glo green ventrally</t>
-  </si>
-  <si>
-    <t>primary montane forest, g, 2.5m up, small tree, leaf</t>
-  </si>
-  <si>
-    <t>1700m camp, Gunung Dako, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah, Sulawesi Island, Indonesia</t>
-  </si>
-  <si>
-    <t>primary montane forest, g, on ground under bark</t>
-  </si>
-  <si>
-    <t>primary montane forest, g, 2m up on plant, leaf</t>
-  </si>
-  <si>
-    <t>Tytthoscincus "high"</t>
-  </si>
-  <si>
-    <t>7 inc</t>
-  </si>
-  <si>
-    <t>primary montane forest, g, on ground, pitfall bucket line 02</t>
-  </si>
-  <si>
-    <t>testes sample taken</t>
-  </si>
-  <si>
-    <t>primary montane forest, g, on ground</t>
-  </si>
-  <si>
-    <t>primary montane forest, 0.5 m from intermittent stream, 2m up , 0.5m wide stream/pool, broad leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, 2.5m from intermittent stream, 3m up, 0.5m wide stream/pool, 10" trunk, moss</t>
-  </si>
-  <si>
-    <t>recorded 1069, 1070</t>
-  </si>
-  <si>
-    <t>primary montane forest,  4m from intermittent stream, 0.8m up, small rotan, rotan</t>
-  </si>
-  <si>
-    <t>primary montane forest, 15 m from intermittent stream, 1 foot up, 0.5m wide stream/root, fern frond</t>
-  </si>
-  <si>
-    <t>primary montane forest, 5m from intermittent stream, 2m up, 0.5m wide stream/pool, fern frond</t>
-  </si>
-  <si>
-    <t>primary montane forest, 5m from intermittent stream, 1m up, 0.5m wide stream/pool, pandanus leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, above intermittent stream, 1.5m up, fern frond</t>
-  </si>
-  <si>
-    <t>0043</t>
-  </si>
-  <si>
-    <t>primary montane forest, near intermittent stream, 2.5 m up, 0.5m wide stream, 3" wide leaf</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>primary montane forest, 1m from intermittent stream, base of tree, 0.5m wide stream, wet moss</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>primary montane forest, 2m from intermittent stream, 0.5m up, 0.5m wide stream, leaves</t>
-  </si>
-  <si>
-    <t>0115</t>
-  </si>
-  <si>
-    <t>primary montane forest, near intermittent stream, 1.5m up, &lt;1 cm wide tree branch, branch</t>
-  </si>
-  <si>
-    <t>1915</t>
-  </si>
-  <si>
-    <t>primary montane forest, 3m from intermittent stream, 1m up, 0.5m wide stream, small leaf</t>
-  </si>
-  <si>
-    <t>pale orange speckling on nape; white eggs</t>
-  </si>
-  <si>
-    <t>1929</t>
-  </si>
-  <si>
-    <t>primary montane forest, 2.5m from intermittent stream, 0.2m up, 0.5m wide stream, on green twig</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>primary montane forest, 4m from intermittent stream, 1m up 0.5m wide stream, on pandanus</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 1m up, on leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 1m up, on twig</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.5m up, leafy vegetation</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 1m up, 45" diam trunk, D</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>primary montane forest, 4m from stream, 1m wide stream, on leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.5m up, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.8m up, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.8m up, fern leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 1 ft. up, pandanus leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 1m up, leaf</t>
-  </si>
-  <si>
-    <t>green dorsally</t>
-  </si>
-  <si>
-    <t>orange-red dorsal coloration</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 1.2m up, sapling leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.3m up, leaf</t>
-  </si>
-  <si>
-    <t>Occidozyga semipalmata indet.</t>
-  </si>
-  <si>
-    <t>primary montane forest, in intermittent stream, 0.5 - 1m wide stream, water</t>
-  </si>
-  <si>
-    <t>large black eggs</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, on ground, pitfall bucket 1750-3</t>
-  </si>
-  <si>
-    <t>red dorsal coloration</t>
-  </si>
-  <si>
-    <t>primary montane forest, 7m from intermittent stream, 0.3m up, 1m wide stream, leaf</t>
-  </si>
-  <si>
-    <t>yellow-green dorsal coloration</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.5m up, 1m wide stream, leaf</t>
-  </si>
-  <si>
-    <t>tan dorsally with orange-red legs</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, 0.6m up, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, dry drainage area, 6" above ground, moss</t>
-  </si>
-  <si>
-    <t>primary montane forest, over small pool in stream, 3m up, 1m, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, over 2m x 0.6m pool at intermittent pool, 1.5m up, 0.6m, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, above 30x40 cm pool, 40cm up, 40cm, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, immediately adjacent to small pool, up on ground, on ground</t>
-  </si>
-  <si>
-    <t>pale orange ventral posterior abdomen and legs (iPhone photo taken); black eggs (large and few)</t>
-  </si>
-  <si>
-    <t>primary montane forest, above 4ft x 2ft pool, 1m up, 2 ft, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, above intermittent stream, 1m up, leaf</t>
-  </si>
-  <si>
-    <t>froglet, tail not yet resorbed. orange toepads.</t>
-  </si>
-  <si>
-    <t>primary montane forest, 5m from stream, 1m up, leaf</t>
-  </si>
-  <si>
-    <t>0029</t>
-  </si>
-  <si>
-    <t>primary montane forest, 2m from intermittent stream, 1m up, rottan stem</t>
-  </si>
-  <si>
-    <t>2245</t>
-  </si>
-  <si>
-    <t>primary montane forest, above empty stream channel, 4" up, base of fern</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>primary montane forest, in pool of intermittent stream, 5' x 2' pool, in water</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>primary montane forest, 0.5m from intermittent stream, 1m up, 1m, rotan stem</t>
-  </si>
-  <si>
-    <t>primary montane forest, 0.5m from intermittent stream, 1.1m up, 1m, rotan leaves</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>primary montane forest, 0.5m from intermittent stream, 2m up, 1m, rotan leaves</t>
-  </si>
-  <si>
-    <t>primary montane forest, 0.5m from intermittent stream, 2m up, 1m, on horizontal branch/stick</t>
-  </si>
-  <si>
-    <t>0047</t>
-  </si>
-  <si>
-    <t>primary montane forest, ~5m from intermittent stream, 1m up, broad leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, intermittent stream, in water, 2m x 0.5m pool</t>
-  </si>
-  <si>
-    <t>tadpole lot with 3 tubes</t>
-  </si>
-  <si>
-    <t>48 inc</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, on ground, leaf litter, sticky 1500-50</t>
-  </si>
-  <si>
-    <t>59 inc</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, on exposed tree root, tree root, sticky 1500-29</t>
-  </si>
-  <si>
-    <t>84 regen</t>
-  </si>
-  <si>
-    <t>primary montane forest, G, on ground, leaf litter between 2 trees, sticky</t>
-  </si>
-  <si>
-    <t>yellow abdomen, reddish around vent, blood sample taken</t>
-  </si>
-  <si>
-    <t>63 regen</t>
-  </si>
-  <si>
-    <t>primary montane forest, 4m from stream, 2m up, 1m wide, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, 4m above stream, 1m up, 1m wide, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, 4m above stream, 2m up, 1m wide, leaf</t>
-  </si>
-  <si>
-    <t>primary montane forest, 4m above stream, 1.5m up, 1m wide, on twig</t>
-  </si>
-  <si>
-    <t>primary montane forest, next to stream, 2m up, 1m wide, on leaf</t>
-  </si>
-  <si>
-    <t>blood and testes taken</t>
-  </si>
-  <si>
-    <t>Primary Forest, 1.5m from stream, 1m wide, rotan twig</t>
-  </si>
-  <si>
-    <t>1700m camp, Gunung Dako, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
-  </si>
-  <si>
-    <t>1700m camp, Gunung Dako</t>
-  </si>
-  <si>
-    <t>McGuire et al.</t>
-  </si>
-  <si>
-    <t>Primary Forest, over stream, 1m up, 1m wide,</t>
-  </si>
-  <si>
-    <t>Primary Forest, 4m from stream, 2m up, 1m wide, on leaf</t>
-  </si>
-  <si>
-    <t>Primary Forest, 5m from stream, 1m up, 1m wide, on leaf</t>
-  </si>
-  <si>
-    <t>Ben video recorded call</t>
-  </si>
-  <si>
-    <t>Jeff video recorded call</t>
-  </si>
-  <si>
-    <t>Primary Forest, 3m from stream, on ground, 1m wide, in leaf litter</t>
-  </si>
-  <si>
-    <t>Primary Forest, 4m from stream, 1m up, 1m wide, on leaf</t>
-  </si>
-  <si>
-    <t>Sphenomorphus celebensis "highest"</t>
-  </si>
-  <si>
-    <t>53 inc</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on ground,-, bucket line 1780</t>
-  </si>
-  <si>
-    <t>blood+testes</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Rabdion forsteni</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on ground,-, leaf litter or mud</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on ground,-, leaf litter</t>
-  </si>
-  <si>
-    <t>testes</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on 4" log on ground,-, on log</t>
-  </si>
-  <si>
-    <t>yellow ventrally, reddish laterally</t>
-  </si>
-  <si>
-    <t>Primary Forest, edge of pool f in intermittent stream, on small root, 2m*0.5m pool, root</t>
-  </si>
-  <si>
-    <t>Primary Forest, edge of stagnant pool, on ground, 2m*0.5m bank earth</t>
-  </si>
-  <si>
-    <t>Primary Forest, 1.5m from edge of pool/intermittent stream, on ground,2m*0.5m pool,leaf litter</t>
-  </si>
-  <si>
-    <t>Primary Forest, edge of intermittent stream, on ground, 2m*0.5m pool, leaf litter</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on ground, -,small pitfall</t>
-  </si>
-  <si>
-    <t>Primary Forest,in pools of intermittent stream,in water,2m*1m pool,water</t>
-  </si>
-  <si>
-    <t>Occidozyga semipalmata "high"</t>
-  </si>
-  <si>
-    <t>Primary Forest,bank of pool,in water,50cm*50cm,water</t>
-  </si>
-  <si>
-    <t>Primary Forest,G,10 cm above leaf litter,-,leaf</t>
-  </si>
-  <si>
-    <t>pale red dorsally - I believe this has 18360 tag on it. must be switched with tadpole lot</t>
-  </si>
-  <si>
-    <t>Primary Forest,G,on ground,-, pitfall bucket 4,</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, leaf litter beside tree, -, leaf litter sticky 1500-11</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, leaf litter beside tree, -, leaf litter sticky 1500-12</t>
-  </si>
-  <si>
-    <t>deep yellow ventrally, orange under tail, orange suffuses some of yellow especially toward flanks</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, leaf litter beside tree, -, leaf litter sticky 1500-13</t>
-  </si>
-  <si>
-    <t>Primary Forest,in stagnant mud-bottom pool, -, 0.5m*0.5m, sitting still on bottom of pool</t>
-  </si>
-  <si>
-    <t>tads sat quietly in the bottom of the pool or at the edges. Attempted to bury in mud bottom when disturbed</t>
-  </si>
-  <si>
-    <t>Primary Forest, above intermittent stream, 0.3m up, 1m wide barely flowing, on blade-like leaf</t>
-  </si>
-  <si>
-    <t>Primary Forest, stream, 1.2 m up, 1m wide barely flowing, on leaf</t>
-  </si>
-  <si>
-    <t>Primary forest, 5m from intermittent stream, 0.2m up, 1m wide barely flowing, stem of small plant</t>
-  </si>
-  <si>
-    <t>combo of very dark melanic throat and pectoral region with pale yelow over gray more posteriorly on legs</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, 0.5m up, -, thin leaf</t>
-  </si>
-  <si>
-    <t>tan dorsally</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on 'ground' above huge 2m downed log, 2m log, wet moss</t>
-  </si>
-  <si>
-    <t>red dorsally - recorded poorly 1093.mp3 good recording 1097.mp3</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, log 1m up, -, leaf of sapling</t>
-  </si>
-  <si>
-    <t>tan dorsally bordered by dark brown, gray flanks</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, ground, -, thick moss layer on ground</t>
-  </si>
-  <si>
-    <t>brown and tan dorsally, pale yellow ventrally except throat</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, 1 ft up under moss &amp; leaves on 6" log, 6" log, under moss &amp; leaves</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on ground, -, 1780m bucket line</t>
-  </si>
-  <si>
-    <t>deep yellow ventral color - fine speckling on gular region</t>
-  </si>
-  <si>
-    <t>testes+blood</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, on ground, -, pitfall line 4</t>
-  </si>
-  <si>
-    <t>pitfall line 4</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, 1.5m up, -, on twig</t>
-  </si>
-  <si>
-    <t>whole frog in rnalater. Two tubes</t>
-  </si>
-  <si>
-    <t>whole specimen</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, 1m up, -, leaf</t>
-  </si>
-  <si>
-    <t>whole frog flash frozen (minced first)</t>
-  </si>
-  <si>
-    <t>Primary Forest, G, 1.5m up, -, twig</t>
-  </si>
-  <si>
-    <t>13 tubes (transcriptome sampling animal)</t>
-  </si>
-  <si>
-    <t>transcriptome</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>laid eggs in bag 5mm diameter clear jelly mostly white nucleus</t>
-  </si>
-  <si>
-    <t>2 tubes</t>
-  </si>
-  <si>
-    <t>26 eggs in clutch from JAM 16405</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun,bank of stream,on ground,3m wide mod flow gravel bottom, bank mud</t>
-  </si>
-  <si>
-    <t>Desa Kinapasan, Kecamatan Basidondo, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
-  </si>
-  <si>
-    <t>Desa Kinapasan</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, bank of stream, on 1ft diam rock, 3m stream, rock</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 6m up bank of stream, on ground, 3m rocky stream, leaf litter</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 1.5 m from stream, on rock, 3m rocky stream, on rock</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 1m from stream, on 1m rock, 4m rocky stream, rock</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, in stream, on 1m rock @ water level, 4m rocky stream, rock</t>
-  </si>
-  <si>
-    <t>Secondary Forest/kebun, mid-stream, on 10cm rock, 4m rocky stream, rock</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, stream margin, on 1m rock, 4m rocky stream, wet leaves on rock</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, water's edge, ground, 4m stream, on bank pebbles</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 0.5m from stream edge, ground, 4m stream, bank sand</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 5m from stream, in puddle on boulder, 3m rocky stream, puddle</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 10cm from stream, on ground, 3m rocky stream, leaf litter</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, margin of 3m stream, 1.5m boulder, 3m stream, boulder</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, rock shore of stream, on ground, 3m wide rocky stream, stone substrate</t>
-  </si>
-  <si>
-    <t>recorded 1111.mp3 - 1116.mp3 (later calls/recordings are better quality)</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 3m from stream, 1m up, 3m wide rocky stream, leaf</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, next to waterfall, 10 cm up, 3m rocky stream, on stick</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 20m from stream, on ground, 3m rocky stream, on dead leaf</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, above stream, 1m up, 3m stream, vertical face of 2m boulder,</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, 2m up bank from stream, 0.5m up on rock, 0.5m rock 3m stream, rock</t>
-  </si>
-  <si>
-    <t>Cacao, G, 0.5m up, -, on boulder</t>
-  </si>
-  <si>
-    <t>Cacao, 2.5m from stream, ground, -, branch of fallen tree</t>
-  </si>
-  <si>
-    <t>reddish (deep) flanks</t>
-  </si>
-  <si>
-    <t>Cacao, over stream, 1m up, 3m wide stream, large leaf</t>
-  </si>
-  <si>
-    <t>dull orange/tan dorsal stripe</t>
-  </si>
-  <si>
-    <t>Hemidactylus frenatus</t>
-  </si>
-  <si>
-    <t>Cacao, G, ground, -, in rock pile</t>
-  </si>
-  <si>
-    <t>Secondary forest/kebun, G, on ground, -, leaf litter</t>
-  </si>
-  <si>
-    <t>Cacao, G, on ground, -, leaf litter</t>
-  </si>
-  <si>
-    <t>flash frozen</t>
-  </si>
-  <si>
-    <t>Secondary forest, "near stream", on ground, -, -</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 4m, 12" coco 12" bh shade</t>
-  </si>
-  <si>
-    <t>dorange dorsal &amp; ventral patagium yellow dewlap green head</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 2.5m, 12" coco 15" bh shade</t>
-  </si>
-  <si>
-    <t>yellow wash on ventral patagium dorsal patagium yellow orange blotches on back head with only slightest hint of green on snout</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 6m, 12" coco 14" bh shade</t>
-  </si>
-  <si>
-    <t>yellow patagium (dorsal &amp; ventral) yellow dewlap green head</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 6m, 12" coco 12" bh shade</t>
-  </si>
-  <si>
-    <t>same as 16461</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 5m, 12" coco 12" bh shade</t>
-  </si>
-  <si>
-    <t>orange dorsal &amp; ventral patagium yellow dewlap green head</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 3m, 15" coco 17" bh shade</t>
-  </si>
-  <si>
-    <t>orange dorsal &amp; ventral patagium yellow dewlap green head hemipenes unpigmented</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 7m, 10" coco 12" bh shade</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 5m, 12" coco 17" bh shade</t>
-  </si>
-  <si>
-    <t>liver heart lungs muscle spleen* kidney* stomach intestines tongue gut brain testes dewlap skin patagial skin and both eyes</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 6m, 12" coco 15" bh shade</t>
-  </si>
-  <si>
-    <t>orange dorsal &amp; ventral patagium yellow dewlap green head. spleen &amp; kidney might not be the right tissues</t>
-  </si>
-  <si>
-    <t>Coconut palms, G, m 2.5m, 16" coco 16" bh shade</t>
-  </si>
-  <si>
-    <t>mixed coconut + cacao, G, on ground, -, leaf litter</t>
-  </si>
-  <si>
-    <t>gut cont</t>
-  </si>
-  <si>
-    <t>Kebun, near river, on ground, -, in pitfall</t>
-  </si>
-  <si>
-    <t>tissued for transcriptomics/genomics</t>
-  </si>
-  <si>
-    <t>tissue for transcriptomes/genomics</t>
-  </si>
-  <si>
-    <t>Cacao, G, - ,-, on rock</t>
-  </si>
-  <si>
-    <t>yellow ventrally except white throat</t>
-  </si>
-  <si>
-    <t>blood testes 2 liver samples</t>
-  </si>
-  <si>
-    <t>Kebun, G, on ground, -, leaf litter</t>
-  </si>
-  <si>
-    <t>Kebun, G, on ground on slope, -, leaf litter</t>
-  </si>
-  <si>
-    <t>Cacao kebun, G ,1 ft up on log, -, on log in dry stream channel</t>
-  </si>
-  <si>
-    <t>14 inc</t>
-  </si>
-  <si>
-    <t>Secondary forest, 6m from side stream, 1.5m up on root buttress, 3m stream, root buttress sticky 300-7</t>
-  </si>
-  <si>
-    <t>Secondary forest, G, on 15cm fallen log, -, on log sticky 300-13</t>
-  </si>
-  <si>
-    <t>Secondary forest, 3m from stream above seep, 1 ft up on root buttress, 3m stream, root buttress sticky 300-7</t>
-  </si>
-  <si>
-    <t>Secondary forest,above rocky stream,1m up on root on boulder,2.5m wide rocky stream,root</t>
-  </si>
-  <si>
-    <t>Tissued for transcriptomics/genomics</t>
-  </si>
-  <si>
-    <t>liver heart lung spleen kidney testes blood eyes tongue brain muscles back skin gut gut contents</t>
-  </si>
-  <si>
-    <t>33 reg</t>
-  </si>
-  <si>
-    <t>Kebun,G,on flat ground level boulder,-,rock</t>
-  </si>
-  <si>
-    <t>Kebun,river bank 1m from pool,ground,2m wide rocky/sandy stream,bank sand</t>
-  </si>
-  <si>
-    <t>Secondary forest,1m from 1*3m side pool,im up,1*3m side pool,palm frond</t>
-  </si>
-  <si>
-    <t>Secondary forest,3m from stream,2.5m up, 3"branch 3m stream,branch</t>
-  </si>
-  <si>
-    <t>Kebun, 1ft from stream,on ground,1m side stream,bank gravel</t>
-  </si>
-  <si>
-    <t>Secondary forest,in 1" deep puddle,2m from 3m stream,3m stream,-</t>
-  </si>
-  <si>
-    <t>Kebun,1ft from stream,-,4m wide fast,rocky stream,on rock</t>
-  </si>
-  <si>
-    <t>Secondary forest,1ft up,3m stream,on rock</t>
-  </si>
-  <si>
-    <t>Tissued for transcriptomics/genomics: 2 tubes recorded 1120-21.mp3 1125.mp3</t>
-  </si>
-  <si>
-    <t>Secondary forest,6" from stream,on small rock,3m,rock</t>
-  </si>
-  <si>
-    <t>Gekko smithii</t>
-  </si>
-  <si>
-    <t>Secondary forest,over 2.5m stream,4m up M,50"dbh,D</t>
-  </si>
-  <si>
-    <t>136 inc</t>
-  </si>
-  <si>
-    <t>Secondary forest,2m from 3m stream, M1.5m up,30"trunk,D</t>
-  </si>
-  <si>
-    <t>blood + testes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84 inc </t>
-  </si>
-  <si>
-    <t>68 inc</t>
-  </si>
-  <si>
-    <t>deep orange ventrally except gray throat</t>
-  </si>
-  <si>
-    <t>yellow dorsal and ventral patagium green head yellow dewlap tissued for genomics/transcriptomics. not much blood for this one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart liver lungs possible kidney testes muscle gut brain eyes tongue dewlap skin patagial skin blood black skin gut contents </t>
-  </si>
-  <si>
-    <t>orange dorsal and ventral patagium yellow dewlap green head</t>
-  </si>
-  <si>
-    <t>ventral patagium yellow. Tissued for genomics/transcriptomics</t>
-  </si>
-  <si>
-    <t>heart liver lungs butative kidney putative spleen ovaries muscle eyes brain throat skin patagial skin back skin blood (a lot) tongue gut gut contents</t>
-  </si>
-  <si>
-    <t>Lamprolepis smaragdina "brown"</t>
-  </si>
-  <si>
-    <t>Limnonectes modestus</t>
-  </si>
-  <si>
-    <t>1000m camp Gunung Dako, Kecamatan Galang, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
-  </si>
-  <si>
-    <t>Secondary forest,G,on ground,-,-</t>
-  </si>
-  <si>
-    <t>limnonectes larvaepartus</t>
-  </si>
-  <si>
-    <t>tissued for genomics/transcriptomics gut contents in separate EtOH tube additinal tail tissue in separate tube</t>
-  </si>
-  <si>
-    <t>liver heart lung testes kidney+ spleen (combined) blood eyes brain tongue muscle sking gut gut contents tail</t>
-  </si>
-  <si>
-    <t>recorded 1149.mp3</t>
-  </si>
-  <si>
-    <t>recorded 1132.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recorded 1140.mp3 1142.mp3 1145.mp3 1145.mp3 is best </t>
-  </si>
-  <si>
-    <t>bloos</t>
-  </si>
-  <si>
-    <t>Leucocephalon yuwonoi</t>
-  </si>
-  <si>
-    <t>Dusun Bolouto, Desa Salumbia, Kecamatan Dondo, Kabupaten Tolitoli, Provinsi Sulawesi Tengah</t>
-  </si>
-  <si>
-    <t>Dusun Bolouto</t>
-  </si>
-  <si>
-    <t>Sopian</t>
-  </si>
-  <si>
-    <t>Blood sample taken</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>Ahaetulla prasina</t>
-  </si>
-  <si>
-    <t>Kebun cloves/banana,G,on ground,-,grass</t>
-  </si>
-  <si>
-    <t>TA70</t>
-  </si>
-  <si>
-    <t>ground, leaf litter</t>
-  </si>
-  <si>
-    <t>1000m camp, Gunung Dako</t>
-  </si>
-  <si>
-    <t>Awal Riyanto and Tri Wahya Laksono</t>
-  </si>
-  <si>
-    <t>90 reg</t>
-  </si>
-  <si>
-    <t>0.5m</t>
-  </si>
-  <si>
-    <t>45 reg</t>
-  </si>
-  <si>
-    <t>cacao</t>
-  </si>
-  <si>
-    <t>waterfall, sitting on the rock</t>
-  </si>
-  <si>
-    <t>waterfall, sitting in the water</t>
-  </si>
-  <si>
-    <t>Pasar, traditional market. "Sutu Berido" Market in Toli Toli</t>
-  </si>
-  <si>
-    <t>Tolitoli</t>
-  </si>
-  <si>
-    <t>Cylindrophis melanotus</t>
-  </si>
-  <si>
-    <t>Good For RNA</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Sphenomorphus nigrilabris</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>dako 1</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>ilomata1</t>
-  </si>
-  <si>
-    <t>SEE PAPER NOTES</t>
-  </si>
-  <si>
-    <t>ilomata 2</t>
-  </si>
-  <si>
-    <t>dako 2</t>
   </si>
   <si>
     <t>Blood and Testes</t>
@@ -3719,23 +3722,23 @@
         <s v="Ingerophrynus celebensis"/>
         <s v="Cyrtodactylus fumosus"/>
         <s v="Psammodynastes pulverulentus"/>
-        <s v="Oreophryne sp. &quot;mid&quot;"/>
+        <s v="Oreophryne &quot;middle elevation&quot;"/>
         <s v="Sphenomorphus &quot;nigrilabris&quot; indet."/>
-        <s v="Sphenomorphus nigrilabris &quot;high&quot;"/>
-        <s v="Tytthoscincus &quot;mid&quot;"/>
-        <s v="Occidozyga semipalmata &quot;low&quot;"/>
-        <s v="Oreophryne sp. &quot;low 1&quot;"/>
+        <s v="Sphenomorphus nigrilabris &quot;high elevation&quot;"/>
+        <s v="Tytthoscincus &quot;middle elevation&quot;"/>
+        <s v="Occidozyga semipalmata &quot;low elevation&quot;"/>
+        <s v="Oreophryne &quot;low elevation sp. 1&quot;"/>
         <s v="Chalcorana macrops"/>
-        <s v="Oreophryne sp. &quot;low 2&quot;"/>
+        <s v="Oreophryne &quot;low elevation sp. 2&quot;"/>
+        <s v="Sphenomorphus nigrilabris &quot;low elevation&quot;"/>
         <s v="Cyrtodactylus sp. &quot;pit&quot;"/>
         <s v="Gekko monarchus"/>
         <s v="Boiga irregularis"/>
-        <s v="Tytthoscincus &quot;mid orange eye&quot;"/>
+        <s v="Tytthoscincus &quot;middle orange eye&quot;"/>
         <s v="Calamaria muelleri"/>
         <s v="Papurana celebensis"/>
         <s v="Calamorhabdium acuticeps"/>
         <s v="Eutropis macrophthalma"/>
-        <s v="Sphenomorphus nigrilabris &quot;low&quot;"/>
         <s v="Rhacophorus edentulus"/>
         <s v="Occidozyga semipalmata"/>
         <s v="Ophiophagus hannah"/>
@@ -3746,7 +3749,7 @@
         <s v="Draco spilonotus SNP"/>
         <s v="Limnonectes heinrichi"/>
         <s v="Eutropis rudis"/>
-        <s v="Tytthoscincus &quot;low&quot;"/>
+        <s v="Tytthoscincus &quot;low elevation&quot;"/>
         <s v="Emoia caeruleocauda"/>
         <s v="Eutropis multifasciata"/>
         <s v="Coelognathus erythrurus"/>
@@ -3754,13 +3757,13 @@
         <s v="Polypedates iskandari"/>
         <s v="Rhabdophis chrysargoides"/>
         <s v="Oreophryne &quot;puncak&quot;"/>
-        <s v="Sphenomorphus sp. green"/>
+        <s v="Sphenomorphus sp. &quot;green&quot;"/>
         <s v="Rhacophorus sp. &quot;Big Brown&quot;"/>
-        <s v="Tytthoscincus &quot;high&quot;"/>
+        <s v="Tytthoscincus &quot;high elevation&quot;"/>
         <s v="Occidozyga semipalmata indet."/>
         <s v="Sphenomorphus celebensis &quot;highest&quot;"/>
         <s v="Rabdion forsteni"/>
-        <s v="Occidozyga semipalmata &quot;high&quot;"/>
+        <s v="Occidozyga semipalmata &quot;high elevation&quot;"/>
         <s v="Hemidactylus frenatus"/>
         <s v="Gekko smithii"/>
         <s v="Lamprolepis smaragdina &quot;brown&quot;"/>
@@ -6384,7 +6387,7 @@
         <s v="Eggs guarded by 15939"/>
         <s v="white throat, pale yellow lip stripe"/>
         <s v="Yellow lip stripe, yellow posteroventral"/>
-        <s v="blue throat, no obvious lip stripe, reddish where stripe would be. testes and blood samples taken."/>
+        <s v="blue throat, no obvious lip stripe, reddish where stripe would be. testes and blood samples taken. Genome sequenced for Ben's Probeset"/>
         <s v="pale yellow posteroventrally, barely any lip stripe"/>
         <s v="blue throat, white lip stripe, yellow posteroventral"/>
         <s v="orange brown ventrally"/>
@@ -6440,7 +6443,7 @@
         <s v="throat pale orange, lip stripe yellow"/>
         <s v="orange throat and lip stripe"/>
         <s v="yellow throat, diffuse lip stripe"/>
-        <s v="head gray, body deep orange grading to yellow midventrally; base of tail orange with dramatic trnasition to gray"/>
+        <s v="head gray, body deep orange grading to yellow midventrally; base of tail orange with dramatic transition to gray"/>
         <s v="pale yellow lip stripe, white throat"/>
         <s v="pulled from stomach of Psammodynastes pulverulentus (JAM 16062)"/>
         <s v="bright white ventrally"/>
@@ -7240,20 +7243,20 @@
     <pivotField name="Genus species" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
         <item x="52"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="19"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="20"/>
         <item x="11"/>
         <item x="26"/>
         <item x="35"/>
         <item x="3"/>
-        <item x="13"/>
+        <item x="14"/>
         <item x="29"/>
         <item x="33"/>
-        <item x="20"/>
+        <item x="21"/>
         <item x="34"/>
         <item x="31"/>
-        <item x="14"/>
+        <item x="15"/>
         <item x="48"/>
         <item x="36"/>
         <item x="47"/>
@@ -7271,11 +7274,11 @@
         <item x="9"/>
         <item x="43"/>
         <item x="24"/>
-        <item x="39"/>
         <item x="10"/>
         <item x="12"/>
         <item x="5"/>
-        <item x="18"/>
+        <item x="39"/>
+        <item x="19"/>
         <item x="37"/>
         <item x="4"/>
         <item x="45"/>
@@ -7286,12 +7289,12 @@
         <item x="27"/>
         <item x="44"/>
         <item x="7"/>
-        <item x="21"/>
+        <item x="13"/>
         <item x="40"/>
         <item x="42"/>
         <item x="32"/>
-        <item x="16"/>
         <item x="8"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13243,7 +13246,7 @@
         <v>35</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D56" s="5"/>
       <c r="H56" s="4">
@@ -13274,7 +13277,7 @@
         <v>1054.0</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>27</v>
@@ -13287,7 +13290,7 @@
         <v>30</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -13298,7 +13301,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
@@ -13329,19 +13332,19 @@
         <v>357.0</v>
       </c>
       <c r="R57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>40</v>
@@ -13355,7 +13358,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
@@ -13371,7 +13374,7 @@
         <v>52.0</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M58" s="1">
         <v>2.18</v>
@@ -13386,19 +13389,19 @@
         <v>357.0</v>
       </c>
       <c r="R58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -13409,7 +13412,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
@@ -13425,7 +13428,7 @@
         <v>58.0</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M59" s="1">
         <v>3.08</v>
@@ -13440,19 +13443,19 @@
         <v>357.0</v>
       </c>
       <c r="R59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -13463,7 +13466,7 @@
         <v>35</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
@@ -13479,7 +13482,7 @@
         <v>63.0</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M60" s="1">
         <v>3.08</v>
@@ -13494,19 +13497,19 @@
         <v>357.0</v>
       </c>
       <c r="R60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -13517,7 +13520,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
@@ -13536,7 +13539,7 @@
         <v>84.0</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M61" s="1">
         <v>10.47</v>
@@ -13551,19 +13554,19 @@
         <v>369.0</v>
       </c>
       <c r="R61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>41</v>
@@ -13577,7 +13580,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62" s="1"/>
       <c r="H62" s="4">
@@ -13608,19 +13611,19 @@
         <v>371.0</v>
       </c>
       <c r="R62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T62" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>41</v>
@@ -13668,7 +13671,7 @@
         <v>1018.0</v>
       </c>
       <c r="R63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>27</v>
@@ -13683,7 +13686,7 @@
         <v>30</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>41</v>
@@ -13731,7 +13734,7 @@
         <v>1044.0</v>
       </c>
       <c r="R64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>27</v>
@@ -13746,7 +13749,7 @@
         <v>30</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -13794,7 +13797,7 @@
         <v>977.0</v>
       </c>
       <c r="R65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>27</v>
@@ -13809,7 +13812,7 @@
         <v>30</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -13851,7 +13854,7 @@
         <v>1023.0</v>
       </c>
       <c r="R66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>27</v>
@@ -13866,7 +13869,7 @@
         <v>30</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -13877,7 +13880,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
@@ -13911,7 +13914,7 @@
         <v>1067.0</v>
       </c>
       <c r="R67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>27</v>
@@ -13926,7 +13929,7 @@
         <v>30</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>41</v>
@@ -13962,7 +13965,7 @@
         <v>1067.0</v>
       </c>
       <c r="R68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>27</v>
@@ -14016,7 +14019,7 @@
         <v>1067.0</v>
       </c>
       <c r="R69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>27</v>
@@ -14073,7 +14076,7 @@
         <v>1023.0</v>
       </c>
       <c r="R70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>27</v>
@@ -14133,7 +14136,7 @@
         <v>1046.0</v>
       </c>
       <c r="R71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>27</v>
@@ -14148,7 +14151,7 @@
         <v>30</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -14193,7 +14196,7 @@
         <v>1127.0</v>
       </c>
       <c r="R72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>27</v>
@@ -14208,7 +14211,7 @@
         <v>30</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -14241,7 +14244,7 @@
         <v>1127.0</v>
       </c>
       <c r="R73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>27</v>
@@ -14277,7 +14280,7 @@
         <v>43.0</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M74" s="1">
         <v>1.56</v>
@@ -14295,7 +14298,7 @@
         <v>1155.0</v>
       </c>
       <c r="R74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>27</v>
@@ -14349,7 +14352,7 @@
         <v>1203.0</v>
       </c>
       <c r="R75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>27</v>
@@ -14409,7 +14412,7 @@
         <v>1227.0</v>
       </c>
       <c r="R76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>27</v>
@@ -14448,7 +14451,7 @@
         <v>77.0</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M77" s="1">
         <v>10.04</v>
@@ -14466,7 +14469,7 @@
         <v>1075.0</v>
       </c>
       <c r="R77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>27</v>
@@ -14492,7 +14495,7 @@
         <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
@@ -14526,7 +14529,7 @@
         <v>1038.0</v>
       </c>
       <c r="R78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>27</v>
@@ -14580,7 +14583,7 @@
         <v>1211.0</v>
       </c>
       <c r="R79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>27</v>
@@ -14619,7 +14622,7 @@
         <v>51.0</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M80" s="1">
         <v>2.05</v>
@@ -14637,7 +14640,7 @@
         <v>1213.0</v>
       </c>
       <c r="R80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>27</v>
@@ -14660,7 +14663,7 @@
         <v>24</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D81" s="1"/>
       <c r="H81" s="4">
@@ -14688,7 +14691,7 @@
         <v>1029.0</v>
       </c>
       <c r="R81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>27</v>
@@ -14748,7 +14751,7 @@
         <v>981.0</v>
       </c>
       <c r="R82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>27</v>
@@ -14763,7 +14766,7 @@
         <v>30</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -14808,7 +14811,7 @@
         <v>960.0</v>
       </c>
       <c r="R83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>27</v>
@@ -14823,7 +14826,7 @@
         <v>30</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -14834,7 +14837,7 @@
         <v>24</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" s="1"/>
       <c r="H84" s="4">
@@ -14865,7 +14868,7 @@
         <v>1015.0</v>
       </c>
       <c r="R84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>27</v>
@@ -14922,7 +14925,7 @@
         <v>1232.0</v>
       </c>
       <c r="R85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>27</v>
@@ -14937,7 +14940,7 @@
         <v>30</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -14979,7 +14982,7 @@
         <v>1012.0</v>
       </c>
       <c r="R86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>27</v>
@@ -15027,7 +15030,7 @@
         <v>30</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>41</v>
@@ -15072,7 +15075,7 @@
         <v>1101.0</v>
       </c>
       <c r="R88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>27</v>
@@ -15129,7 +15132,7 @@
         <v>1030.0</v>
       </c>
       <c r="R89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>27</v>
@@ -15144,7 +15147,7 @@
         <v>30</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -15186,7 +15189,7 @@
         <v>1169.0</v>
       </c>
       <c r="R90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>27</v>
@@ -15201,7 +15204,7 @@
         <v>30</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -15237,7 +15240,7 @@
         <v>1083.0</v>
       </c>
       <c r="R91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>27</v>
@@ -15263,7 +15266,7 @@
         <v>35</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D92" s="1"/>
       <c r="H92" s="4">
@@ -15273,7 +15276,7 @@
         <v>94.0</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M92" s="1">
         <v>21.02</v>
@@ -15291,7 +15294,7 @@
         <v>1245.0</v>
       </c>
       <c r="R92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>27</v>
@@ -15317,7 +15320,7 @@
         <v>24</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
@@ -15348,7 +15351,7 @@
         <v>1112.0</v>
       </c>
       <c r="R93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>27</v>
@@ -15363,7 +15366,7 @@
         <v>30</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -15374,7 +15377,7 @@
         <v>24</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
@@ -15405,7 +15408,7 @@
         <v>1233.0</v>
       </c>
       <c r="R94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S94" s="1" t="s">
         <v>27</v>
@@ -15465,7 +15468,7 @@
         <v>1049.0</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>27</v>
@@ -15498,7 +15501,7 @@
         <v>32.0</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M96" s="1">
         <v>0.74</v>
@@ -15516,7 +15519,7 @@
         <v>1087.0</v>
       </c>
       <c r="R96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>27</v>
@@ -15570,7 +15573,7 @@
         <v>1126.0</v>
       </c>
       <c r="R97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>27</v>
@@ -15585,7 +15588,7 @@
         <v>30</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -15624,7 +15627,7 @@
         <v>1130.0</v>
       </c>
       <c r="R98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>27</v>
@@ -15639,7 +15642,7 @@
         <v>30</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -15654,7 +15657,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H99" s="4">
         <v>43288.0</v>
@@ -15663,7 +15666,7 @@
         <v>32.0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M99" s="1">
         <v>0.7</v>
@@ -15693,10 +15696,10 @@
         <v>29</v>
       </c>
       <c r="V99" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -15738,7 +15741,7 @@
         <v>1203.0</v>
       </c>
       <c r="R100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>27</v>
@@ -15750,10 +15753,10 @@
         <v>29</v>
       </c>
       <c r="V100" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -15774,7 +15777,7 @@
         <v>32.0</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M101" s="1">
         <v>0.78</v>
@@ -15792,7 +15795,7 @@
         <v>1203.0</v>
       </c>
       <c r="R101" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>27</v>
@@ -15804,7 +15807,7 @@
         <v>29</v>
       </c>
       <c r="V101" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -15846,7 +15849,7 @@
         <v>1164.0</v>
       </c>
       <c r="R102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>27</v>
@@ -15858,7 +15861,7 @@
         <v>29</v>
       </c>
       <c r="V102" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
@@ -15900,7 +15903,7 @@
         <v>1092.0</v>
       </c>
       <c r="R103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>27</v>
@@ -15923,7 +15926,7 @@
         <v>35</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
@@ -15969,7 +15972,7 @@
         <v>29</v>
       </c>
       <c r="V104" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W104" s="1" t="s">
         <v>191</v>
@@ -16017,7 +16020,7 @@
         <v>1059.0</v>
       </c>
       <c r="R105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S105" s="1" t="s">
         <v>27</v>
@@ -16029,7 +16032,7 @@
         <v>29</v>
       </c>
       <c r="V105" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -16080,7 +16083,7 @@
         <v>29</v>
       </c>
       <c r="V106" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W106" s="1" t="s">
         <v>193</v>
@@ -16143,7 +16146,7 @@
         <v>29</v>
       </c>
       <c r="V107" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W107" s="1" t="s">
         <v>196</v>
@@ -16197,7 +16200,7 @@
         <v>29</v>
       </c>
       <c r="V108" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W108" s="1" t="s">
         <v>40</v>
@@ -16251,7 +16254,7 @@
         <v>29</v>
       </c>
       <c r="V109" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -16302,7 +16305,7 @@
         <v>29</v>
       </c>
       <c r="V110" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -16353,7 +16356,7 @@
         <v>29</v>
       </c>
       <c r="V111" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -16407,7 +16410,7 @@
         <v>29</v>
       </c>
       <c r="V112" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W112" s="1" t="s">
         <v>203</v>
@@ -16464,7 +16467,7 @@
         <v>29</v>
       </c>
       <c r="V113" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -16515,7 +16518,7 @@
         <v>29</v>
       </c>
       <c r="V114" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -16563,7 +16566,7 @@
         <v>29</v>
       </c>
       <c r="V115" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -16611,7 +16614,7 @@
         <v>29</v>
       </c>
       <c r="V116" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -16659,7 +16662,7 @@
         <v>29</v>
       </c>
       <c r="V117" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -16670,7 +16673,7 @@
         <v>24</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D118" s="1"/>
       <c r="H118" s="4">
@@ -16707,7 +16710,7 @@
         <v>29</v>
       </c>
       <c r="V118" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -16749,7 +16752,7 @@
         <v>29</v>
       </c>
       <c r="V119" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X119" s="1" t="s">
         <v>211</v>
@@ -16806,7 +16809,7 @@
         <v>29</v>
       </c>
       <c r="V120" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X120" s="1" t="s">
         <v>213</v>
@@ -16866,7 +16869,7 @@
         <v>29</v>
       </c>
       <c r="V121" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -16920,7 +16923,7 @@
         <v>29</v>
       </c>
       <c r="V122" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W122" s="1" t="s">
         <v>216</v>
@@ -16968,7 +16971,7 @@
         <v>1032.0</v>
       </c>
       <c r="R123" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>27</v>
@@ -17145,7 +17148,7 @@
         <v>1075.0</v>
       </c>
       <c r="R126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>27</v>
@@ -17465,7 +17468,7 @@
         <v>35</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
@@ -17772,7 +17775,7 @@
         <v>35</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -18285,7 +18288,7 @@
         <v>24</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
@@ -18345,7 +18348,7 @@
         <v>35</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
@@ -18405,7 +18408,7 @@
         <v>35</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
@@ -19813,7 +19816,7 @@
         <v>30</v>
       </c>
       <c r="W174" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
@@ -20343,7 +20346,7 @@
         <v>35</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D185" s="1"/>
       <c r="H185" s="4">
@@ -20397,7 +20400,7 @@
         <v>24</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D186" s="1"/>
       <c r="H186" s="4">
@@ -20451,7 +20454,7 @@
         <v>35</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
@@ -20511,7 +20514,7 @@
         <v>35</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
@@ -20571,7 +20574,7 @@
         <v>24</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
@@ -20628,7 +20631,7 @@
         <v>35</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D190" s="1"/>
       <c r="H190" s="4">
@@ -20682,7 +20685,7 @@
         <v>24</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
@@ -21614,7 +21617,7 @@
         <v>45.0</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M207" s="1">
         <v>1.89</v>
@@ -21893,7 +21896,7 @@
         <v>32.0</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M212" s="1">
         <v>0.89</v>
@@ -22432,7 +22435,7 @@
         <v>35</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D222" s="1"/>
       <c r="H222" s="4">
@@ -22521,7 +22524,7 @@
         <v>365</v>
       </c>
       <c r="V223" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
@@ -22532,7 +22535,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
@@ -22573,7 +22576,7 @@
         <v>365</v>
       </c>
       <c r="V224" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X224" s="1" t="s">
         <v>367</v>
@@ -22587,7 +22590,7 @@
         <v>24</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1" t="s">
@@ -22628,7 +22631,7 @@
         <v>365</v>
       </c>
       <c r="V225" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
@@ -22639,7 +22642,7 @@
         <v>35</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1" t="s">
@@ -22680,7 +22683,7 @@
         <v>365</v>
       </c>
       <c r="V226" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
@@ -22732,7 +22735,7 @@
         <v>365</v>
       </c>
       <c r="V227" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X227" s="1" t="s">
         <v>367</v>
@@ -22781,7 +22784,7 @@
         <v>365</v>
       </c>
       <c r="V228" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W228" s="1" t="s">
         <v>373</v>
@@ -22830,7 +22833,7 @@
         <v>365</v>
       </c>
       <c r="V229" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W229" s="1" t="s">
         <v>373</v>
@@ -22879,7 +22882,7 @@
         <v>365</v>
       </c>
       <c r="V230" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
@@ -22925,7 +22928,7 @@
         <v>365</v>
       </c>
       <c r="V231" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W231" s="1" t="s">
         <v>374</v>
@@ -22974,7 +22977,7 @@
         <v>365</v>
       </c>
       <c r="V232" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W232" s="1" t="s">
         <v>373</v>
@@ -23023,7 +23026,7 @@
         <v>365</v>
       </c>
       <c r="V233" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
@@ -23072,7 +23075,7 @@
         <v>365</v>
       </c>
       <c r="V234" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
@@ -23118,7 +23121,7 @@
         <v>365</v>
       </c>
       <c r="V235" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
@@ -23167,7 +23170,7 @@
         <v>365</v>
       </c>
       <c r="V236" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
@@ -23213,7 +23216,7 @@
         <v>365</v>
       </c>
       <c r="V237" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X237" s="1" t="s">
         <v>367</v>
@@ -23265,7 +23268,7 @@
         <v>365</v>
       </c>
       <c r="V238" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
@@ -23314,7 +23317,7 @@
         <v>365</v>
       </c>
       <c r="V239" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W239" s="1" t="s">
         <v>378</v>
@@ -23363,7 +23366,7 @@
         <v>365</v>
       </c>
       <c r="V240" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
@@ -23409,7 +23412,7 @@
         <v>365</v>
       </c>
       <c r="V241" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
@@ -23458,7 +23461,7 @@
         <v>365</v>
       </c>
       <c r="V242" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W242" s="1" t="s">
         <v>380</v>
@@ -23472,7 +23475,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1" t="s">
@@ -23513,7 +23516,7 @@
         <v>365</v>
       </c>
       <c r="V243" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
@@ -23524,7 +23527,7 @@
         <v>24</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1" t="s">
@@ -23565,7 +23568,7 @@
         <v>365</v>
       </c>
       <c r="V244" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
@@ -23576,7 +23579,7 @@
         <v>35</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1" t="s">
@@ -23617,7 +23620,7 @@
         <v>365</v>
       </c>
       <c r="V245" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
@@ -23628,7 +23631,7 @@
         <v>35</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D246" s="1"/>
       <c r="H246" s="4">
@@ -23641,7 +23644,7 @@
         <v>32.0</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M246" s="1">
         <v>0.56</v>
@@ -23666,7 +23669,7 @@
         <v>365</v>
       </c>
       <c r="V246" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
@@ -23712,7 +23715,7 @@
         <v>365</v>
       </c>
       <c r="V247" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W247" s="1" t="s">
         <v>388</v>
@@ -23761,7 +23764,7 @@
         <v>365</v>
       </c>
       <c r="V248" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
@@ -23807,7 +23810,7 @@
         <v>365</v>
       </c>
       <c r="V249" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W249" s="1" t="s">
         <v>388</v>
@@ -23821,7 +23824,7 @@
         <v>24</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1" t="s">
@@ -23862,7 +23865,7 @@
         <v>365</v>
       </c>
       <c r="V250" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
@@ -23873,7 +23876,7 @@
         <v>24</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1" t="s">
@@ -23914,7 +23917,7 @@
         <v>365</v>
       </c>
       <c r="V251" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
@@ -23960,7 +23963,7 @@
         <v>365</v>
       </c>
       <c r="V252" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
@@ -23997,7 +24000,7 @@
         <v>365</v>
       </c>
       <c r="V253" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W253" s="1" t="s">
         <v>388</v>
@@ -24046,7 +24049,7 @@
         <v>365</v>
       </c>
       <c r="V254" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
@@ -24095,7 +24098,7 @@
         <v>365</v>
       </c>
       <c r="V255" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W255" s="1" t="s">
         <v>388</v>
@@ -24150,7 +24153,7 @@
         <v>365</v>
       </c>
       <c r="V256" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W256" s="1" t="s">
         <v>397</v>
@@ -24208,7 +24211,7 @@
         <v>365</v>
       </c>
       <c r="V257" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W257" s="1" t="s">
         <v>400</v>
@@ -24263,7 +24266,7 @@
         <v>365</v>
       </c>
       <c r="V258" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W258" s="1" t="s">
         <v>403</v>
@@ -24315,7 +24318,7 @@
         <v>365</v>
       </c>
       <c r="V259" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W259" s="1" t="s">
         <v>403</v>
@@ -24364,7 +24367,7 @@
         <v>365</v>
       </c>
       <c r="V260" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
@@ -24413,7 +24416,7 @@
         <v>365</v>
       </c>
       <c r="V261" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X261" s="1" t="s">
         <v>367</v>
@@ -24465,7 +24468,7 @@
         <v>365</v>
       </c>
       <c r="V262" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W262" s="1" t="s">
         <v>405</v>
@@ -24520,7 +24523,7 @@
         <v>365</v>
       </c>
       <c r="V263" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W263" s="1" t="s">
         <v>405</v>
@@ -24575,7 +24578,7 @@
         <v>365</v>
       </c>
       <c r="V264" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W264" s="1" t="s">
         <v>407</v>
@@ -24624,7 +24627,7 @@
         <v>365</v>
       </c>
       <c r="V265" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W265" s="1" t="s">
         <v>407</v>
@@ -24679,7 +24682,7 @@
         <v>365</v>
       </c>
       <c r="V266" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
@@ -24731,7 +24734,7 @@
         <v>365</v>
       </c>
       <c r="V267" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W267" s="1" t="s">
         <v>408</v>
@@ -24780,7 +24783,7 @@
         <v>365</v>
       </c>
       <c r="V268" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
@@ -24820,7 +24823,7 @@
         <v>365</v>
       </c>
       <c r="V269" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
@@ -24831,7 +24834,7 @@
         <v>24</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1" t="s">
@@ -24875,7 +24878,7 @@
         <v>365</v>
       </c>
       <c r="V270" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W270" s="1" t="s">
         <v>411</v>
@@ -24930,7 +24933,7 @@
         <v>365</v>
       </c>
       <c r="V271" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X271" s="1" t="s">
         <v>414</v>
@@ -24985,7 +24988,7 @@
         <v>365</v>
       </c>
       <c r="V272" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X272" s="1" t="s">
         <v>367</v>
@@ -24999,7 +25002,7 @@
         <v>35</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1" t="s">
@@ -25040,7 +25043,7 @@
         <v>365</v>
       </c>
       <c r="V273" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
@@ -25051,7 +25054,7 @@
         <v>35</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1" t="s">
@@ -25092,7 +25095,7 @@
         <v>365</v>
       </c>
       <c r="V274" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
@@ -25103,7 +25106,7 @@
         <v>35</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1" t="s">
@@ -25144,7 +25147,7 @@
         <v>365</v>
       </c>
       <c r="V275" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
@@ -25193,7 +25196,7 @@
         <v>365</v>
       </c>
       <c r="V276" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W276" s="1" t="s">
         <v>419</v>
@@ -25248,7 +25251,7 @@
         <v>365</v>
       </c>
       <c r="V277" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
@@ -25259,7 +25262,7 @@
         <v>24</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1" t="s">
@@ -25300,7 +25303,7 @@
         <v>365</v>
       </c>
       <c r="V278" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
@@ -25352,7 +25355,7 @@
         <v>365</v>
       </c>
       <c r="V279" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W279" s="1" t="s">
         <v>420</v>
@@ -25401,7 +25404,7 @@
         <v>365</v>
       </c>
       <c r="V280" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W280" s="1" t="s">
         <v>421</v>
@@ -25450,7 +25453,7 @@
         <v>365</v>
       </c>
       <c r="V281" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
@@ -25496,7 +25499,7 @@
         <v>365</v>
       </c>
       <c r="V282" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
@@ -25542,7 +25545,7 @@
         <v>365</v>
       </c>
       <c r="V283" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W283" s="1" t="s">
         <v>378</v>
@@ -25597,7 +25600,7 @@
         <v>365</v>
       </c>
       <c r="V284" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W284" s="1" t="s">
         <v>422</v>
@@ -25643,7 +25646,7 @@
         <v>365</v>
       </c>
       <c r="V285" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W285" s="1" t="s">
         <v>423</v>
@@ -25692,7 +25695,7 @@
         <v>365</v>
       </c>
       <c r="V286" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
@@ -25738,7 +25741,7 @@
         <v>365</v>
       </c>
       <c r="V287" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W287" s="1" t="s">
         <v>424</v>
@@ -25768,7 +25771,7 @@
         <v>365</v>
       </c>
       <c r="V288" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
@@ -25814,7 +25817,7 @@
         <v>365</v>
       </c>
       <c r="V289" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
@@ -26152,7 +26155,7 @@
         <v>24</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1" t="s">
@@ -26201,7 +26204,7 @@
         <v>35</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1" t="s">
@@ -26253,7 +26256,7 @@
         <v>35</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1" t="s">
@@ -26302,7 +26305,7 @@
         <v>24</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1" t="s">
@@ -26354,7 +26357,7 @@
         <v>24</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D300" s="1"/>
       <c r="H300" s="4">
@@ -26403,7 +26406,7 @@
         <v>35</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D301" s="1"/>
       <c r="H301" s="4">
@@ -26449,7 +26452,7 @@
         <v>35</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D302" s="1"/>
       <c r="H302" s="4">
@@ -26495,7 +26498,7 @@
         <v>35</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D303" s="1"/>
       <c r="H303" s="4">
@@ -26541,7 +26544,7 @@
         <v>35</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D304" s="1"/>
       <c r="H304" s="4">
@@ -26587,7 +26590,7 @@
         <v>24</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1" t="s">
@@ -26636,7 +26639,7 @@
         <v>24</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1" t="s">
@@ -26734,7 +26737,7 @@
         <v>35</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D308" s="1"/>
       <c r="H308" s="4">
@@ -26780,7 +26783,7 @@
         <v>35</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D309" s="1"/>
       <c r="H309" s="4">
@@ -26826,7 +26829,7 @@
         <v>24</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1" t="s">
@@ -26875,7 +26878,7 @@
         <v>24</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1" t="s">
@@ -26924,7 +26927,7 @@
         <v>35</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D312" s="1"/>
       <c r="H312" s="4">
@@ -27358,7 +27361,7 @@
         <v>35</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1" t="s">
@@ -27727,7 +27730,7 @@
         <v>365</v>
       </c>
       <c r="V326" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
@@ -27776,7 +27779,7 @@
         <v>365</v>
       </c>
       <c r="V327" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
@@ -27825,7 +27828,7 @@
         <v>365</v>
       </c>
       <c r="V328" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
@@ -27874,7 +27877,7 @@
         <v>365</v>
       </c>
       <c r="V329" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
@@ -27885,7 +27888,7 @@
         <v>24</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D330" s="1"/>
       <c r="H330" s="4">
@@ -27923,7 +27926,7 @@
         <v>365</v>
       </c>
       <c r="V330" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
@@ -27972,7 +27975,7 @@
         <v>365</v>
       </c>
       <c r="V331" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
@@ -28090,7 +28093,7 @@
         <v>24</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1" t="s">
@@ -28142,7 +28145,7 @@
         <v>24</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1" t="s">
@@ -28194,7 +28197,7 @@
         <v>35</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1" t="s">
@@ -28243,7 +28246,7 @@
         <v>35</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1" t="s">
@@ -28844,7 +28847,7 @@
         <v>35</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1" t="s">
@@ -28896,7 +28899,7 @@
         <v>24</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1" t="s">
@@ -28912,7 +28915,7 @@
         <v>59.0</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M349" s="1">
         <v>4.02</v>
@@ -29068,7 +29071,7 @@
         <v>35</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1" t="s">
@@ -29154,7 +29157,7 @@
         <v>1044.0</v>
       </c>
       <c r="R353" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S353" s="1" t="s">
         <v>27</v>
@@ -29166,7 +29169,7 @@
         <v>29</v>
       </c>
       <c r="V353" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W353" s="1" t="s">
         <v>528</v>
@@ -35709,7 +35712,7 @@
         <v>35</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D483" s="1"/>
       <c r="H483" s="4">
@@ -35757,7 +35760,7 @@
         <v>35</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D484" s="1"/>
       <c r="H484" s="4">
@@ -38337,7 +38340,7 @@
         <v>24</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D535" s="1"/>
       <c r="H535" s="4">
@@ -38388,7 +38391,7 @@
         <v>24</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D536" s="1"/>
       <c r="H536" s="4">
@@ -38442,7 +38445,7 @@
         <v>24</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D537" s="1"/>
       <c r="E537" s="1" t="s">
@@ -38499,7 +38502,7 @@
         <v>24</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D538" s="1"/>
       <c r="E538" s="1" t="s">
@@ -38844,7 +38847,7 @@
         <v>35</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D544" s="1"/>
       <c r="H544" s="4">
@@ -38898,7 +38901,7 @@
         <v>24</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D545" s="1"/>
       <c r="E545" s="1" t="s">
@@ -39798,7 +39801,7 @@
         <v>35</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D560" s="1"/>
       <c r="H560" s="4">
@@ -39903,7 +39906,7 @@
         <v>35</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D562" s="1"/>
       <c r="E562" s="1" t="s">
@@ -39960,7 +39963,7 @@
         <v>35</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D563" s="1"/>
       <c r="H563" s="4">
@@ -40014,7 +40017,7 @@
         <v>35</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D564" s="1"/>
       <c r="H564" s="4">
@@ -40068,7 +40071,7 @@
         <v>35</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D565" s="1"/>
       <c r="H565" s="4">
@@ -40122,7 +40125,7 @@
         <v>35</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D566" s="1"/>
       <c r="E566" s="1" t="s">
@@ -40185,7 +40188,7 @@
         <v>24</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D567" s="1"/>
       <c r="H567" s="4">
@@ -40239,7 +40242,7 @@
         <v>35</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D568" s="1"/>
       <c r="E568" s="1" t="s">
@@ -41709,7 +41712,7 @@
         <v>24</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D595" s="1"/>
       <c r="E595" s="1" t="s">
@@ -41769,7 +41772,7 @@
         <v>35</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D596" s="1"/>
       <c r="E596" s="1" t="s">
@@ -42300,7 +42303,7 @@
         <v>35</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D606" s="1"/>
       <c r="H606" s="4">
@@ -42399,7 +42402,7 @@
         <v>35</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D608" s="1"/>
       <c r="H608" s="4">
@@ -42450,7 +42453,7 @@
         <v>35</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D609" s="1"/>
       <c r="E609" s="1" t="s">
@@ -42606,7 +42609,7 @@
         <v>35</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D612" s="1"/>
       <c r="H612" s="4">
@@ -42657,7 +42660,7 @@
         <v>24</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D613" s="1"/>
       <c r="E613" s="1" t="s">
@@ -42886,7 +42889,7 @@
         <v>35.0</v>
       </c>
       <c r="L617" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M617" s="1">
         <v>1.02</v>
@@ -43227,7 +43230,7 @@
         <v>24</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D624" s="1"/>
       <c r="E624" s="1" t="s">
@@ -43624,7 +43627,7 @@
       </c>
       <c r="D632" s="1"/>
       <c r="G632" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H632" s="4">
         <v>43299.0</v>
@@ -43713,7 +43716,7 @@
         <v>24</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D634" s="1"/>
       <c r="H634" s="4">
@@ -46393,7 +46396,7 @@
         <v>365</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>411</v>
@@ -46465,7 +46468,7 @@
         <v>365</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
@@ -47771,7 +47774,7 @@
         <v>59.0</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M28" s="18">
         <v>4.02</v>
@@ -48539,7 +48542,7 @@
         <v>5.0</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S39" s="18" t="s">
         <v>27</v>
@@ -48625,7 +48628,7 @@
         <v>29</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W40" s="18" t="s">
         <v>191</v>
@@ -48829,7 +48832,7 @@
         <v>8.0</v>
       </c>
       <c r="R43" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S43" s="18" t="s">
         <v>27</v>
@@ -48844,7 +48847,7 @@
         <v>30</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X43" s="18" t="s">
         <v>41</v>
@@ -48907,7 +48910,7 @@
         <v>5.0</v>
       </c>
       <c r="R44" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S44" s="18" t="s">
         <v>27</v>
@@ -49137,7 +49140,7 @@
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S47" s="18" t="s">
         <v>27</v>
@@ -49285,7 +49288,7 @@
         <v>4.0</v>
       </c>
       <c r="R49" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S49" s="18" t="s">
         <v>27</v>
@@ -49297,7 +49300,7 @@
         <v>29</v>
       </c>
       <c r="V49" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W49" s="18" t="s">
         <v>528</v>
@@ -49361,7 +49364,7 @@
         <v>4.0</v>
       </c>
       <c r="R50" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S50" s="18" t="s">
         <v>27</v>
@@ -49376,7 +49379,7 @@
         <v>30</v>
       </c>
       <c r="W50" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X50" s="19"/>
       <c r="Z50" s="1" t="s">
@@ -49437,7 +49440,7 @@
         <v>3.0</v>
       </c>
       <c r="R51" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S51" s="18" t="s">
         <v>27</v>
@@ -49452,7 +49455,7 @@
         <v>30</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X51" s="19"/>
       <c r="Z51" s="1" t="s">
@@ -49659,7 +49662,7 @@
         <v>15.0</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S54" s="18" t="s">
         <v>27</v>
@@ -49805,7 +49808,7 @@
         <v>5.0</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S56" s="28" t="s">
         <v>27</v>
@@ -49818,10 +49821,10 @@
         <v>30</v>
       </c>
       <c r="W56" s="28" t="s">
-        <v>113</v>
+        <v>837</v>
       </c>
       <c r="X56" s="28" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>836</v>
@@ -49904,7 +49907,7 @@
         <v>16052.0</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58">
@@ -49975,7 +49978,7 @@
         <v>16053.0</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59">
@@ -50539,7 +50542,7 @@
         <v>7.0</v>
       </c>
       <c r="R66" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S66" s="18" t="s">
         <v>27</v>
@@ -50601,7 +50604,7 @@
         <v>77.0</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M67" s="18">
         <v>10.04</v>
@@ -50617,7 +50620,7 @@
         <v>7.0</v>
       </c>
       <c r="R67" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S67" s="18" t="s">
         <v>27</v>
@@ -51421,7 +51424,7 @@
         <v>32.0</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M78" s="18">
         <v>0.74</v>
@@ -51435,7 +51438,7 @@
         <v>8.0</v>
       </c>
       <c r="R78" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S78" s="18" t="s">
         <v>27</v>
@@ -51579,7 +51582,7 @@
         <v>14.0</v>
       </c>
       <c r="R80" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S80" s="18" t="s">
         <v>27</v>
@@ -51787,7 +51790,7 @@
         <v>12.0</v>
       </c>
       <c r="R83" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S83" s="18" t="s">
         <v>27</v>
@@ -52233,7 +52236,7 @@
         <v>8.0</v>
       </c>
       <c r="R90" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S90" s="18" t="s">
         <v>27</v>
@@ -52248,7 +52251,7 @@
         <v>30</v>
       </c>
       <c r="W90" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X90" s="19"/>
     </row>
@@ -52299,7 +52302,7 @@
         <v>9.0</v>
       </c>
       <c r="R91" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S91" s="18" t="s">
         <v>27</v>
@@ -52314,7 +52317,7 @@
         <v>30</v>
       </c>
       <c r="W91" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X91" s="19"/>
     </row>
@@ -52355,7 +52358,7 @@
         <v>9.0</v>
       </c>
       <c r="R92" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S92" s="18" t="s">
         <v>27</v>
@@ -52415,7 +52418,7 @@
         <v>15.0</v>
       </c>
       <c r="R93" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S93" s="18" t="s">
         <v>27</v>
@@ -52430,7 +52433,7 @@
         <v>30</v>
       </c>
       <c r="W93" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X93" s="19"/>
     </row>
@@ -52655,7 +52658,7 @@
         <v>43.0</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M97" s="18">
         <v>1.56</v>
@@ -52671,7 +52674,7 @@
         <v>9.0</v>
       </c>
       <c r="R97" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S97" s="18" t="s">
         <v>27</v>
@@ -52799,7 +52802,7 @@
         <v>12.0</v>
       </c>
       <c r="R99" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S99" s="18" t="s">
         <v>27</v>
@@ -52811,7 +52814,7 @@
         <v>29</v>
       </c>
       <c r="V99" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W99" s="19"/>
       <c r="X99" s="19"/>
@@ -52839,13 +52842,13 @@
       </c>
       <c r="I100" s="19"/>
       <c r="J100" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K100" s="18">
         <v>32.0</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M100" s="18">
         <v>0.7</v>
@@ -52871,10 +52874,10 @@
         <v>29</v>
       </c>
       <c r="V100" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W100" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X100" s="19"/>
     </row>
@@ -52933,7 +52936,7 @@
         <v>29</v>
       </c>
       <c r="V101" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W101" s="18" t="s">
         <v>193</v>
@@ -53291,7 +53294,7 @@
         <v>32.0</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M107" s="18">
         <v>0.78</v>
@@ -53305,7 +53308,7 @@
         <v>12.0</v>
       </c>
       <c r="R107" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S107" s="18" t="s">
         <v>27</v>
@@ -53317,7 +53320,7 @@
         <v>29</v>
       </c>
       <c r="V107" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W107" s="19"/>
       <c r="X107" s="19"/>
@@ -53367,7 +53370,7 @@
         <v>7.0</v>
       </c>
       <c r="R108" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S108" s="18" t="s">
         <v>27</v>
@@ -53431,7 +53434,7 @@
         <v>12.0</v>
       </c>
       <c r="R109" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S109" s="18" t="s">
         <v>27</v>
@@ -53443,10 +53446,10 @@
         <v>29</v>
       </c>
       <c r="V109" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W109" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X109" s="19"/>
     </row>
@@ -54007,7 +54010,7 @@
         <v>6.0</v>
       </c>
       <c r="R118" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S118" s="18" t="s">
         <v>27</v>
@@ -54071,7 +54074,7 @@
         <v>7.0</v>
       </c>
       <c r="R119" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S119" s="18" t="s">
         <v>27</v>
@@ -54086,7 +54089,7 @@
         <v>30</v>
       </c>
       <c r="W119" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X119" s="19"/>
     </row>
@@ -54209,7 +54212,7 @@
         <v>29</v>
       </c>
       <c r="V121" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W121" s="19"/>
       <c r="X121" s="18" t="s">
@@ -54705,7 +54708,7 @@
         <v>45.0</v>
       </c>
       <c r="L129" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M129" s="18">
         <v>1.89</v>
@@ -55091,7 +55094,7 @@
         <v>32.0</v>
       </c>
       <c r="L135" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M135" s="18">
         <v>0.89</v>
